--- a/網路商城_2022_01月統計表.xlsx
+++ b/網路商城_2022_01月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1635" windowWidth="15600" windowHeight="8325" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="1725" windowWidth="15600" windowHeight="8235" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="237">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,6 +893,46 @@
   </si>
   <si>
     <t>屏東萬隆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中松竹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/24~1/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_百頁</t>
+  </si>
+  <si>
+    <t>滷味_百頁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_毛豆</t>
+  </si>
+  <si>
+    <t>滷味_毛豆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_雞翅</t>
+  </si>
+  <si>
+    <t>滷味_雞翅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_鴨翅</t>
+  </si>
+  <si>
+    <t>滷味_鴨翅</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1076,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1927,6 +1973,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2201,11 +2250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125632512"/>
-        <c:axId val="128730240"/>
+        <c:axId val="177378816"/>
+        <c:axId val="104820672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125632512"/>
+        <c:axId val="177378816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2276,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128730240"/>
+        <c:crossAx val="104820672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2235,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128730240"/>
+        <c:axId val="104820672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2308,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125632512"/>
+        <c:crossAx val="177378816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,11 +2685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181099840"/>
-        <c:axId val="126772928"/>
+        <c:axId val="257229952"/>
+        <c:axId val="257230528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181099840"/>
+        <c:axId val="257229952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,12 +2733,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126772928"/>
+        <c:crossAx val="257230528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126772928"/>
+        <c:axId val="257230528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2790,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181099840"/>
+        <c:crossAx val="257229952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2938,11 +2987,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="139754496"/>
-        <c:axId val="126775808"/>
+        <c:axId val="257394688"/>
+        <c:axId val="257233408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139754496"/>
+        <c:axId val="257394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +3013,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126775808"/>
+        <c:crossAx val="257233408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2972,7 +3021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126775808"/>
+        <c:axId val="257233408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +3031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139754496"/>
+        <c:crossAx val="257394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,11 +3244,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="140300800"/>
-        <c:axId val="126777536"/>
+        <c:axId val="257396224"/>
+        <c:axId val="257235136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140300800"/>
+        <c:axId val="257396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3270,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126777536"/>
+        <c:crossAx val="257235136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126777536"/>
+        <c:axId val="257235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,7 +3288,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140300800"/>
+        <c:crossAx val="257396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3643,11 +3692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128712704"/>
-        <c:axId val="128713280"/>
+        <c:axId val="257753088"/>
+        <c:axId val="257753664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128712704"/>
+        <c:axId val="257753088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,12 +3740,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128713280"/>
+        <c:crossAx val="257753664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128713280"/>
+        <c:axId val="257753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3748,7 +3797,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128712704"/>
+        <c:crossAx val="257753088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4056,11 +4105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128732544"/>
-        <c:axId val="128733120"/>
+        <c:axId val="179585024"/>
+        <c:axId val="179585600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128732544"/>
+        <c:axId val="179585024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,12 +4180,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128733120"/>
+        <c:crossAx val="179585600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128733120"/>
+        <c:axId val="179585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4252,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128732544"/>
+        <c:crossAx val="179585024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4539,11 +4588,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="126262272"/>
-        <c:axId val="128734848"/>
+        <c:axId val="181847552"/>
+        <c:axId val="179587328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126262272"/>
+        <c:axId val="181847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4565,7 +4614,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128734848"/>
+        <c:crossAx val="179587328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4573,7 +4622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128734848"/>
+        <c:axId val="179587328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4632,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126262272"/>
+        <c:crossAx val="181847552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,6 +4761,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4761,9 +4811,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>年菜</c:v>
                 </c:pt>
@@ -4775,21 +4825,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第四周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$6:$F$6</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>22534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24926</c:v>
+                  <c:v>27219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4835,9 +4888,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>年菜</c:v>
                 </c:pt>
@@ -4849,21 +4902,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第四周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$7:$F$7</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4598</c:v>
+                  <c:v>5353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,8 +4934,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126347264"/>
-        <c:axId val="168380096"/>
+        <c:axId val="181837824"/>
+        <c:axId val="179589056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4914,8 +4970,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1664421860101545E-2"/>
-                  <c:y val="-3.7094412335036644E-2"/>
+                  <c:x val="1.422016718323597E-2"/>
+                  <c:y val="-1.2827714997980941E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4966,9 +5022,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>年菜</c:v>
                 </c:pt>
@@ -4980,21 +5036,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>第三周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第四周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$5:$F$5</c:f>
+              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,11 +5070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126347776"/>
-        <c:axId val="181075968"/>
+        <c:axId val="181838336"/>
+        <c:axId val="179589632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126347264"/>
+        <c:axId val="181837824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5037,7 +5096,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168380096"/>
+        <c:crossAx val="179589056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5045,7 +5104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168380096"/>
+        <c:axId val="179589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5069,13 +5128,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126347264"/>
+        <c:crossAx val="181837824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181075968"/>
+        <c:axId val="179589632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5098,13 +5157,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126347776"/>
+        <c:crossAx val="181838336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="126347776"/>
+        <c:axId val="181838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181075968"/>
+        <c:crossAx val="179589632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5398,8 +5457,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125636096"/>
-        <c:axId val="181078848"/>
+        <c:axId val="181848576"/>
+        <c:axId val="179592512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5560,11 +5619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126485504"/>
-        <c:axId val="181078272"/>
+        <c:axId val="181840384"/>
+        <c:axId val="179591936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126485504"/>
+        <c:axId val="181840384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5645,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181078272"/>
+        <c:crossAx val="179591936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5594,7 +5653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181078272"/>
+        <c:axId val="179591936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,12 +5677,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126485504"/>
+        <c:crossAx val="181840384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181078848"/>
+        <c:axId val="179592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,12 +5705,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125636096"/>
+        <c:crossAx val="181848576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="125636096"/>
+        <c:axId val="181848576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5660,7 +5719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181078848"/>
+        <c:crossAx val="179592512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5900,11 +5959,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128067584"/>
-        <c:axId val="181095232"/>
+        <c:axId val="255862784"/>
+        <c:axId val="187131584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128067584"/>
+        <c:axId val="255862784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5926,7 +5985,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181095232"/>
+        <c:crossAx val="187131584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5934,7 +5993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181095232"/>
+        <c:axId val="187131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6017,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128067584"/>
+        <c:crossAx val="255862784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6122,11 +6181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128069120"/>
-        <c:axId val="181096960"/>
+        <c:axId val="255864320"/>
+        <c:axId val="187133312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128069120"/>
+        <c:axId val="255864320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6149,7 +6208,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181096960"/>
+        <c:crossAx val="187133312"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6158,7 +6217,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181096960"/>
+        <c:axId val="187133312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6183,7 +6242,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128069120"/>
+        <c:crossAx val="255864320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6391,11 +6450,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="135670784"/>
-        <c:axId val="181098688"/>
+        <c:axId val="257549824"/>
+        <c:axId val="187135616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135670784"/>
+        <c:axId val="257549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,7 +6476,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181098688"/>
+        <c:crossAx val="187135616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6425,7 +6484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181098688"/>
+        <c:axId val="187135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6435,7 +6494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135670784"/>
+        <c:crossAx val="257549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6648,11 +6707,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="139612672"/>
-        <c:axId val="194682176"/>
+        <c:axId val="257392640"/>
+        <c:axId val="187137344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139612672"/>
+        <c:axId val="257392640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,7 +6733,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194682176"/>
+        <c:crossAx val="187137344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6682,7 +6741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194682176"/>
+        <c:axId val="187137344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6751,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139612672"/>
+        <c:crossAx val="257392640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6908,7 +6967,7 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>134939</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
@@ -8213,27 +8272,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="8"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="127"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -8460,26 +8519,26 @@
       <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="130"/>
     </row>
     <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="36" t="s">
@@ -9423,11 +9482,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P142" sqref="P142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9479,10 +9538,10 @@
         <v>44568</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C2" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>188</v>
@@ -9497,13 +9556,15 @@
         <v>329</v>
       </c>
       <c r="H2" s="5">
-        <f>F2-E2</f>
+        <f t="shared" ref="H2:H33" si="0">F2-E2</f>
         <v>70</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
       <c r="J2" s="5">
-        <f>F2*I2</f>
-        <v>0</v>
+        <f t="shared" ref="J2:J33" si="1">F2*I2</f>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9511,10 +9572,10 @@
         <v>44568</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C3" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>190</v>
@@ -9529,13 +9590,15 @@
         <v>445</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H4" si="0">F3-E3</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J4" si="1">F3*I3</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9543,10 +9606,10 @@
         <v>44568</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C4" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>192</v>
@@ -9564,10 +9627,12 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
       <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9575,10 +9640,10 @@
         <v>44568</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C5" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>194</v>
@@ -9593,13 +9658,15 @@
         <v>545</v>
       </c>
       <c r="H5" s="5">
-        <f>F5-E5</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
       <c r="J5" s="5">
-        <f>F5*I5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9607,10 +9674,10 @@
         <v>44568</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C6" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>196</v>
@@ -9625,15 +9692,15 @@
         <v>430</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H69" si="2">F6-E6</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J69" si="3">F6*I6</f>
-        <v>383</v>
+        <f t="shared" si="1"/>
+        <v>1532</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9641,10 +9708,10 @@
         <v>44568</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C7" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>198</v>
@@ -9659,13 +9726,15 @@
         <v>105</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9673,10 +9742,10 @@
         <v>44568</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C8" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>200</v>
@@ -9691,13 +9760,15 @@
         <v>105</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9705,10 +9776,10 @@
         <v>44568</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C9" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>202</v>
@@ -9723,13 +9794,15 @@
         <v>105</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9737,10 +9810,10 @@
         <v>44568</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C10" s="5">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>204</v>
@@ -9755,13 +9828,15 @@
         <v>430</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9769,13 +9844,13 @@
         <v>44568</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E11" s="5">
         <v>210</v>
@@ -9787,12 +9862,12 @@
         <v>329</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9801,13 +9876,13 @@
         <v>44568</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" s="5">
         <v>250</v>
@@ -9819,12 +9894,12 @@
         <v>445</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9833,13 +9908,13 @@
         <v>44568</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="5">
         <v>125</v>
@@ -9851,12 +9926,12 @@
         <v>210</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9865,13 +9940,13 @@
         <v>44568</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E14" s="5">
         <v>440</v>
@@ -9883,12 +9958,12 @@
         <v>545</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9897,13 +9972,13 @@
         <v>44568</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" s="5">
         <v>345</v>
@@ -9915,13 +9990,15 @@
         <v>430</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9929,13 +10006,13 @@
         <v>44568</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E16" s="5">
         <v>83</v>
@@ -9947,15 +10024,13 @@
         <v>105</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -9963,13 +10038,13 @@
         <v>44568</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="5">
         <v>83</v>
@@ -9981,15 +10056,13 @@
         <v>105</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="5">
-        <f t="shared" si="3"/>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -9997,13 +10070,13 @@
         <v>44568</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E18" s="5">
         <v>83</v>
@@ -10015,15 +10088,13 @@
         <v>105</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5">
-        <f t="shared" si="3"/>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -10031,13 +10102,13 @@
         <v>44568</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="5">
         <v>345</v>
@@ -10049,12 +10120,12 @@
         <v>430</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10063,10 +10134,10 @@
         <v>44568</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>187</v>
@@ -10081,12 +10152,12 @@
         <v>329</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10095,10 +10166,10 @@
         <v>44568</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>189</v>
@@ -10113,12 +10184,12 @@
         <v>445</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10127,10 +10198,10 @@
         <v>44568</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>191</v>
@@ -10145,12 +10216,12 @@
         <v>210</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10159,10 +10230,10 @@
         <v>44568</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>193</v>
@@ -10177,15 +10248,13 @@
         <v>545</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="I23" s="5">
-        <v>2</v>
-      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
-        <v>978</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -10193,10 +10262,10 @@
         <v>44568</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>195</v>
@@ -10211,15 +10280,13 @@
         <v>430</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>383</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -10227,10 +10294,10 @@
         <v>44568</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>197</v>
@@ -10245,14 +10312,14 @@
         <v>105</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -10261,10 +10328,10 @@
         <v>44568</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>199</v>
@@ -10279,15 +10346,15 @@
         <v>105</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -10295,10 +10362,10 @@
         <v>44568</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>201</v>
@@ -10313,15 +10380,15 @@
         <v>105</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="3"/>
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -10329,10 +10396,10 @@
         <v>44568</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C28" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>203</v>
@@ -10347,12 +10414,12 @@
         <v>430</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10361,10 +10428,10 @@
         <v>44568</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>187</v>
@@ -10379,12 +10446,12 @@
         <v>329</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10393,10 +10460,10 @@
         <v>44568</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>189</v>
@@ -10411,15 +10478,13 @@
         <v>445</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
+      <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" si="3"/>
-        <v>357</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -10427,10 +10492,10 @@
         <v>44568</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>191</v>
@@ -10445,12 +10510,12 @@
         <v>210</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10459,10 +10524,10 @@
         <v>44568</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>193</v>
@@ -10477,13 +10542,15 @@
         <v>545</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
       <c r="J32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -10491,10 +10558,10 @@
         <v>44568</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>195</v>
@@ -10509,14 +10576,14 @@
         <v>430</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>383</v>
       </c>
     </row>
@@ -10525,10 +10592,10 @@
         <v>44568</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>197</v>
@@ -10543,14 +10610,14 @@
         <v>105</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H34:H65" si="2">F34-E34</f>
         <v>9</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J34:J65" si="3">F34*I34</f>
         <v>92</v>
       </c>
     </row>
@@ -10559,10 +10626,10 @@
         <v>44568</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>199</v>
@@ -10581,11 +10648,11 @@
         <v>9</v>
       </c>
       <c r="I35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -10593,10 +10660,10 @@
         <v>44568</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>201</v>
@@ -10615,11 +10682,11 @@
         <v>9</v>
       </c>
       <c r="I36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -10627,10 +10694,10 @@
         <v>44568</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="108">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>203</v>
@@ -10648,23 +10715,21 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5">
         <f t="shared" si="3"/>
-        <v>383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="104">
         <v>44568</v>
       </c>
-      <c r="B38" s="108" t="s">
-        <v>205</v>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C38" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>187</v>
@@ -10692,11 +10757,11 @@
       <c r="A39" s="104">
         <v>44568</v>
       </c>
-      <c r="B39" s="108" t="s">
-        <v>205</v>
+      <c r="B39" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C39" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>189</v>
@@ -10714,21 +10779,23 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
       <c r="J39" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="104">
         <v>44568</v>
       </c>
-      <c r="B40" s="108" t="s">
-        <v>205</v>
+      <c r="B40" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C40" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>191</v>
@@ -10756,11 +10823,11 @@
       <c r="A41" s="104">
         <v>44568</v>
       </c>
-      <c r="B41" s="108" t="s">
-        <v>205</v>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C41" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>193</v>
@@ -10788,11 +10855,11 @@
       <c r="A42" s="104">
         <v>44568</v>
       </c>
-      <c r="B42" s="108" t="s">
-        <v>205</v>
+      <c r="B42" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C42" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>195</v>
@@ -10810,21 +10877,23 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
       <c r="J42" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="104">
         <v>44568</v>
       </c>
-      <c r="B43" s="108" t="s">
-        <v>205</v>
+      <c r="B43" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C43" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>197</v>
@@ -10842,21 +10911,23 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
       <c r="J43" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="104">
         <v>44568</v>
       </c>
-      <c r="B44" s="108" t="s">
-        <v>205</v>
+      <c r="B44" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>199</v>
@@ -10874,21 +10945,23 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
       <c r="J44" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="104">
         <v>44568</v>
       </c>
-      <c r="B45" s="108" t="s">
-        <v>205</v>
+      <c r="B45" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>201</v>
@@ -10906,21 +10979,23 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
       <c r="J45" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="104">
         <v>44568</v>
       </c>
-      <c r="B46" s="108" t="s">
-        <v>205</v>
+      <c r="B46" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="108">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>203</v>
@@ -10938,21 +11013,23 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
       <c r="J46" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="104">
         <v>44568</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="108">
         <v>23</v>
-      </c>
-      <c r="C47" s="108">
-        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>187</v>
@@ -10980,11 +11057,11 @@
       <c r="A48" s="104">
         <v>44568</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="108">
         <v>23</v>
-      </c>
-      <c r="C48" s="108">
-        <v>46</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>189</v>
@@ -11012,11 +11089,11 @@
       <c r="A49" s="104">
         <v>44568</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="108">
         <v>23</v>
-      </c>
-      <c r="C49" s="108">
-        <v>46</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>191</v>
@@ -11044,11 +11121,11 @@
       <c r="A50" s="104">
         <v>44568</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="108">
         <v>23</v>
-      </c>
-      <c r="C50" s="108">
-        <v>46</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>193</v>
@@ -11076,11 +11153,11 @@
       <c r="A51" s="104">
         <v>44568</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="108">
         <v>23</v>
-      </c>
-      <c r="C51" s="108">
-        <v>46</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>195</v>
@@ -11108,11 +11185,11 @@
       <c r="A52" s="104">
         <v>44568</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="108">
         <v>23</v>
-      </c>
-      <c r="C52" s="108">
-        <v>46</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>197</v>
@@ -11140,11 +11217,11 @@
       <c r="A53" s="104">
         <v>44568</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="108">
         <v>23</v>
-      </c>
-      <c r="C53" s="108">
-        <v>46</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>199</v>
@@ -11172,11 +11249,11 @@
       <c r="A54" s="104">
         <v>44568</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="108">
         <v>23</v>
-      </c>
-      <c r="C54" s="108">
-        <v>46</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>201</v>
@@ -11204,11 +11281,11 @@
       <c r="A55" s="104">
         <v>44568</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="108">
         <v>23</v>
-      </c>
-      <c r="C55" s="108">
-        <v>46</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>203</v>
@@ -11237,10 +11314,10 @@
         <v>44568</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C56" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>187</v>
@@ -11269,10 +11346,10 @@
         <v>44568</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C57" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>189</v>
@@ -11301,10 +11378,10 @@
         <v>44568</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C58" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>191</v>
@@ -11333,10 +11410,10 @@
         <v>44568</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C59" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>193</v>
@@ -11365,10 +11442,10 @@
         <v>44568</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C60" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>195</v>
@@ -11397,10 +11474,10 @@
         <v>44568</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C61" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>197</v>
@@ -11429,10 +11506,10 @@
         <v>44568</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C62" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>199</v>
@@ -11461,10 +11538,10 @@
         <v>44568</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C63" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>201</v>
@@ -11493,10 +11570,10 @@
         <v>44568</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C64" s="108">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>203</v>
@@ -11525,10 +11602,10 @@
         <v>44568</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C65" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>187</v>
@@ -11557,10 +11634,10 @@
         <v>44568</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C66" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>189</v>
@@ -11575,12 +11652,12 @@
         <v>445</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H66:H97" si="4">F66-E66</f>
         <v>107</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J66:J97" si="5">F66*I66</f>
         <v>0</v>
       </c>
     </row>
@@ -11589,10 +11666,10 @@
         <v>44568</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C67" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>191</v>
@@ -11607,12 +11684,12 @@
         <v>210</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11621,10 +11698,10 @@
         <v>44568</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C68" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>193</v>
@@ -11639,12 +11716,12 @@
         <v>545</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11653,10 +11730,10 @@
         <v>44568</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C69" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>195</v>
@@ -11671,12 +11748,12 @@
         <v>430</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11685,10 +11762,10 @@
         <v>44568</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C70" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>197</v>
@@ -11703,12 +11780,12 @@
         <v>105</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" ref="H70:H133" si="4">F70-E70</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5">
-        <f t="shared" ref="J70:J133" si="5">F70*I70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11717,10 +11794,10 @@
         <v>44568</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C71" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>199</v>
@@ -11749,10 +11826,10 @@
         <v>44568</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C72" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>201</v>
@@ -11781,10 +11858,10 @@
         <v>44568</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C73" s="108">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>203</v>
@@ -11813,10 +11890,10 @@
         <v>44568</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C74" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>187</v>
@@ -11845,10 +11922,10 @@
         <v>44568</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>189</v>
@@ -11877,10 +11954,10 @@
         <v>44568</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C76" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>191</v>
@@ -11909,10 +11986,10 @@
         <v>44568</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C77" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>193</v>
@@ -11941,10 +12018,10 @@
         <v>44568</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C78" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>195</v>
@@ -11973,10 +12050,10 @@
         <v>44568</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C79" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>197</v>
@@ -12005,10 +12082,10 @@
         <v>44568</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C80" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>199</v>
@@ -12037,10 +12114,10 @@
         <v>44568</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C81" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>201</v>
@@ -12069,10 +12146,10 @@
         <v>44568</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C82" s="108">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>203</v>
@@ -12101,10 +12178,10 @@
         <v>44568</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>187</v>
@@ -12133,10 +12210,10 @@
         <v>44568</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>189</v>
@@ -12165,10 +12242,10 @@
         <v>44568</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>191</v>
@@ -12197,10 +12274,10 @@
         <v>44568</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C86" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>193</v>
@@ -12229,10 +12306,10 @@
         <v>44568</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>195</v>
@@ -12261,10 +12338,10 @@
         <v>44568</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>197</v>
@@ -12293,10 +12370,10 @@
         <v>44568</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>199</v>
@@ -12325,10 +12402,10 @@
         <v>44568</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>201</v>
@@ -12357,10 +12434,10 @@
         <v>44568</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>203</v>
@@ -12389,33 +12466,31 @@
         <v>44568</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C92" s="108">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E92" s="5">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F92" s="5">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="G92" s="5">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I92" s="5">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I92" s="5"/>
       <c r="J92" s="5">
         <f t="shared" si="5"/>
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -12423,33 +12498,31 @@
         <v>44568</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C93" s="108">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E93" s="5">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="F93" s="5">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="G93" s="5">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I93" s="5">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I93" s="5"/>
       <c r="J93" s="5">
         <f t="shared" si="5"/>
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -12457,26 +12530,26 @@
         <v>44568</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C94" s="108">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E94" s="5">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F94" s="5">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="G94" s="5">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5">
@@ -12489,33 +12562,31 @@
         <v>44568</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C95" s="108">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E95" s="5">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="F95" s="5">
-        <v>108</v>
+        <v>489</v>
       </c>
       <c r="G95" s="5">
-        <v>135</v>
+        <v>545</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I95" s="5">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I95" s="5"/>
       <c r="J95" s="5">
         <f t="shared" si="5"/>
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -12523,26 +12594,26 @@
         <v>44568</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C96" s="108">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E96" s="5">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="F96" s="5">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="G96" s="5">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
@@ -12555,33 +12626,31 @@
         <v>44568</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="5">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C97" s="108">
+        <v>16</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E97" s="5">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="F97" s="5">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="G97" s="5">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I97" s="5">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I97" s="5"/>
       <c r="J97" s="5">
         <f t="shared" si="5"/>
-        <v>675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -12589,33 +12658,31 @@
         <v>44568</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="5">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C98" s="108">
+        <v>16</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E98" s="5">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="F98" s="5">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="G98" s="5">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I98" s="5">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="H98:H129" si="6">F98-E98</f>
+        <v>9</v>
+      </c>
+      <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <f t="shared" si="5"/>
-        <v>675</v>
+        <f t="shared" ref="J98:J129" si="7">F98*I98</f>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -12623,30 +12690,30 @@
         <v>44568</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="5">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C99" s="108">
+        <v>16</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E99" s="5">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F99" s="5">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G99" s="5">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12655,33 +12722,31 @@
         <v>44568</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="5">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C100" s="108">
+        <v>16</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E100" s="5">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="F100" s="5">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="G100" s="5">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I100" s="5">
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="I100" s="5"/>
       <c r="J100" s="5">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -12689,33 +12754,33 @@
         <v>44568</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="5">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="C101" s="108">
+        <v>41</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E101" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F101" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G101" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I101" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="5"/>
-        <v>144</v>
+        <f t="shared" si="7"/>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -12723,13 +12788,13 @@
         <v>44568</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="5">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="C102" s="108">
+        <v>41</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E102" s="5">
         <v>180</v>
@@ -12741,15 +12806,15 @@
         <v>250</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I102" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J102" s="5">
-        <f t="shared" si="5"/>
-        <v>2250</v>
+        <f t="shared" si="7"/>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -12757,33 +12822,31 @@
         <v>44568</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="5">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="C103" s="108">
+        <v>41</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E103" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F103" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G103" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I103" s="5">
-        <v>10</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I103" s="5"/>
       <c r="J103" s="5">
-        <f t="shared" si="5"/>
-        <v>2250</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -12791,33 +12854,33 @@
         <v>44568</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="5">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="C104" s="108">
+        <v>41</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E104" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F104" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G104" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="I104" s="5">
         <v>2</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="5"/>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -12825,30 +12888,30 @@
         <v>44568</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="5">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="C105" s="108">
+        <v>41</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E105" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F105" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G105" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12857,33 +12920,33 @@
         <v>44568</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C106" s="5">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E106" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F106" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G106" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I106" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="5"/>
-        <v>144</v>
+        <f t="shared" si="7"/>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -12891,13 +12954,13 @@
         <v>44568</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C107" s="5">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E107" s="5">
         <v>180</v>
@@ -12909,15 +12972,15 @@
         <v>250</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I107" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="5"/>
-        <v>5175</v>
+        <f t="shared" si="7"/>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -12925,33 +12988,31 @@
         <v>44568</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C108" s="5">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E108" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F108" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G108" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I108" s="5"/>
       <c r="J108" s="5">
-        <f t="shared" si="5"/>
-        <v>225</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -12959,31 +13020,33 @@
         <v>44568</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C109" s="5">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E109" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F109" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G109" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I109" s="5"/>
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1</v>
+      </c>
       <c r="J109" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -12991,31 +13054,33 @@
         <v>44568</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C110" s="5">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E110" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F110" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G110" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I110" s="5"/>
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I110" s="5">
+        <v>2</v>
+      </c>
       <c r="J110" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -13023,31 +13088,33 @@
         <v>44568</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C111" s="5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E111" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F111" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G111" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="I111" s="5"/>
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="I111" s="5">
+        <v>10</v>
+      </c>
       <c r="J111" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2250</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -13055,13 +13122,13 @@
         <v>44568</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" s="5">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E112" s="5">
         <v>180</v>
@@ -13073,13 +13140,15 @@
         <v>250</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5">
+        <v>10</v>
+      </c>
       <c r="J112" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2250</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -13087,31 +13156,33 @@
         <v>44568</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C113" s="5">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E113" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F113" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G113" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="I113" s="5"/>
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2</v>
+      </c>
       <c r="J113" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -13119,30 +13190,30 @@
         <v>44568</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C114" s="5">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E114" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F114" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G114" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13151,31 +13222,33 @@
         <v>44568</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C115" s="5">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E115" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F115" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G115" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I115" s="5"/>
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2</v>
+      </c>
       <c r="J115" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -13183,33 +13256,33 @@
         <v>44568</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" s="5">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E116" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F116" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G116" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I116" s="5">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J116" s="5">
-        <f t="shared" si="5"/>
-        <v>144</v>
+        <f t="shared" si="7"/>
+        <v>5175</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -13217,13 +13290,13 @@
         <v>44568</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C117" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E117" s="5">
         <v>180</v>
@@ -13235,13 +13308,15 @@
         <v>250</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="I117" s="5"/>
+      <c r="I117" s="5">
+        <v>1</v>
+      </c>
       <c r="J117" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -13249,30 +13324,30 @@
         <v>44568</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C118" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E118" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F118" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G118" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13281,30 +13356,30 @@
         <v>44568</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C119" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E119" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F119" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G119" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13313,30 +13388,30 @@
         <v>44568</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C120" s="5">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E120" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F120" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G120" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13345,30 +13420,30 @@
         <v>44568</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="C121" s="5">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E121" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F121" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G121" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13377,13 +13452,13 @@
         <v>44568</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C122" s="5">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E122" s="5">
         <v>180</v>
@@ -13395,12 +13470,12 @@
         <v>250</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13409,30 +13484,30 @@
         <v>44568</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C123" s="5">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E123" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F123" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G123" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13441,30 +13516,30 @@
         <v>44568</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C124" s="5">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E124" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F124" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G124" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H124" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13473,31 +13548,33 @@
         <v>44568</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C125" s="5">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E125" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F125" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G125" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H125" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I125" s="5"/>
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I125" s="5">
+        <v>2</v>
+      </c>
       <c r="J125" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -13505,30 +13582,30 @@
         <v>44568</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E126" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F126" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G126" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H126" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13537,13 +13614,13 @@
         <v>44568</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C127" s="5">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E127" s="5">
         <v>180</v>
@@ -13555,12 +13632,12 @@
         <v>250</v>
       </c>
       <c r="H127" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13569,30 +13646,30 @@
         <v>44568</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C128" s="5">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E128" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F128" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G128" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H128" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13601,30 +13678,30 @@
         <v>44568</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C129" s="5">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E129" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F129" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G129" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H129" s="5">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13633,30 +13710,30 @@
         <v>44568</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C130" s="5">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E130" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F130" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G130" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" ref="H130:H179" si="8">F130-E130</f>
+        <v>12</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J130:J179" si="9">F130*I130</f>
         <v>0</v>
       </c>
     </row>
@@ -13665,30 +13742,30 @@
         <v>44568</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C131" s="5">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E131" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F131" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G131" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H131" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13697,13 +13774,13 @@
         <v>44568</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C132" s="5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E132" s="5">
         <v>180</v>
@@ -13715,12 +13792,12 @@
         <v>250</v>
       </c>
       <c r="H132" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13729,30 +13806,30 @@
         <v>44568</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C133" s="5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E133" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F133" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G133" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H133" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13761,30 +13838,30 @@
         <v>44568</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C134" s="5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E134" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F134" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G134" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" ref="H134:H146" si="6">F134-E134</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
-        <f t="shared" ref="J134:J146" si="7">F134*I134</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13793,30 +13870,30 @@
         <v>44568</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C135" s="5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E135" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F135" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G135" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13825,30 +13902,30 @@
         <v>44568</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C136" s="5">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E136" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F136" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G136" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13857,13 +13934,13 @@
         <v>44568</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C137" s="5">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E137" s="5">
         <v>180</v>
@@ -13875,12 +13952,12 @@
         <v>250</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13889,30 +13966,30 @@
         <v>44568</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C138" s="5">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E138" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F138" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G138" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13921,30 +13998,30 @@
         <v>44568</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C139" s="5">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E139" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F139" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G139" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13953,30 +14030,30 @@
         <v>44568</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C140" s="5">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E140" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F140" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G140" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H140" s="5">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13985,30 +14062,30 @@
         <v>44568</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E141" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F141" s="5">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="G141" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H141" s="5">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14017,13 +14094,13 @@
         <v>44568</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C142" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E142" s="5">
         <v>180</v>
@@ -14035,12 +14112,12 @@
         <v>250</v>
       </c>
       <c r="H142" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,30 +14126,30 @@
         <v>44568</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C143" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E143" s="5">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F143" s="5">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G143" s="5">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14081,30 +14158,30 @@
         <v>44568</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C144" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E144" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F144" s="5">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G144" s="5">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14113,30 +14190,30 @@
         <v>44568</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C145" s="5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E145" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F145" s="5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G145" s="5">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14145,30 +14222,1714 @@
         <v>44568</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" s="5">
+        <v>20</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E146" s="5">
+        <v>180</v>
+      </c>
+      <c r="F146" s="5">
         <v>225</v>
       </c>
-      <c r="C146" s="5">
-        <v>16</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E146" s="5">
-        <v>60</v>
-      </c>
-      <c r="F146" s="5">
-        <v>72</v>
-      </c>
       <c r="G146" s="5">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="5">
+        <v>20</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" s="5">
+        <v>180</v>
+      </c>
+      <c r="F147" s="5">
+        <v>225</v>
+      </c>
+      <c r="G147" s="5">
+        <v>250</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" s="5">
+        <v>20</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="5">
+        <v>60</v>
+      </c>
+      <c r="F148" s="5">
+        <v>75</v>
+      </c>
+      <c r="G148" s="5">
+        <v>89</v>
+      </c>
+      <c r="H148" s="5">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" s="5">
+        <v>20</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E149" s="5">
+        <v>80</v>
+      </c>
+      <c r="F149" s="5">
+        <v>108</v>
+      </c>
+      <c r="G149" s="5">
+        <v>135</v>
+      </c>
+      <c r="H149" s="5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C150" s="5">
+        <v>20</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E150" s="5">
+        <v>60</v>
+      </c>
+      <c r="F150" s="5">
+        <v>72</v>
+      </c>
+      <c r="G150" s="5">
+        <v>85</v>
+      </c>
+      <c r="H150" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C151" s="5">
+        <v>16</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E151" s="5">
+        <v>180</v>
+      </c>
+      <c r="F151" s="5">
+        <v>225</v>
+      </c>
+      <c r="G151" s="5">
+        <v>250</v>
+      </c>
+      <c r="H151" s="5">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C152" s="5">
+        <v>16</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E152" s="5">
+        <v>180</v>
+      </c>
+      <c r="F152" s="5">
+        <v>225</v>
+      </c>
+      <c r="G152" s="5">
+        <v>250</v>
+      </c>
+      <c r="H152" s="5">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="5">
+        <v>16</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E153" s="5">
+        <v>60</v>
+      </c>
+      <c r="F153" s="5">
+        <v>75</v>
+      </c>
+      <c r="G153" s="5">
+        <v>89</v>
+      </c>
+      <c r="H153" s="5">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154" s="5">
+        <v>16</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E154" s="5">
+        <v>80</v>
+      </c>
+      <c r="F154" s="5">
+        <v>108</v>
+      </c>
+      <c r="G154" s="5">
+        <v>135</v>
+      </c>
+      <c r="H154" s="5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C155" s="5">
+        <v>16</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E155" s="5">
+        <v>60</v>
+      </c>
+      <c r="F155" s="5">
+        <v>72</v>
+      </c>
+      <c r="G155" s="5">
+        <v>85</v>
+      </c>
+      <c r="H155" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="121">
+        <v>44568</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="108">
+        <v>45</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E156" s="5">
+        <v>23</v>
+      </c>
+      <c r="F156" s="5">
+        <v>36</v>
+      </c>
+      <c r="G156" s="5">
+        <v>45</v>
+      </c>
+      <c r="H156" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I156" s="5">
+        <v>3</v>
+      </c>
+      <c r="J156" s="5">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="108">
+        <v>45</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E157" s="5">
+        <v>30</v>
+      </c>
+      <c r="F157" s="5">
+        <v>44</v>
+      </c>
+      <c r="G157" s="5">
+        <v>55</v>
+      </c>
+      <c r="H157" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I157" s="5">
+        <v>3</v>
+      </c>
+      <c r="J157" s="5">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="108">
+        <v>45</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" s="5">
+        <v>40</v>
+      </c>
+      <c r="F158" s="5">
+        <v>52</v>
+      </c>
+      <c r="G158" s="5">
+        <v>65</v>
+      </c>
+      <c r="H158" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I158" s="5">
+        <v>3</v>
+      </c>
+      <c r="J158" s="5">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="108">
+        <v>45</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="5">
+        <v>41</v>
+      </c>
+      <c r="F159" s="5">
+        <v>63</v>
+      </c>
+      <c r="G159" s="5">
+        <v>79</v>
+      </c>
+      <c r="H159" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I159" s="5">
+        <v>3</v>
+      </c>
+      <c r="J159" s="5">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="108">
+        <v>31</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E160" s="5">
+        <v>23</v>
+      </c>
+      <c r="F160" s="5">
+        <v>36</v>
+      </c>
+      <c r="G160" s="5">
+        <v>45</v>
+      </c>
+      <c r="H160" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I160" s="5">
+        <v>5</v>
+      </c>
+      <c r="J160" s="5">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="108">
+        <v>31</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E161" s="5">
+        <v>30</v>
+      </c>
+      <c r="F161" s="5">
+        <v>44</v>
+      </c>
+      <c r="G161" s="5">
+        <v>55</v>
+      </c>
+      <c r="H161" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I161" s="5">
+        <v>3</v>
+      </c>
+      <c r="J161" s="5">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" s="108">
+        <v>31</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E162" s="5">
+        <v>40</v>
+      </c>
+      <c r="F162" s="5">
+        <v>52</v>
+      </c>
+      <c r="G162" s="5">
+        <v>65</v>
+      </c>
+      <c r="H162" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I162" s="5">
+        <v>2</v>
+      </c>
+      <c r="J162" s="5">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="108">
+        <v>31</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E163" s="5">
+        <v>41</v>
+      </c>
+      <c r="F163" s="5">
+        <v>63</v>
+      </c>
+      <c r="G163" s="5">
+        <v>79</v>
+      </c>
+      <c r="H163" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I163" s="5">
+        <v>5</v>
+      </c>
+      <c r="J163" s="5">
+        <f t="shared" si="9"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="108">
+        <v>53</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E164" s="5">
+        <v>23</v>
+      </c>
+      <c r="F164" s="5">
+        <v>36</v>
+      </c>
+      <c r="G164" s="5">
+        <v>45</v>
+      </c>
+      <c r="H164" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="108">
+        <v>53</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E165" s="5">
+        <v>30</v>
+      </c>
+      <c r="F165" s="5">
+        <v>44</v>
+      </c>
+      <c r="G165" s="5">
+        <v>55</v>
+      </c>
+      <c r="H165" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="108">
+        <v>53</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E166" s="5">
+        <v>40</v>
+      </c>
+      <c r="F166" s="5">
+        <v>52</v>
+      </c>
+      <c r="G166" s="5">
+        <v>65</v>
+      </c>
+      <c r="H166" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="108">
+        <v>53</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E167" s="5">
+        <v>41</v>
+      </c>
+      <c r="F167" s="5">
+        <v>63</v>
+      </c>
+      <c r="G167" s="5">
+        <v>79</v>
+      </c>
+      <c r="H167" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I167" s="108">
+        <v>5</v>
+      </c>
+      <c r="J167" s="5">
+        <f t="shared" si="9"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" s="108">
+        <v>31</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E168" s="5">
+        <v>23</v>
+      </c>
+      <c r="F168" s="5">
+        <v>36</v>
+      </c>
+      <c r="G168" s="5">
+        <v>45</v>
+      </c>
+      <c r="H168" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" s="108">
+        <v>31</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E169" s="5">
+        <v>30</v>
+      </c>
+      <c r="F169" s="5">
+        <v>44</v>
+      </c>
+      <c r="G169" s="5">
+        <v>55</v>
+      </c>
+      <c r="H169" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" s="108">
+        <v>31</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E170" s="5">
+        <v>40</v>
+      </c>
+      <c r="F170" s="5">
+        <v>52</v>
+      </c>
+      <c r="G170" s="5">
+        <v>65</v>
+      </c>
+      <c r="H170" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C171" s="108">
+        <v>31</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E171" s="5">
+        <v>41</v>
+      </c>
+      <c r="F171" s="5">
+        <v>63</v>
+      </c>
+      <c r="G171" s="5">
+        <v>79</v>
+      </c>
+      <c r="H171" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I171" s="108">
+        <v>5</v>
+      </c>
+      <c r="J171" s="5">
+        <f t="shared" si="9"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="108">
+        <v>81</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E172" s="5">
+        <v>23</v>
+      </c>
+      <c r="F172" s="5">
+        <v>36</v>
+      </c>
+      <c r="G172" s="5">
+        <v>45</v>
+      </c>
+      <c r="H172" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I172" s="108">
+        <v>5</v>
+      </c>
+      <c r="J172" s="5">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="108">
+        <v>81</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E173" s="5">
+        <v>30</v>
+      </c>
+      <c r="F173" s="5">
+        <v>44</v>
+      </c>
+      <c r="G173" s="5">
+        <v>55</v>
+      </c>
+      <c r="H173" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I173" s="108">
+        <v>0</v>
+      </c>
+      <c r="J173" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="108">
+        <v>81</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E174" s="5">
+        <v>40</v>
+      </c>
+      <c r="F174" s="5">
+        <v>52</v>
+      </c>
+      <c r="G174" s="5">
+        <v>65</v>
+      </c>
+      <c r="H174" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I174" s="108">
+        <v>2</v>
+      </c>
+      <c r="J174" s="5">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="108">
+        <v>81</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E175" s="5">
+        <v>41</v>
+      </c>
+      <c r="F175" s="5">
+        <v>63</v>
+      </c>
+      <c r="G175" s="5">
+        <v>79</v>
+      </c>
+      <c r="H175" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I175" s="108">
+        <v>1</v>
+      </c>
+      <c r="J175" s="5">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="108">
+        <v>41</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E176" s="5">
+        <v>23</v>
+      </c>
+      <c r="F176" s="5">
+        <v>36</v>
+      </c>
+      <c r="G176" s="5">
+        <v>45</v>
+      </c>
+      <c r="H176" s="5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="108">
+        <v>41</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E177" s="5">
+        <v>30</v>
+      </c>
+      <c r="F177" s="5">
+        <v>44</v>
+      </c>
+      <c r="G177" s="5">
+        <v>55</v>
+      </c>
+      <c r="H177" s="5">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="108">
+        <v>41</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E178" s="5">
+        <v>40</v>
+      </c>
+      <c r="F178" s="5">
+        <v>52</v>
+      </c>
+      <c r="G178" s="5">
+        <v>65</v>
+      </c>
+      <c r="H178" s="5">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="108">
+        <v>41</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E179" s="5">
+        <v>41</v>
+      </c>
+      <c r="F179" s="5">
+        <v>63</v>
+      </c>
+      <c r="G179" s="5">
+        <v>79</v>
+      </c>
+      <c r="H179" s="5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C180" s="5">
+        <v>8</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E180" s="5">
+        <v>23</v>
+      </c>
+      <c r="F180" s="5">
+        <v>36</v>
+      </c>
+      <c r="G180" s="5">
+        <v>45</v>
+      </c>
+      <c r="H180" s="5">
+        <v>13</v>
+      </c>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C181" s="5">
+        <v>8</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E181" s="5">
+        <v>30</v>
+      </c>
+      <c r="F181" s="5">
+        <v>44</v>
+      </c>
+      <c r="G181" s="5">
+        <v>55</v>
+      </c>
+      <c r="H181" s="5">
+        <v>14</v>
+      </c>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C182" s="5">
+        <v>8</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E182" s="5">
+        <v>40</v>
+      </c>
+      <c r="F182" s="5">
+        <v>52</v>
+      </c>
+      <c r="G182" s="5">
+        <v>65</v>
+      </c>
+      <c r="H182" s="5">
+        <v>12</v>
+      </c>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C183" s="5">
+        <v>8</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E183" s="5">
+        <v>41</v>
+      </c>
+      <c r="F183" s="5">
+        <v>63</v>
+      </c>
+      <c r="G183" s="5">
+        <v>79</v>
+      </c>
+      <c r="H183" s="5">
+        <v>22</v>
+      </c>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" s="5">
+        <v>23</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E184" s="5">
+        <v>23</v>
+      </c>
+      <c r="F184" s="5">
+        <v>36</v>
+      </c>
+      <c r="G184" s="5">
+        <v>45</v>
+      </c>
+      <c r="H184" s="5">
+        <v>13</v>
+      </c>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C185" s="5">
+        <v>23</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E185" s="5">
+        <v>30</v>
+      </c>
+      <c r="F185" s="5">
+        <v>44</v>
+      </c>
+      <c r="G185" s="5">
+        <v>55</v>
+      </c>
+      <c r="H185" s="5">
+        <v>14</v>
+      </c>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="5">
+        <v>23</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186" s="5">
+        <v>40</v>
+      </c>
+      <c r="F186" s="5">
+        <v>52</v>
+      </c>
+      <c r="G186" s="5">
+        <v>65</v>
+      </c>
+      <c r="H186" s="5">
+        <v>12</v>
+      </c>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" s="5">
+        <v>23</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E187" s="5">
+        <v>41</v>
+      </c>
+      <c r="F187" s="5">
+        <v>63</v>
+      </c>
+      <c r="G187" s="5">
+        <v>79</v>
+      </c>
+      <c r="H187" s="5">
+        <v>22</v>
+      </c>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="5">
+        <v>68</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E188" s="5">
+        <v>23</v>
+      </c>
+      <c r="F188" s="5">
+        <v>36</v>
+      </c>
+      <c r="G188" s="5">
+        <v>45</v>
+      </c>
+      <c r="H188" s="5">
+        <v>13</v>
+      </c>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="5">
+        <v>68</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E189" s="5">
+        <v>30</v>
+      </c>
+      <c r="F189" s="5">
+        <v>44</v>
+      </c>
+      <c r="G189" s="5">
+        <v>55</v>
+      </c>
+      <c r="H189" s="5">
+        <v>14</v>
+      </c>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="5">
+        <v>68</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E190" s="5">
+        <v>40</v>
+      </c>
+      <c r="F190" s="5">
+        <v>52</v>
+      </c>
+      <c r="G190" s="5">
+        <v>65</v>
+      </c>
+      <c r="H190" s="5">
+        <v>12</v>
+      </c>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="5">
+        <v>68</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E191" s="5">
+        <v>41</v>
+      </c>
+      <c r="F191" s="5">
+        <v>63</v>
+      </c>
+      <c r="G191" s="5">
+        <v>79</v>
+      </c>
+      <c r="H191" s="5">
+        <v>22</v>
+      </c>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" s="5">
+        <v>20</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E192" s="5">
+        <v>23</v>
+      </c>
+      <c r="F192" s="5">
+        <v>36</v>
+      </c>
+      <c r="G192" s="5">
+        <v>45</v>
+      </c>
+      <c r="H192" s="5">
+        <v>13</v>
+      </c>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C193" s="5">
+        <v>20</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E193" s="5">
+        <v>30</v>
+      </c>
+      <c r="F193" s="5">
+        <v>44</v>
+      </c>
+      <c r="G193" s="5">
+        <v>55</v>
+      </c>
+      <c r="H193" s="5">
+        <v>14</v>
+      </c>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" s="5">
+        <v>20</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E194" s="5">
+        <v>40</v>
+      </c>
+      <c r="F194" s="5">
+        <v>52</v>
+      </c>
+      <c r="G194" s="5">
+        <v>65</v>
+      </c>
+      <c r="H194" s="5">
+        <v>12</v>
+      </c>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C195" s="5">
+        <v>20</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E195" s="5">
+        <v>41</v>
+      </c>
+      <c r="F195" s="5">
+        <v>63</v>
+      </c>
+      <c r="G195" s="5">
+        <v>79</v>
+      </c>
+      <c r="H195" s="5">
+        <v>22</v>
+      </c>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C196" s="5">
+        <v>16</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E196" s="5">
+        <v>23</v>
+      </c>
+      <c r="F196" s="5">
+        <v>36</v>
+      </c>
+      <c r="G196" s="5">
+        <v>45</v>
+      </c>
+      <c r="H196" s="5">
+        <v>13</v>
+      </c>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C197" s="5">
+        <v>16</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E197" s="5">
+        <v>30</v>
+      </c>
+      <c r="F197" s="5">
+        <v>44</v>
+      </c>
+      <c r="G197" s="5">
+        <v>55</v>
+      </c>
+      <c r="H197" s="5">
+        <v>14</v>
+      </c>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C198" s="5">
+        <v>16</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E198" s="5">
+        <v>40</v>
+      </c>
+      <c r="F198" s="5">
+        <v>52</v>
+      </c>
+      <c r="G198" s="5">
+        <v>65</v>
+      </c>
+      <c r="H198" s="5">
+        <v>12</v>
+      </c>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="104">
+        <v>44568</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" s="5">
+        <v>16</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E199" s="5">
+        <v>41</v>
+      </c>
+      <c r="F199" s="5">
+        <v>63</v>
+      </c>
+      <c r="G199" s="5">
+        <v>79</v>
+      </c>
+      <c r="H199" s="5">
+        <v>22</v>
+      </c>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14506,10 +16267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14517,10 +16278,11 @@
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
     <col min="3" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
@@ -14531,9 +16293,10 @@
       <c r="D1" s="64"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="65"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
@@ -14544,9 +16307,10 @@
       <c r="D2" s="64"/>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="65"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>5</v>
       </c>
@@ -14565,14 +16329,17 @@
       <c r="F3" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="I3" s="134" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
@@ -14587,10 +16354,13 @@
       <c r="F4" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+    </row>
+    <row r="5" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>83</v>
       </c>
@@ -14599,17 +16369,18 @@
         <v>46</v>
       </c>
       <c r="D5" s="64">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
-      <c r="G5" s="66">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66">
         <f>SUM(B5:F5)</f>
-        <v>181</v>
-      </c>
-      <c r="H5" s="118"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="I5" s="118"/>
+    </row>
+    <row r="6" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
@@ -14618,20 +16389,21 @@
         <v>22534</v>
       </c>
       <c r="D6" s="64">
-        <v>24926</v>
+        <v>27219</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
-      <c r="G6" s="64">
+      <c r="G6" s="64"/>
+      <c r="H6" s="64">
         <f>SUM(B6:F6)</f>
-        <v>47460</v>
-      </c>
-      <c r="H6" s="119">
-        <f t="shared" ref="H6:H7" si="0">G6/1.05</f>
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+        <v>49753</v>
+      </c>
+      <c r="I6" s="119">
+        <f t="shared" ref="I6:I7" si="0">H6/1.05</f>
+        <v>47383.809523809519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
@@ -14640,23 +16412,24 @@
         <v>4182</v>
       </c>
       <c r="D7" s="64">
-        <v>4598</v>
+        <v>5353</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
-      <c r="G7" s="64">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64">
         <f>SUM(B7:F7)</f>
-        <v>8780</v>
-      </c>
-      <c r="H7" s="119">
+        <v>9535</v>
+      </c>
+      <c r="I7" s="119">
         <f t="shared" si="0"/>
-        <v>8361.9047619047615</v>
+        <v>9080.9523809523798</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15972,7 +17745,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -15998,7 +17771,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="136"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="71" t="s">
         <v>59</v>
       </c>
@@ -16022,7 +17795,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="136" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -16048,7 +17821,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="18" t="s">
         <v>65</v>
       </c>
@@ -16072,7 +17845,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="56" t="s">
         <v>66</v>
       </c>
@@ -16096,7 +17869,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="56" t="s">
         <v>67</v>
       </c>
@@ -16120,7 +17893,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="74" t="s">
         <v>68</v>
       </c>
@@ -16170,7 +17943,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="139" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="86" t="s">
@@ -16196,7 +17969,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="56" t="s">
         <v>73</v>
       </c>
@@ -16220,7 +17993,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="74" t="s">
         <v>74</v>
       </c>
@@ -16254,15 +18027,15 @@
       <c r="H13" s="85"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="59">
         <f>SUM(H2:H12)</f>
         <v>5880</v>

--- a/網路商城_2022_01月統計表.xlsx
+++ b/網路商城_2022_01月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1725" windowWidth="15600" windowHeight="8235" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="1905" windowWidth="15600" windowHeight="8055" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="251">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,6 +933,55 @@
   </si>
   <si>
     <t>滷味_鴨翅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉-羅勒</t>
+  </si>
+  <si>
+    <t>雞胸肉-羅勒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉-塔可</t>
+  </si>
+  <si>
+    <t>雞胸肉-塔可</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉-炭烤</t>
+  </si>
+  <si>
+    <t>雞胸肉-炭烤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲力牛肉</t>
+  </si>
+  <si>
+    <t>菲力牛肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>清甜腰果</t>
+  </si>
+  <si>
+    <t>清甜腰果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣腰果</t>
+  </si>
+  <si>
+    <t>麻辣腰果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹹酥腰果</t>
+  </si>
+  <si>
+    <t>鹹酥腰果</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2250,11 +2299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177378816"/>
-        <c:axId val="104820672"/>
+        <c:axId val="217988096"/>
+        <c:axId val="206602816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177378816"/>
+        <c:axId val="217988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2325,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104820672"/>
+        <c:crossAx val="206602816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2284,7 +2333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104820672"/>
+        <c:axId val="206602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2357,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177378816"/>
+        <c:crossAx val="217988096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,11 +2734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257229952"/>
-        <c:axId val="257230528"/>
+        <c:axId val="243274816"/>
+        <c:axId val="243275392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257229952"/>
+        <c:axId val="243274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,12 +2782,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257230528"/>
+        <c:crossAx val="243275392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257230528"/>
+        <c:axId val="243275392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +2839,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257229952"/>
+        <c:crossAx val="243274816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2987,11 +3036,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="257394688"/>
-        <c:axId val="257233408"/>
+        <c:axId val="242704384"/>
+        <c:axId val="40247872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257394688"/>
+        <c:axId val="242704384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3062,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257233408"/>
+        <c:crossAx val="40247872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257233408"/>
+        <c:axId val="40247872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3080,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257394688"/>
+        <c:crossAx val="242704384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,11 +3293,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="257396224"/>
-        <c:axId val="257235136"/>
+        <c:axId val="242705920"/>
+        <c:axId val="40249600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257396224"/>
+        <c:axId val="242705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,7 +3319,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257235136"/>
+        <c:crossAx val="40249600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3278,7 +3327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257235136"/>
+        <c:axId val="40249600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,7 +3337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257396224"/>
+        <c:crossAx val="242705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3692,11 +3741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257753088"/>
-        <c:axId val="257753664"/>
+        <c:axId val="40251328"/>
+        <c:axId val="40251904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257753088"/>
+        <c:axId val="40251328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,12 +3789,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257753664"/>
+        <c:crossAx val="40251904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257753664"/>
+        <c:axId val="40251904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +3846,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257753088"/>
+        <c:crossAx val="40251328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4105,11 +4154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179585024"/>
-        <c:axId val="179585600"/>
+        <c:axId val="206605120"/>
+        <c:axId val="206605696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179585024"/>
+        <c:axId val="206605120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,12 +4229,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179585600"/>
+        <c:crossAx val="206605696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179585600"/>
+        <c:axId val="206605696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +4301,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179585024"/>
+        <c:crossAx val="206605120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4588,11 +4637,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="181847552"/>
-        <c:axId val="179587328"/>
+        <c:axId val="240095232"/>
+        <c:axId val="206607424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181847552"/>
+        <c:axId val="240095232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4614,7 +4663,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179587328"/>
+        <c:crossAx val="206607424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4622,7 +4671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179587328"/>
+        <c:axId val="206607424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4681,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181847552"/>
+        <c:crossAx val="240095232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4934,8 +4983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181837824"/>
-        <c:axId val="179589056"/>
+        <c:axId val="240097280"/>
+        <c:axId val="206609152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5070,11 +5119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181838336"/>
-        <c:axId val="179589632"/>
+        <c:axId val="240097792"/>
+        <c:axId val="206609728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181837824"/>
+        <c:axId val="240097280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +5145,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179589056"/>
+        <c:crossAx val="206609152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5104,7 +5153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179589056"/>
+        <c:axId val="206609152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5128,13 +5177,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181837824"/>
+        <c:crossAx val="240097280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179589632"/>
+        <c:axId val="206609728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5157,13 +5206,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181838336"/>
+        <c:crossAx val="240097792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="181838336"/>
+        <c:axId val="240097792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5172,7 +5221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179589632"/>
+        <c:crossAx val="206609728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5457,8 +5506,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181848576"/>
-        <c:axId val="179592512"/>
+        <c:axId val="217988608"/>
+        <c:axId val="238659840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5619,11 +5668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181840384"/>
-        <c:axId val="179591936"/>
+        <c:axId val="240627712"/>
+        <c:axId val="238659264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181840384"/>
+        <c:axId val="240627712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5645,7 +5694,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179591936"/>
+        <c:crossAx val="238659264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5653,7 +5702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179591936"/>
+        <c:axId val="238659264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5677,12 +5726,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181840384"/>
+        <c:crossAx val="240627712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179592512"/>
+        <c:axId val="238659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,12 +5754,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181848576"/>
+        <c:crossAx val="217988608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="181848576"/>
+        <c:axId val="217988608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5719,7 +5768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179592512"/>
+        <c:crossAx val="238659840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5959,11 +6008,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255862784"/>
-        <c:axId val="187131584"/>
+        <c:axId val="240783360"/>
+        <c:axId val="238662144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255862784"/>
+        <c:axId val="240783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,7 +6034,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187131584"/>
+        <c:crossAx val="238662144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5993,7 +6042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187131584"/>
+        <c:axId val="238662144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,7 +6066,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255862784"/>
+        <c:crossAx val="240783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6181,11 +6230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255864320"/>
-        <c:axId val="187133312"/>
+        <c:axId val="240784896"/>
+        <c:axId val="238663872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="255864320"/>
+        <c:axId val="240784896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6208,7 +6257,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187133312"/>
+        <c:crossAx val="238663872"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6217,7 +6266,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="187133312"/>
+        <c:axId val="238663872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6242,7 +6291,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255864320"/>
+        <c:crossAx val="240784896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6450,11 +6499,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="257549824"/>
-        <c:axId val="187135616"/>
+        <c:axId val="240786944"/>
+        <c:axId val="243270208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257549824"/>
+        <c:axId val="240786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6476,7 +6525,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187135616"/>
+        <c:crossAx val="243270208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6484,7 +6533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187135616"/>
+        <c:axId val="243270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6494,7 +6543,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257549824"/>
+        <c:crossAx val="240786944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6707,11 +6756,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="257392640"/>
-        <c:axId val="187137344"/>
+        <c:axId val="242419200"/>
+        <c:axId val="243273088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257392640"/>
+        <c:axId val="242419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,7 +6782,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187137344"/>
+        <c:crossAx val="243273088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6741,7 +6790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187137344"/>
+        <c:axId val="243273088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,7 +6800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257392640"/>
+        <c:crossAx val="242419200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9482,11 +9531,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M190" sqref="M190"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13728,12 +13777,12 @@
         <v>85</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" ref="H130:H179" si="8">F130-E130</f>
+        <f t="shared" ref="H130:H193" si="8">F130-E130</f>
         <v>12</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" ref="J130:J179" si="9">F130*I130</f>
+        <f t="shared" ref="J130:J193" si="9">F130*I130</f>
         <v>0</v>
       </c>
     </row>
@@ -15356,10 +15405,12 @@
         <v>45</v>
       </c>
       <c r="H180" s="5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15386,10 +15437,12 @@
         <v>55</v>
       </c>
       <c r="H181" s="5">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15416,10 +15469,12 @@
         <v>65</v>
       </c>
       <c r="H182" s="5">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15446,10 +15501,12 @@
         <v>79</v>
       </c>
       <c r="H183" s="5">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15476,10 +15533,12 @@
         <v>45</v>
       </c>
       <c r="H184" s="5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15506,10 +15565,12 @@
         <v>55</v>
       </c>
       <c r="H185" s="5">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15536,10 +15597,12 @@
         <v>65</v>
       </c>
       <c r="H186" s="5">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15566,10 +15629,12 @@
         <v>79</v>
       </c>
       <c r="H187" s="5">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I187" s="5"/>
       <c r="J187" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15596,10 +15661,12 @@
         <v>45</v>
       </c>
       <c r="H188" s="5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15626,10 +15693,12 @@
         <v>55</v>
       </c>
       <c r="H189" s="5">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,10 +15725,12 @@
         <v>65</v>
       </c>
       <c r="H190" s="5">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15686,10 +15757,12 @@
         <v>79</v>
       </c>
       <c r="H191" s="5">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I191" s="5"/>
       <c r="J191" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15716,10 +15789,12 @@
         <v>45</v>
       </c>
       <c r="H192" s="5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15746,10 +15821,12 @@
         <v>55</v>
       </c>
       <c r="H193" s="5">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15776,10 +15853,12 @@
         <v>65</v>
       </c>
       <c r="H194" s="5">
+        <f t="shared" ref="H194:H257" si="10">F194-E194</f>
         <v>12</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5">
+        <f t="shared" ref="J194:J257" si="11">F194*I194</f>
         <v>0</v>
       </c>
     </row>
@@ -15806,10 +15885,12 @@
         <v>79</v>
       </c>
       <c r="H195" s="5">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15836,10 +15917,12 @@
         <v>45</v>
       </c>
       <c r="H196" s="5">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15866,10 +15949,12 @@
         <v>55</v>
       </c>
       <c r="H197" s="5">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15896,10 +15981,12 @@
         <v>65</v>
       </c>
       <c r="H198" s="5">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15926,10 +16013,2528 @@
         <v>79</v>
       </c>
       <c r="H199" s="5">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="108">
+        <v>41</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E200" s="5">
+        <v>35</v>
+      </c>
+      <c r="F200" s="5">
+        <v>45</v>
+      </c>
+      <c r="G200" s="5">
+        <v>50</v>
+      </c>
+      <c r="H200" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="108">
+        <v>41</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E201" s="5">
+        <v>35</v>
+      </c>
+      <c r="F201" s="5">
+        <v>45</v>
+      </c>
+      <c r="G201" s="5">
+        <v>50</v>
+      </c>
+      <c r="H201" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="108">
+        <v>41</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E202" s="5">
+        <v>35</v>
+      </c>
+      <c r="F202" s="5">
+        <v>45</v>
+      </c>
+      <c r="G202" s="5">
+        <v>50</v>
+      </c>
+      <c r="H202" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="108">
+        <v>41</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E203" s="5">
+        <v>138</v>
+      </c>
+      <c r="F203" s="5">
+        <v>177</v>
+      </c>
+      <c r="G203" s="5">
+        <v>209</v>
+      </c>
+      <c r="H203" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="108">
+        <v>41</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E204" s="5">
+        <v>84</v>
+      </c>
+      <c r="F204" s="5">
+        <v>93</v>
+      </c>
+      <c r="G204" s="5">
+        <v>105</v>
+      </c>
+      <c r="H204" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="108">
+        <v>41</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E205" s="5">
+        <v>84</v>
+      </c>
+      <c r="F205" s="5">
+        <v>93</v>
+      </c>
+      <c r="G205" s="5">
+        <v>105</v>
+      </c>
+      <c r="H205" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="108">
+        <v>41</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E206" s="5">
+        <v>84</v>
+      </c>
+      <c r="F206" s="5">
+        <v>93</v>
+      </c>
+      <c r="G206" s="5">
+        <v>105</v>
+      </c>
+      <c r="H206" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" s="108">
+        <v>32</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E207" s="5">
+        <v>35</v>
+      </c>
+      <c r="F207" s="5">
+        <v>45</v>
+      </c>
+      <c r="G207" s="5">
+        <v>50</v>
+      </c>
+      <c r="H207" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I207" s="5">
+        <v>2</v>
+      </c>
+      <c r="J207" s="5">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="108">
+        <v>32</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E208" s="5">
+        <v>35</v>
+      </c>
+      <c r="F208" s="5">
+        <v>45</v>
+      </c>
+      <c r="G208" s="5">
+        <v>50</v>
+      </c>
+      <c r="H208" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I208" s="5">
+        <v>2</v>
+      </c>
+      <c r="J208" s="5">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" s="108">
+        <v>32</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E209" s="5">
+        <v>35</v>
+      </c>
+      <c r="F209" s="5">
+        <v>45</v>
+      </c>
+      <c r="G209" s="5">
+        <v>50</v>
+      </c>
+      <c r="H209" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I209" s="5">
+        <v>2</v>
+      </c>
+      <c r="J209" s="5">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C210" s="108">
+        <v>32</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E210" s="5">
+        <v>138</v>
+      </c>
+      <c r="F210" s="5">
+        <v>177</v>
+      </c>
+      <c r="G210" s="5">
+        <v>209</v>
+      </c>
+      <c r="H210" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I210" s="5">
+        <v>1</v>
+      </c>
+      <c r="J210" s="5">
+        <f t="shared" si="11"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211" s="108">
+        <v>32</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E211" s="5">
+        <v>84</v>
+      </c>
+      <c r="F211" s="5">
+        <v>93</v>
+      </c>
+      <c r="G211" s="5">
+        <v>105</v>
+      </c>
+      <c r="H211" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I211" s="5">
+        <v>3</v>
+      </c>
+      <c r="J211" s="5">
+        <f t="shared" si="11"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C212" s="108">
+        <v>32</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E212" s="5">
+        <v>84</v>
+      </c>
+      <c r="F212" s="5">
+        <v>93</v>
+      </c>
+      <c r="G212" s="5">
+        <v>105</v>
+      </c>
+      <c r="H212" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I212" s="5">
+        <v>1</v>
+      </c>
+      <c r="J212" s="5">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C213" s="108">
+        <v>32</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E213" s="5">
+        <v>84</v>
+      </c>
+      <c r="F213" s="5">
+        <v>93</v>
+      </c>
+      <c r="G213" s="5">
+        <v>105</v>
+      </c>
+      <c r="H213" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I213" s="5">
+        <v>3</v>
+      </c>
+      <c r="J213" s="5">
+        <f t="shared" si="11"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="108">
+        <v>80</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E214" s="5">
+        <v>35</v>
+      </c>
+      <c r="F214" s="5">
+        <v>45</v>
+      </c>
+      <c r="G214" s="5">
+        <v>50</v>
+      </c>
+      <c r="H214" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I214" s="5">
+        <v>1</v>
+      </c>
+      <c r="J214" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="108">
+        <v>80</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E215" s="5">
+        <v>35</v>
+      </c>
+      <c r="F215" s="5">
+        <v>45</v>
+      </c>
+      <c r="G215" s="5">
+        <v>50</v>
+      </c>
+      <c r="H215" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I215" s="5">
+        <v>1</v>
+      </c>
+      <c r="J215" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="108">
+        <v>80</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E216" s="5">
+        <v>35</v>
+      </c>
+      <c r="F216" s="5">
+        <v>45</v>
+      </c>
+      <c r="G216" s="5">
+        <v>50</v>
+      </c>
+      <c r="H216" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I216" s="5">
+        <v>1</v>
+      </c>
+      <c r="J216" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="108">
+        <v>80</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E217" s="5">
+        <v>138</v>
+      </c>
+      <c r="F217" s="5">
+        <v>177</v>
+      </c>
+      <c r="G217" s="5">
+        <v>209</v>
+      </c>
+      <c r="H217" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="108">
+        <v>80</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E218" s="5">
+        <v>84</v>
+      </c>
+      <c r="F218" s="5">
+        <v>93</v>
+      </c>
+      <c r="G218" s="5">
+        <v>105</v>
+      </c>
+      <c r="H218" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I218" s="5">
+        <v>1</v>
+      </c>
+      <c r="J218" s="5">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="108">
+        <v>80</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E219" s="5">
+        <v>84</v>
+      </c>
+      <c r="F219" s="5">
+        <v>93</v>
+      </c>
+      <c r="G219" s="5">
+        <v>105</v>
+      </c>
+      <c r="H219" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="108">
+        <v>80</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E220" s="5">
+        <v>84</v>
+      </c>
+      <c r="F220" s="5">
+        <v>93</v>
+      </c>
+      <c r="G220" s="5">
+        <v>105</v>
+      </c>
+      <c r="H220" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I220" s="5">
+        <v>1</v>
+      </c>
+      <c r="J220" s="5">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221" s="5">
+        <v>53</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E221" s="5">
+        <v>35</v>
+      </c>
+      <c r="F221" s="5">
+        <v>45</v>
+      </c>
+      <c r="G221" s="5">
+        <v>50</v>
+      </c>
+      <c r="H221" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I221" s="5">
+        <v>1</v>
+      </c>
+      <c r="J221" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="5">
+        <v>53</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E222" s="5">
+        <v>35</v>
+      </c>
+      <c r="F222" s="5">
+        <v>45</v>
+      </c>
+      <c r="G222" s="5">
+        <v>50</v>
+      </c>
+      <c r="H222" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I222" s="5">
+        <v>2</v>
+      </c>
+      <c r="J222" s="5">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="5">
+        <v>53</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E223" s="5">
+        <v>35</v>
+      </c>
+      <c r="F223" s="5">
+        <v>45</v>
+      </c>
+      <c r="G223" s="5">
+        <v>50</v>
+      </c>
+      <c r="H223" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I223" s="5">
+        <v>2</v>
+      </c>
+      <c r="J223" s="5">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="5">
+        <v>53</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E224" s="5">
+        <v>138</v>
+      </c>
+      <c r="F224" s="5">
+        <v>177</v>
+      </c>
+      <c r="G224" s="5">
+        <v>209</v>
+      </c>
+      <c r="H224" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="5">
+        <v>53</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E225" s="5">
+        <v>84</v>
+      </c>
+      <c r="F225" s="5">
+        <v>93</v>
+      </c>
+      <c r="G225" s="5">
+        <v>105</v>
+      </c>
+      <c r="H225" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="5">
+        <v>53</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E226" s="5">
+        <v>84</v>
+      </c>
+      <c r="F226" s="5">
+        <v>93</v>
+      </c>
+      <c r="G226" s="5">
+        <v>105</v>
+      </c>
+      <c r="H226" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="5">
+        <v>53</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E227" s="5">
+        <v>84</v>
+      </c>
+      <c r="F227" s="5">
+        <v>93</v>
+      </c>
+      <c r="G227" s="5">
+        <v>105</v>
+      </c>
+      <c r="H227" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="5">
+        <v>8</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E228" s="5">
+        <v>35</v>
+      </c>
+      <c r="F228" s="5">
+        <v>45</v>
+      </c>
+      <c r="G228" s="5">
+        <v>50</v>
+      </c>
+      <c r="H228" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="5">
+        <v>8</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E229" s="5">
+        <v>35</v>
+      </c>
+      <c r="F229" s="5">
+        <v>45</v>
+      </c>
+      <c r="G229" s="5">
+        <v>50</v>
+      </c>
+      <c r="H229" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="5">
+        <v>8</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E230" s="5">
+        <v>35</v>
+      </c>
+      <c r="F230" s="5">
+        <v>45</v>
+      </c>
+      <c r="G230" s="5">
+        <v>50</v>
+      </c>
+      <c r="H230" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" s="5">
+        <v>8</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E231" s="5">
+        <v>138</v>
+      </c>
+      <c r="F231" s="5">
+        <v>177</v>
+      </c>
+      <c r="G231" s="5">
+        <v>209</v>
+      </c>
+      <c r="H231" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" s="5">
+        <v>8</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E232" s="5">
+        <v>84</v>
+      </c>
+      <c r="F232" s="5">
+        <v>93</v>
+      </c>
+      <c r="G232" s="5">
+        <v>105</v>
+      </c>
+      <c r="H232" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" s="5">
+        <v>8</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" s="5">
+        <v>84</v>
+      </c>
+      <c r="F233" s="5">
+        <v>93</v>
+      </c>
+      <c r="G233" s="5">
+        <v>105</v>
+      </c>
+      <c r="H233" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" s="5">
+        <v>8</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E234" s="5">
+        <v>84</v>
+      </c>
+      <c r="F234" s="5">
+        <v>93</v>
+      </c>
+      <c r="G234" s="5">
+        <v>105</v>
+      </c>
+      <c r="H234" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="5">
+        <v>23</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E235" s="5">
+        <v>35</v>
+      </c>
+      <c r="F235" s="5">
+        <v>45</v>
+      </c>
+      <c r="G235" s="5">
+        <v>50</v>
+      </c>
+      <c r="H235" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" s="5">
+        <v>23</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E236" s="5">
+        <v>35</v>
+      </c>
+      <c r="F236" s="5">
+        <v>45</v>
+      </c>
+      <c r="G236" s="5">
+        <v>50</v>
+      </c>
+      <c r="H236" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" s="5">
+        <v>23</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E237" s="5">
+        <v>35</v>
+      </c>
+      <c r="F237" s="5">
+        <v>45</v>
+      </c>
+      <c r="G237" s="5">
+        <v>50</v>
+      </c>
+      <c r="H237" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" s="5">
+        <v>23</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E238" s="5">
+        <v>138</v>
+      </c>
+      <c r="F238" s="5">
+        <v>177</v>
+      </c>
+      <c r="G238" s="5">
+        <v>209</v>
+      </c>
+      <c r="H238" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" s="5">
+        <v>23</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E239" s="5">
+        <v>84</v>
+      </c>
+      <c r="F239" s="5">
+        <v>93</v>
+      </c>
+      <c r="G239" s="5">
+        <v>105</v>
+      </c>
+      <c r="H239" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" s="5">
+        <v>23</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" s="5">
+        <v>84</v>
+      </c>
+      <c r="F240" s="5">
+        <v>93</v>
+      </c>
+      <c r="G240" s="5">
+        <v>105</v>
+      </c>
+      <c r="H240" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="5">
+        <v>23</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E241" s="5">
+        <v>84</v>
+      </c>
+      <c r="F241" s="5">
+        <v>93</v>
+      </c>
+      <c r="G241" s="5">
+        <v>105</v>
+      </c>
+      <c r="H241" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" s="5">
+        <v>45</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E242" s="5">
+        <v>35</v>
+      </c>
+      <c r="F242" s="5">
+        <v>45</v>
+      </c>
+      <c r="G242" s="5">
+        <v>50</v>
+      </c>
+      <c r="H242" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I242" s="5">
+        <v>6</v>
+      </c>
+      <c r="J242" s="5">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" s="5">
+        <v>45</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E243" s="5">
+        <v>35</v>
+      </c>
+      <c r="F243" s="5">
+        <v>45</v>
+      </c>
+      <c r="G243" s="5">
+        <v>50</v>
+      </c>
+      <c r="H243" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I243" s="5">
+        <v>6</v>
+      </c>
+      <c r="J243" s="5">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" s="5">
+        <v>45</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E244" s="5">
+        <v>35</v>
+      </c>
+      <c r="F244" s="5">
+        <v>45</v>
+      </c>
+      <c r="G244" s="5">
+        <v>50</v>
+      </c>
+      <c r="H244" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I244" s="5">
+        <v>6</v>
+      </c>
+      <c r="J244" s="5">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="5">
+        <v>45</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E245" s="5">
+        <v>138</v>
+      </c>
+      <c r="F245" s="5">
+        <v>177</v>
+      </c>
+      <c r="G245" s="5">
+        <v>209</v>
+      </c>
+      <c r="H245" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I245" s="5">
+        <v>1</v>
+      </c>
+      <c r="J245" s="5">
+        <f t="shared" si="11"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="5">
+        <v>45</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E246" s="5">
+        <v>84</v>
+      </c>
+      <c r="F246" s="5">
+        <v>93</v>
+      </c>
+      <c r="G246" s="5">
+        <v>105</v>
+      </c>
+      <c r="H246" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="5">
+        <v>45</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E247" s="5">
+        <v>84</v>
+      </c>
+      <c r="F247" s="5">
+        <v>93</v>
+      </c>
+      <c r="G247" s="5">
+        <v>105</v>
+      </c>
+      <c r="H247" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I247" s="5">
+        <v>1</v>
+      </c>
+      <c r="J247" s="5">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" s="5">
+        <v>45</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E248" s="5">
+        <v>84</v>
+      </c>
+      <c r="F248" s="5">
+        <v>93</v>
+      </c>
+      <c r="G248" s="5">
+        <v>105</v>
+      </c>
+      <c r="H248" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" s="5">
+        <v>32</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E249" s="5">
+        <v>35</v>
+      </c>
+      <c r="F249" s="5">
+        <v>45</v>
+      </c>
+      <c r="G249" s="5">
+        <v>50</v>
+      </c>
+      <c r="H249" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" s="5">
+        <v>32</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E250" s="5">
+        <v>35</v>
+      </c>
+      <c r="F250" s="5">
+        <v>45</v>
+      </c>
+      <c r="G250" s="5">
+        <v>50</v>
+      </c>
+      <c r="H250" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251" s="5">
+        <v>32</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E251" s="5">
+        <v>35</v>
+      </c>
+      <c r="F251" s="5">
+        <v>45</v>
+      </c>
+      <c r="G251" s="5">
+        <v>50</v>
+      </c>
+      <c r="H251" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" s="5">
+        <v>32</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E252" s="5">
+        <v>138</v>
+      </c>
+      <c r="F252" s="5">
+        <v>177</v>
+      </c>
+      <c r="G252" s="5">
+        <v>209</v>
+      </c>
+      <c r="H252" s="5">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="5">
+        <v>32</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E253" s="5">
+        <v>84</v>
+      </c>
+      <c r="F253" s="5">
+        <v>93</v>
+      </c>
+      <c r="G253" s="5">
+        <v>105</v>
+      </c>
+      <c r="H253" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" s="5">
+        <v>32</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E254" s="5">
+        <v>84</v>
+      </c>
+      <c r="F254" s="5">
+        <v>93</v>
+      </c>
+      <c r="G254" s="5">
+        <v>105</v>
+      </c>
+      <c r="H254" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C255" s="5">
+        <v>32</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E255" s="5">
+        <v>84</v>
+      </c>
+      <c r="F255" s="5">
+        <v>93</v>
+      </c>
+      <c r="G255" s="5">
+        <v>105</v>
+      </c>
+      <c r="H255" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" s="5">
+        <v>69</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E256" s="5">
+        <v>35</v>
+      </c>
+      <c r="F256" s="5">
+        <v>45</v>
+      </c>
+      <c r="G256" s="5">
+        <v>50</v>
+      </c>
+      <c r="H256" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I256" s="5">
+        <v>1</v>
+      </c>
+      <c r="J256" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" s="5">
+        <v>69</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E257" s="5">
+        <v>35</v>
+      </c>
+      <c r="F257" s="5">
+        <v>45</v>
+      </c>
+      <c r="G257" s="5">
+        <v>50</v>
+      </c>
+      <c r="H257" s="5">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I257" s="5">
+        <v>1</v>
+      </c>
+      <c r="J257" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" s="5">
+        <v>69</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E258" s="5">
+        <v>35</v>
+      </c>
+      <c r="F258" s="5">
+        <v>45</v>
+      </c>
+      <c r="G258" s="5">
+        <v>50</v>
+      </c>
+      <c r="H258" s="5">
+        <f t="shared" ref="H258:H276" si="12">F258-E258</f>
+        <v>10</v>
+      </c>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5">
+        <f t="shared" ref="J258:J276" si="13">F258*I258</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C259" s="5">
+        <v>69</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E259" s="5">
+        <v>138</v>
+      </c>
+      <c r="F259" s="5">
+        <v>177</v>
+      </c>
+      <c r="G259" s="5">
+        <v>209</v>
+      </c>
+      <c r="H259" s="5">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="I259" s="5">
+        <v>4</v>
+      </c>
+      <c r="J259" s="5">
+        <f t="shared" si="13"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260" s="5">
+        <v>69</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E260" s="5">
+        <v>84</v>
+      </c>
+      <c r="F260" s="5">
+        <v>93</v>
+      </c>
+      <c r="G260" s="5">
+        <v>105</v>
+      </c>
+      <c r="H260" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I260" s="5">
+        <v>1</v>
+      </c>
+      <c r="J260" s="5">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C261" s="5">
+        <v>69</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E261" s="5">
+        <v>84</v>
+      </c>
+      <c r="F261" s="5">
+        <v>93</v>
+      </c>
+      <c r="G261" s="5">
+        <v>105</v>
+      </c>
+      <c r="H261" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I261" s="5">
+        <v>1</v>
+      </c>
+      <c r="J261" s="5">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" s="5">
+        <v>69</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E262" s="5">
+        <v>84</v>
+      </c>
+      <c r="F262" s="5">
+        <v>93</v>
+      </c>
+      <c r="G262" s="5">
+        <v>105</v>
+      </c>
+      <c r="H262" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I262" s="5">
+        <v>4</v>
+      </c>
+      <c r="J262" s="5">
+        <f t="shared" si="13"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" s="5">
+        <v>20</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E263" s="5">
+        <v>35</v>
+      </c>
+      <c r="F263" s="5">
+        <v>45</v>
+      </c>
+      <c r="G263" s="5">
+        <v>50</v>
+      </c>
+      <c r="H263" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" s="5">
+        <v>20</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E264" s="5">
+        <v>35</v>
+      </c>
+      <c r="F264" s="5">
+        <v>45</v>
+      </c>
+      <c r="G264" s="5">
+        <v>50</v>
+      </c>
+      <c r="H264" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="5">
+        <v>20</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E265" s="5">
+        <v>35</v>
+      </c>
+      <c r="F265" s="5">
+        <v>45</v>
+      </c>
+      <c r="G265" s="5">
+        <v>50</v>
+      </c>
+      <c r="H265" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" s="5">
+        <v>20</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E266" s="5">
+        <v>138</v>
+      </c>
+      <c r="F266" s="5">
+        <v>177</v>
+      </c>
+      <c r="G266" s="5">
+        <v>209</v>
+      </c>
+      <c r="H266" s="5">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="5">
+        <v>20</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E267" s="5">
+        <v>84</v>
+      </c>
+      <c r="F267" s="5">
+        <v>93</v>
+      </c>
+      <c r="G267" s="5">
+        <v>105</v>
+      </c>
+      <c r="H267" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" s="5">
+        <v>20</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E268" s="5">
+        <v>84</v>
+      </c>
+      <c r="F268" s="5">
+        <v>93</v>
+      </c>
+      <c r="G268" s="5">
+        <v>105</v>
+      </c>
+      <c r="H268" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C269" s="5">
+        <v>20</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E269" s="5">
+        <v>84</v>
+      </c>
+      <c r="F269" s="5">
+        <v>93</v>
+      </c>
+      <c r="G269" s="5">
+        <v>105</v>
+      </c>
+      <c r="H269" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C270" s="5">
+        <v>16</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E270" s="5">
+        <v>35</v>
+      </c>
+      <c r="F270" s="5">
+        <v>45</v>
+      </c>
+      <c r="G270" s="5">
+        <v>50</v>
+      </c>
+      <c r="H270" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" s="5">
+        <v>16</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E271" s="5">
+        <v>35</v>
+      </c>
+      <c r="F271" s="5">
+        <v>45</v>
+      </c>
+      <c r="G271" s="5">
+        <v>50</v>
+      </c>
+      <c r="H271" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C272" s="5">
+        <v>16</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E272" s="5">
+        <v>35</v>
+      </c>
+      <c r="F272" s="5">
+        <v>45</v>
+      </c>
+      <c r="G272" s="5">
+        <v>50</v>
+      </c>
+      <c r="H272" s="5">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273" s="5">
+        <v>16</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E273" s="5">
+        <v>138</v>
+      </c>
+      <c r="F273" s="5">
+        <v>177</v>
+      </c>
+      <c r="G273" s="5">
+        <v>209</v>
+      </c>
+      <c r="H273" s="5">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274" s="5">
+        <v>16</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E274" s="5">
+        <v>84</v>
+      </c>
+      <c r="F274" s="5">
+        <v>93</v>
+      </c>
+      <c r="G274" s="5">
+        <v>105</v>
+      </c>
+      <c r="H274" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" s="5">
+        <v>16</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E275" s="5">
+        <v>84</v>
+      </c>
+      <c r="F275" s="5">
+        <v>93</v>
+      </c>
+      <c r="G275" s="5">
+        <v>105</v>
+      </c>
+      <c r="H275" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="106">
+        <v>44575</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="5">
+        <v>16</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E276" s="5">
+        <v>84</v>
+      </c>
+      <c r="F276" s="5">
+        <v>93</v>
+      </c>
+      <c r="G276" s="5">
+        <v>105</v>
+      </c>
+      <c r="H276" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16269,8 +18874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/網路商城_2022_01月統計表.xlsx
+++ b/網路商城_2022_01月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1905" windowWidth="15600" windowHeight="8055" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="1950" windowWidth="15600" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="263">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,6 +982,48 @@
   </si>
   <si>
     <t>鹹酥腰果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>憶家香上選珍品毛鬆(圓罐)</t>
+  </si>
+  <si>
+    <t>憶家香上選珍品毛鬆(圓罐)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷披薩</t>
+  </si>
+  <si>
+    <t>夏威夷披薩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮披薩</t>
+  </si>
+  <si>
+    <t>海鮮披薩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>果乾_柚子皮</t>
+  </si>
+  <si>
+    <t>果乾_柚子皮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>果乾_珍珠芭樂</t>
+  </si>
+  <si>
+    <t>果乾_珍珠芭樂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>果乾_洛神花</t>
+  </si>
+  <si>
+    <t>果乾_洛神花</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2299,11 +2341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217988096"/>
-        <c:axId val="206602816"/>
+        <c:axId val="141977600"/>
+        <c:axId val="52426944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217988096"/>
+        <c:axId val="141977600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2367,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206602816"/>
+        <c:crossAx val="52426944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2333,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206602816"/>
+        <c:axId val="52426944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2399,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217988096"/>
+        <c:crossAx val="141977600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,11 +2776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243274816"/>
-        <c:axId val="243275392"/>
+        <c:axId val="150989056"/>
+        <c:axId val="150989632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243274816"/>
+        <c:axId val="150989056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,12 +2824,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243275392"/>
+        <c:crossAx val="150989632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243275392"/>
+        <c:axId val="150989632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2881,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243274816"/>
+        <c:crossAx val="150989056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3036,11 +3078,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="242704384"/>
-        <c:axId val="40247872"/>
+        <c:axId val="151183360"/>
+        <c:axId val="150992512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242704384"/>
+        <c:axId val="151183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3104,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40247872"/>
+        <c:crossAx val="150992512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40247872"/>
+        <c:axId val="150992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3122,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242704384"/>
+        <c:crossAx val="151183360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,11 +3335,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="242705920"/>
-        <c:axId val="40249600"/>
+        <c:axId val="153635328"/>
+        <c:axId val="150994240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242705920"/>
+        <c:axId val="153635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,7 +3361,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40249600"/>
+        <c:crossAx val="150994240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3327,7 +3369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40249600"/>
+        <c:axId val="150994240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3379,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242705920"/>
+        <c:crossAx val="153635328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,11 +3783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40251328"/>
-        <c:axId val="40251904"/>
+        <c:axId val="155329664"/>
+        <c:axId val="155330240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40251328"/>
+        <c:axId val="155329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,12 +3831,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40251904"/>
+        <c:crossAx val="155330240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40251904"/>
+        <c:axId val="155330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,7 +3888,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40251328"/>
+        <c:crossAx val="155329664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4154,11 +4196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206605120"/>
-        <c:axId val="206605696"/>
+        <c:axId val="147464768"/>
+        <c:axId val="147465344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206605120"/>
+        <c:axId val="147464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,12 +4271,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206605696"/>
+        <c:crossAx val="147465344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206605696"/>
+        <c:axId val="147465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,7 +4343,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206605120"/>
+        <c:crossAx val="147464768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4637,11 +4679,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="240095232"/>
-        <c:axId val="206607424"/>
+        <c:axId val="147538944"/>
+        <c:axId val="147467072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240095232"/>
+        <c:axId val="147538944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4705,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206607424"/>
+        <c:crossAx val="147467072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4671,7 +4713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206607424"/>
+        <c:axId val="147467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,7 +4723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240095232"/>
+        <c:crossAx val="147538944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4893,6 +4935,9 @@
                 <c:pt idx="1">
                   <c:v>27219</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>7400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4970,6 +5015,9 @@
                 <c:pt idx="1">
                   <c:v>5353</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4983,8 +5031,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="240097280"/>
-        <c:axId val="206609152"/>
+        <c:axId val="147540992"/>
+        <c:axId val="147468224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5104,6 +5152,9 @@
                 <c:pt idx="1">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5119,11 +5170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240097792"/>
-        <c:axId val="206609728"/>
+        <c:axId val="147541504"/>
+        <c:axId val="147468800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240097280"/>
+        <c:axId val="147540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5196,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206609152"/>
+        <c:crossAx val="147468224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206609152"/>
+        <c:axId val="147468224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5177,13 +5228,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240097280"/>
+        <c:crossAx val="147540992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206609728"/>
+        <c:axId val="147468800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5206,13 +5257,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240097792"/>
+        <c:crossAx val="147541504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="240097792"/>
+        <c:axId val="147541504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,7 +5272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206609728"/>
+        <c:crossAx val="147468800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5506,8 +5557,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217988608"/>
-        <c:axId val="238659840"/>
+        <c:axId val="144243200"/>
+        <c:axId val="147471680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5668,11 +5719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240627712"/>
-        <c:axId val="238659264"/>
+        <c:axId val="144241152"/>
+        <c:axId val="147471104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240627712"/>
+        <c:axId val="144241152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5694,7 +5745,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238659264"/>
+        <c:crossAx val="147471104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5702,7 +5753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238659264"/>
+        <c:axId val="147471104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,12 +5777,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240627712"/>
+        <c:crossAx val="144241152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238659840"/>
+        <c:axId val="147471680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5754,12 +5805,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217988608"/>
+        <c:crossAx val="144243200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="217988608"/>
+        <c:axId val="144243200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,7 +5819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238659840"/>
+        <c:crossAx val="147471680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6008,11 +6059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="240783360"/>
-        <c:axId val="238662144"/>
+        <c:axId val="144244224"/>
+        <c:axId val="149866176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240783360"/>
+        <c:axId val="144244224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6034,7 +6085,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238662144"/>
+        <c:crossAx val="149866176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6042,7 +6093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238662144"/>
+        <c:axId val="149866176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6117,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240783360"/>
+        <c:crossAx val="144244224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6230,11 +6281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240784896"/>
-        <c:axId val="238663872"/>
+        <c:axId val="151038464"/>
+        <c:axId val="149867904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="240784896"/>
+        <c:axId val="151038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,7 +6308,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238663872"/>
+        <c:crossAx val="149867904"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6266,7 +6317,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="238663872"/>
+        <c:axId val="149867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6291,7 +6342,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240784896"/>
+        <c:crossAx val="151038464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6499,11 +6550,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="240786944"/>
-        <c:axId val="243270208"/>
+        <c:axId val="144241664"/>
+        <c:axId val="149870208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240786944"/>
+        <c:axId val="144241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6576,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243270208"/>
+        <c:crossAx val="149870208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6533,7 +6584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243270208"/>
+        <c:axId val="149870208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,7 +6594,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240786944"/>
+        <c:crossAx val="144241664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6756,11 +6807,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="242419200"/>
-        <c:axId val="243273088"/>
+        <c:axId val="151185920"/>
+        <c:axId val="150987328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242419200"/>
+        <c:axId val="151185920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,7 +6833,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243273088"/>
+        <c:crossAx val="150987328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6790,7 +6841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243273088"/>
+        <c:axId val="150987328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,7 +6851,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242419200"/>
+        <c:crossAx val="151185920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9531,11 +9582,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K259" sqref="K259"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L280" sqref="L280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -17945,12 +17996,12 @@
         <v>50</v>
       </c>
       <c r="H258" s="5">
-        <f t="shared" ref="H258:H276" si="12">F258-E258</f>
+        <f t="shared" ref="H258:H321" si="12">F258-E258</f>
         <v>10</v>
       </c>
       <c r="I258" s="5"/>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J276" si="13">F258*I258</f>
+        <f t="shared" ref="J258:J321" si="13">F258*I258</f>
         <v>0</v>
       </c>
     </row>
@@ -18535,6 +18586,2130 @@
       <c r="I276" s="5"/>
       <c r="J276" s="5">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" s="108">
+        <v>80</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E277" s="5">
+        <v>100</v>
+      </c>
+      <c r="F277" s="5">
+        <v>143</v>
+      </c>
+      <c r="G277" s="5">
+        <v>179</v>
+      </c>
+      <c r="H277" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278" s="108">
+        <v>80</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E278" s="5">
+        <v>120</v>
+      </c>
+      <c r="F278" s="5">
+        <v>150</v>
+      </c>
+      <c r="G278" s="5">
+        <v>179</v>
+      </c>
+      <c r="H278" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I278" s="5">
+        <v>3</v>
+      </c>
+      <c r="J278" s="5">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279" s="108">
+        <v>80</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E279" s="5">
+        <v>120</v>
+      </c>
+      <c r="F279" s="5">
+        <v>150</v>
+      </c>
+      <c r="G279" s="5">
+        <v>179</v>
+      </c>
+      <c r="H279" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I279" s="5">
+        <v>3</v>
+      </c>
+      <c r="J279" s="5">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" s="108">
+        <v>80</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E280" s="5">
+        <v>70</v>
+      </c>
+      <c r="F280" s="5">
+        <v>88</v>
+      </c>
+      <c r="G280" s="5">
+        <v>99</v>
+      </c>
+      <c r="H280" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="108">
+        <v>80</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E281" s="5">
+        <v>70</v>
+      </c>
+      <c r="F281" s="5">
+        <v>88</v>
+      </c>
+      <c r="G281" s="5">
+        <v>99</v>
+      </c>
+      <c r="H281" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282" s="108">
+        <v>80</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E282" s="5">
+        <v>70</v>
+      </c>
+      <c r="F282" s="5">
+        <v>88</v>
+      </c>
+      <c r="G282" s="5">
+        <v>99</v>
+      </c>
+      <c r="H282" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="108">
+        <v>69</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E283" s="5">
+        <v>100</v>
+      </c>
+      <c r="F283" s="5">
+        <v>143</v>
+      </c>
+      <c r="G283" s="5">
+        <v>179</v>
+      </c>
+      <c r="H283" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" s="108">
+        <v>69</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E284" s="5">
+        <v>120</v>
+      </c>
+      <c r="F284" s="5">
+        <v>150</v>
+      </c>
+      <c r="G284" s="5">
+        <v>179</v>
+      </c>
+      <c r="H284" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I284" s="5">
+        <v>1</v>
+      </c>
+      <c r="J284" s="5">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" s="108">
+        <v>69</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E285" s="5">
+        <v>120</v>
+      </c>
+      <c r="F285" s="5">
+        <v>150</v>
+      </c>
+      <c r="G285" s="5">
+        <v>179</v>
+      </c>
+      <c r="H285" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286" s="108">
+        <v>69</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E286" s="5">
+        <v>70</v>
+      </c>
+      <c r="F286" s="5">
+        <v>88</v>
+      </c>
+      <c r="G286" s="5">
+        <v>99</v>
+      </c>
+      <c r="H286" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I286" s="5">
+        <v>1</v>
+      </c>
+      <c r="J286" s="5">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C287" s="108">
+        <v>69</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E287" s="5">
+        <v>70</v>
+      </c>
+      <c r="F287" s="5">
+        <v>88</v>
+      </c>
+      <c r="G287" s="5">
+        <v>99</v>
+      </c>
+      <c r="H287" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I287" s="5">
+        <v>2</v>
+      </c>
+      <c r="J287" s="5">
+        <f t="shared" si="13"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" s="108">
+        <v>69</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E288" s="5">
+        <v>70</v>
+      </c>
+      <c r="F288" s="5">
+        <v>88</v>
+      </c>
+      <c r="G288" s="5">
+        <v>99</v>
+      </c>
+      <c r="H288" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I288" s="5">
+        <v>1</v>
+      </c>
+      <c r="J288" s="5">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" s="108">
+        <v>41</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E289" s="5">
+        <v>100</v>
+      </c>
+      <c r="F289" s="5">
+        <v>143</v>
+      </c>
+      <c r="G289" s="5">
+        <v>179</v>
+      </c>
+      <c r="H289" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="108">
+        <v>41</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E290" s="5">
+        <v>120</v>
+      </c>
+      <c r="F290" s="5">
+        <v>150</v>
+      </c>
+      <c r="G290" s="5">
+        <v>179</v>
+      </c>
+      <c r="H290" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="108">
+        <v>41</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E291" s="5">
+        <v>120</v>
+      </c>
+      <c r="F291" s="5">
+        <v>150</v>
+      </c>
+      <c r="G291" s="5">
+        <v>179</v>
+      </c>
+      <c r="H291" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="108">
+        <v>41</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E292" s="5">
+        <v>70</v>
+      </c>
+      <c r="F292" s="5">
+        <v>88</v>
+      </c>
+      <c r="G292" s="5">
+        <v>99</v>
+      </c>
+      <c r="H292" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="108">
+        <v>41</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E293" s="5">
+        <v>70</v>
+      </c>
+      <c r="F293" s="5">
+        <v>88</v>
+      </c>
+      <c r="G293" s="5">
+        <v>99</v>
+      </c>
+      <c r="H293" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="108">
+        <v>41</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E294" s="5">
+        <v>70</v>
+      </c>
+      <c r="F294" s="5">
+        <v>88</v>
+      </c>
+      <c r="G294" s="5">
+        <v>99</v>
+      </c>
+      <c r="H294" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C295" s="5">
+        <v>32</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E295" s="5">
+        <v>100</v>
+      </c>
+      <c r="F295" s="5">
+        <v>143</v>
+      </c>
+      <c r="G295" s="5">
+        <v>179</v>
+      </c>
+      <c r="H295" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C296" s="5">
+        <v>32</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E296" s="5">
+        <v>120</v>
+      </c>
+      <c r="F296" s="5">
+        <v>150</v>
+      </c>
+      <c r="G296" s="5">
+        <v>179</v>
+      </c>
+      <c r="H296" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C297" s="5">
+        <v>32</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E297" s="5">
+        <v>120</v>
+      </c>
+      <c r="F297" s="5">
+        <v>150</v>
+      </c>
+      <c r="G297" s="5">
+        <v>179</v>
+      </c>
+      <c r="H297" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C298" s="5">
+        <v>32</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E298" s="5">
+        <v>70</v>
+      </c>
+      <c r="F298" s="5">
+        <v>88</v>
+      </c>
+      <c r="G298" s="5">
+        <v>99</v>
+      </c>
+      <c r="H298" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C299" s="5">
+        <v>32</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E299" s="5">
+        <v>70</v>
+      </c>
+      <c r="F299" s="5">
+        <v>88</v>
+      </c>
+      <c r="G299" s="5">
+        <v>99</v>
+      </c>
+      <c r="H299" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C300" s="5">
+        <v>32</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E300" s="5">
+        <v>70</v>
+      </c>
+      <c r="F300" s="5">
+        <v>88</v>
+      </c>
+      <c r="G300" s="5">
+        <v>99</v>
+      </c>
+      <c r="H300" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C301" s="5">
+        <v>53</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E301" s="5">
+        <v>100</v>
+      </c>
+      <c r="F301" s="5">
+        <v>143</v>
+      </c>
+      <c r="G301" s="5">
+        <v>179</v>
+      </c>
+      <c r="H301" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302" s="5">
+        <v>53</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E302" s="5">
+        <v>120</v>
+      </c>
+      <c r="F302" s="5">
+        <v>150</v>
+      </c>
+      <c r="G302" s="5">
+        <v>179</v>
+      </c>
+      <c r="H302" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303" s="5">
+        <v>53</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E303" s="5">
+        <v>120</v>
+      </c>
+      <c r="F303" s="5">
+        <v>150</v>
+      </c>
+      <c r="G303" s="5">
+        <v>179</v>
+      </c>
+      <c r="H303" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="5">
+        <v>53</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E304" s="5">
+        <v>70</v>
+      </c>
+      <c r="F304" s="5">
+        <v>88</v>
+      </c>
+      <c r="G304" s="5">
+        <v>99</v>
+      </c>
+      <c r="H304" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" s="5">
+        <v>53</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E305" s="5">
+        <v>70</v>
+      </c>
+      <c r="F305" s="5">
+        <v>88</v>
+      </c>
+      <c r="G305" s="5">
+        <v>99</v>
+      </c>
+      <c r="H305" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306" s="5">
+        <v>53</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E306" s="5">
+        <v>70</v>
+      </c>
+      <c r="F306" s="5">
+        <v>88</v>
+      </c>
+      <c r="G306" s="5">
+        <v>99</v>
+      </c>
+      <c r="H306" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C307" s="5">
+        <v>8</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E307" s="5">
+        <v>100</v>
+      </c>
+      <c r="F307" s="5">
+        <v>143</v>
+      </c>
+      <c r="G307" s="5">
+        <v>179</v>
+      </c>
+      <c r="H307" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308" s="5">
+        <v>8</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E308" s="5">
+        <v>120</v>
+      </c>
+      <c r="F308" s="5">
+        <v>150</v>
+      </c>
+      <c r="G308" s="5">
+        <v>179</v>
+      </c>
+      <c r="H308" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C309" s="5">
+        <v>8</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E309" s="5">
+        <v>120</v>
+      </c>
+      <c r="F309" s="5">
+        <v>150</v>
+      </c>
+      <c r="G309" s="5">
+        <v>179</v>
+      </c>
+      <c r="H309" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C310" s="5">
+        <v>8</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E310" s="5">
+        <v>70</v>
+      </c>
+      <c r="F310" s="5">
+        <v>88</v>
+      </c>
+      <c r="G310" s="5">
+        <v>99</v>
+      </c>
+      <c r="H310" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C311" s="5">
+        <v>8</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E311" s="5">
+        <v>70</v>
+      </c>
+      <c r="F311" s="5">
+        <v>88</v>
+      </c>
+      <c r="G311" s="5">
+        <v>99</v>
+      </c>
+      <c r="H311" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312" s="5">
+        <v>8</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E312" s="5">
+        <v>70</v>
+      </c>
+      <c r="F312" s="5">
+        <v>88</v>
+      </c>
+      <c r="G312" s="5">
+        <v>99</v>
+      </c>
+      <c r="H312" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313" s="5">
+        <v>23</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E313" s="5">
+        <v>100</v>
+      </c>
+      <c r="F313" s="5">
+        <v>143</v>
+      </c>
+      <c r="G313" s="5">
+        <v>179</v>
+      </c>
+      <c r="H313" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314" s="5">
+        <v>23</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E314" s="5">
+        <v>120</v>
+      </c>
+      <c r="F314" s="5">
+        <v>150</v>
+      </c>
+      <c r="G314" s="5">
+        <v>179</v>
+      </c>
+      <c r="H314" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C315" s="5">
+        <v>23</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E315" s="5">
+        <v>120</v>
+      </c>
+      <c r="F315" s="5">
+        <v>150</v>
+      </c>
+      <c r="G315" s="5">
+        <v>179</v>
+      </c>
+      <c r="H315" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" s="5">
+        <v>23</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E316" s="5">
+        <v>70</v>
+      </c>
+      <c r="F316" s="5">
+        <v>88</v>
+      </c>
+      <c r="G316" s="5">
+        <v>99</v>
+      </c>
+      <c r="H316" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C317" s="5">
+        <v>23</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E317" s="5">
+        <v>70</v>
+      </c>
+      <c r="F317" s="5">
+        <v>88</v>
+      </c>
+      <c r="G317" s="5">
+        <v>99</v>
+      </c>
+      <c r="H317" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C318" s="5">
+        <v>23</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E318" s="5">
+        <v>70</v>
+      </c>
+      <c r="F318" s="5">
+        <v>88</v>
+      </c>
+      <c r="G318" s="5">
+        <v>99</v>
+      </c>
+      <c r="H318" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" s="5">
+        <v>46</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E319" s="5">
+        <v>100</v>
+      </c>
+      <c r="F319" s="5">
+        <v>143</v>
+      </c>
+      <c r="G319" s="5">
+        <v>179</v>
+      </c>
+      <c r="H319" s="5">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" s="5">
+        <v>46</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E320" s="5">
+        <v>120</v>
+      </c>
+      <c r="F320" s="5">
+        <v>150</v>
+      </c>
+      <c r="G320" s="5">
+        <v>179</v>
+      </c>
+      <c r="H320" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" s="5">
+        <v>46</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E321" s="5">
+        <v>120</v>
+      </c>
+      <c r="F321" s="5">
+        <v>150</v>
+      </c>
+      <c r="G321" s="5">
+        <v>179</v>
+      </c>
+      <c r="H321" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" s="5">
+        <v>46</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E322" s="5">
+        <v>70</v>
+      </c>
+      <c r="F322" s="5">
+        <v>88</v>
+      </c>
+      <c r="G322" s="5">
+        <v>99</v>
+      </c>
+      <c r="H322" s="5">
+        <f t="shared" ref="H322:H342" si="14">F322-E322</f>
+        <v>18</v>
+      </c>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5">
+        <f t="shared" ref="J322:J342" si="15">F322*I322</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" s="5">
+        <v>46</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E323" s="5">
+        <v>70</v>
+      </c>
+      <c r="F323" s="5">
+        <v>88</v>
+      </c>
+      <c r="G323" s="5">
+        <v>99</v>
+      </c>
+      <c r="H323" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" s="5">
+        <v>46</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E324" s="5">
+        <v>70</v>
+      </c>
+      <c r="F324" s="5">
+        <v>88</v>
+      </c>
+      <c r="G324" s="5">
+        <v>99</v>
+      </c>
+      <c r="H324" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" s="5">
+        <v>32</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E325" s="5">
+        <v>100</v>
+      </c>
+      <c r="F325" s="5">
+        <v>143</v>
+      </c>
+      <c r="G325" s="5">
+        <v>179</v>
+      </c>
+      <c r="H325" s="5">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="5">
+        <v>32</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E326" s="5">
+        <v>120</v>
+      </c>
+      <c r="F326" s="5">
+        <v>150</v>
+      </c>
+      <c r="G326" s="5">
+        <v>179</v>
+      </c>
+      <c r="H326" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" s="5">
+        <v>32</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E327" s="5">
+        <v>120</v>
+      </c>
+      <c r="F327" s="5">
+        <v>150</v>
+      </c>
+      <c r="G327" s="5">
+        <v>179</v>
+      </c>
+      <c r="H327" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" s="5">
+        <v>32</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E328" s="5">
+        <v>70</v>
+      </c>
+      <c r="F328" s="5">
+        <v>88</v>
+      </c>
+      <c r="G328" s="5">
+        <v>99</v>
+      </c>
+      <c r="H328" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="5">
+        <v>32</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E329" s="5">
+        <v>70</v>
+      </c>
+      <c r="F329" s="5">
+        <v>88</v>
+      </c>
+      <c r="G329" s="5">
+        <v>99</v>
+      </c>
+      <c r="H329" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="5">
+        <v>32</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E330" s="5">
+        <v>70</v>
+      </c>
+      <c r="F330" s="5">
+        <v>88</v>
+      </c>
+      <c r="G330" s="5">
+        <v>99</v>
+      </c>
+      <c r="H330" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="5">
+        <v>20</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E331" s="5">
+        <v>100</v>
+      </c>
+      <c r="F331" s="5">
+        <v>143</v>
+      </c>
+      <c r="G331" s="5">
+        <v>179</v>
+      </c>
+      <c r="H331" s="5">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C332" s="5">
+        <v>20</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E332" s="5">
+        <v>120</v>
+      </c>
+      <c r="F332" s="5">
+        <v>150</v>
+      </c>
+      <c r="G332" s="5">
+        <v>179</v>
+      </c>
+      <c r="H332" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" s="5">
+        <v>20</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E333" s="5">
+        <v>120</v>
+      </c>
+      <c r="F333" s="5">
+        <v>150</v>
+      </c>
+      <c r="G333" s="5">
+        <v>179</v>
+      </c>
+      <c r="H333" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C334" s="5">
+        <v>20</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E334" s="5">
+        <v>70</v>
+      </c>
+      <c r="F334" s="5">
+        <v>88</v>
+      </c>
+      <c r="G334" s="5">
+        <v>99</v>
+      </c>
+      <c r="H334" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C335" s="5">
+        <v>20</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E335" s="5">
+        <v>70</v>
+      </c>
+      <c r="F335" s="5">
+        <v>88</v>
+      </c>
+      <c r="G335" s="5">
+        <v>99</v>
+      </c>
+      <c r="H335" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="5">
+        <v>20</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E336" s="5">
+        <v>70</v>
+      </c>
+      <c r="F336" s="5">
+        <v>88</v>
+      </c>
+      <c r="G336" s="5">
+        <v>99</v>
+      </c>
+      <c r="H336" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" s="5">
+        <v>16</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E337" s="5">
+        <v>100</v>
+      </c>
+      <c r="F337" s="5">
+        <v>143</v>
+      </c>
+      <c r="G337" s="5">
+        <v>179</v>
+      </c>
+      <c r="H337" s="5">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C338" s="5">
+        <v>16</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E338" s="5">
+        <v>120</v>
+      </c>
+      <c r="F338" s="5">
+        <v>150</v>
+      </c>
+      <c r="G338" s="5">
+        <v>179</v>
+      </c>
+      <c r="H338" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C339" s="5">
+        <v>16</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E339" s="5">
+        <v>120</v>
+      </c>
+      <c r="F339" s="5">
+        <v>150</v>
+      </c>
+      <c r="G339" s="5">
+        <v>179</v>
+      </c>
+      <c r="H339" s="5">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C340" s="5">
+        <v>16</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E340" s="5">
+        <v>70</v>
+      </c>
+      <c r="F340" s="5">
+        <v>88</v>
+      </c>
+      <c r="G340" s="5">
+        <v>99</v>
+      </c>
+      <c r="H340" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C341" s="5">
+        <v>16</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E341" s="5">
+        <v>70</v>
+      </c>
+      <c r="F341" s="5">
+        <v>88</v>
+      </c>
+      <c r="G341" s="5">
+        <v>99</v>
+      </c>
+      <c r="H341" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="104">
+        <v>44575</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" s="5">
+        <v>16</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E342" s="5">
+        <v>70</v>
+      </c>
+      <c r="F342" s="5">
+        <v>88</v>
+      </c>
+      <c r="G342" s="5">
+        <v>99</v>
+      </c>
+      <c r="H342" s="5">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18874,8 +21049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18976,12 +21151,14 @@
       <c r="D5" s="64">
         <v>180</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="66">
+        <v>89</v>
+      </c>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66">
         <f>SUM(B5:F5)</f>
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="I5" s="118"/>
     </row>
@@ -18996,16 +21173,18 @@
       <c r="D6" s="64">
         <v>27219</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="64">
+        <v>7400</v>
+      </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64">
         <f>SUM(B6:F6)</f>
-        <v>49753</v>
+        <v>57153</v>
       </c>
       <c r="I6" s="119">
         <f t="shared" ref="I6:I7" si="0">H6/1.05</f>
-        <v>47383.809523809519</v>
+        <v>54431.428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
@@ -19019,16 +21198,18 @@
       <c r="D7" s="64">
         <v>5353</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="64">
+        <v>1327</v>
+      </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64">
         <f>SUM(B7:F7)</f>
-        <v>9535</v>
+        <v>10862</v>
       </c>
       <c r="I7" s="119">
         <f t="shared" si="0"/>
-        <v>9080.9523809523798</v>
+        <v>10344.761904761905</v>
       </c>
     </row>
   </sheetData>

--- a/網路商城_2022_01月統計表.xlsx
+++ b/網路商城_2022_01月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1950" windowWidth="15600" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1995" windowWidth="15600" windowHeight="7965" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="300">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,6 +1024,136 @@
   </si>
   <si>
     <t>果乾_洛神花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香魚皮  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香魚皮  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">塔香魚皮   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔香魚皮   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓式部隊鍋</t>
+  </si>
+  <si>
+    <t>韓式部隊鍋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去骨黃金雞腿</t>
+  </si>
+  <si>
+    <t>去骨黃金雞腿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">冷凍鍋貼  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷凍鍋貼  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日式黃金香酥蝦排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">日式黃金香酥蝦排  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">炙燒松阪豬  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炙燒松阪豬  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金黃鮮嫩爆醬雞肉捲</t>
+  </si>
+  <si>
+    <t>金黃鮮嫩爆醬雞肉捲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_經典白胡椒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_經典白胡椒 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_嗆辣芥末   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_嗆辣芥末   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_椒香麻辣   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_椒香麻辣   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_清檸梅香   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞皮餅乾_清檸梅香   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜片_經典白胡椒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜片_經典白胡椒 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜片_椒香麻辣     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜片_椒香麻辣     </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_川辣雞胗</t>
+  </si>
+  <si>
+    <t>滷味_川辣雞胗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">滷味_川辣雞心   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">滷味_川辣雞心   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">滷味_川辣牛腱   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">滷味_川辣牛腱   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_川辣牛肚</t>
+  </si>
+  <si>
+    <t>滷味_川辣牛肚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>八德陸光</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2341,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141977600"/>
-        <c:axId val="52426944"/>
+        <c:axId val="147960320"/>
+        <c:axId val="187616064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141977600"/>
+        <c:axId val="147960320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2497,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52426944"/>
+        <c:crossAx val="187616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52426944"/>
+        <c:axId val="187616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2529,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141977600"/>
+        <c:crossAx val="147960320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2776,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150989056"/>
-        <c:axId val="150989632"/>
+        <c:axId val="162241280"/>
+        <c:axId val="162241856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150989056"/>
+        <c:axId val="162241280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,12 +2954,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150989632"/>
+        <c:crossAx val="162241856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150989632"/>
+        <c:axId val="162241856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +3011,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150989056"/>
+        <c:crossAx val="162241280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3078,11 +3208,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="151183360"/>
-        <c:axId val="150992512"/>
+        <c:axId val="196831232"/>
+        <c:axId val="202049792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151183360"/>
+        <c:axId val="196831232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3234,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150992512"/>
+        <c:crossAx val="202049792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150992512"/>
+        <c:axId val="202049792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151183360"/>
+        <c:crossAx val="196831232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,11 +3465,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="153635328"/>
-        <c:axId val="150994240"/>
+        <c:axId val="197504512"/>
+        <c:axId val="202051520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153635328"/>
+        <c:axId val="197504512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3491,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150994240"/>
+        <c:crossAx val="202051520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3369,7 +3499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150994240"/>
+        <c:axId val="202051520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3509,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153635328"/>
+        <c:crossAx val="197504512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3783,11 +3913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155329664"/>
-        <c:axId val="155330240"/>
+        <c:axId val="202053248"/>
+        <c:axId val="202053824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155329664"/>
+        <c:axId val="202053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,12 +3961,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155330240"/>
+        <c:crossAx val="202053824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155330240"/>
+        <c:axId val="202053824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +4018,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155329664"/>
+        <c:crossAx val="202053248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4196,11 +4326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147464768"/>
-        <c:axId val="147465344"/>
+        <c:axId val="187618368"/>
+        <c:axId val="187618944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147464768"/>
+        <c:axId val="187618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,12 +4401,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147465344"/>
+        <c:crossAx val="187618944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147465344"/>
+        <c:axId val="187618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,7 +4473,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147464768"/>
+        <c:crossAx val="187618368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4679,11 +4809,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="147538944"/>
-        <c:axId val="147467072"/>
+        <c:axId val="192583680"/>
+        <c:axId val="187620672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147538944"/>
+        <c:axId val="192583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4835,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147467072"/>
+        <c:crossAx val="187620672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4713,7 +4843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147467072"/>
+        <c:axId val="187620672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4853,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147538944"/>
+        <c:crossAx val="192583680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5031,8 +5161,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147540992"/>
-        <c:axId val="147468224"/>
+        <c:axId val="197615616"/>
+        <c:axId val="194323584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5170,11 +5300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147541504"/>
-        <c:axId val="147468800"/>
+        <c:axId val="197616128"/>
+        <c:axId val="194324160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147540992"/>
+        <c:axId val="197615616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5196,7 +5326,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147468224"/>
+        <c:crossAx val="194323584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5204,7 +5334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147468224"/>
+        <c:axId val="194323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,13 +5358,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147540992"/>
+        <c:crossAx val="197615616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147468800"/>
+        <c:axId val="194324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5257,13 +5387,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147541504"/>
+        <c:crossAx val="197616128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147541504"/>
+        <c:axId val="197616128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5272,7 +5402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147468800"/>
+        <c:crossAx val="194324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5557,8 +5687,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144243200"/>
-        <c:axId val="147471680"/>
+        <c:axId val="197619200"/>
+        <c:axId val="194326464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5719,11 +5849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144241152"/>
-        <c:axId val="147471104"/>
+        <c:axId val="192584704"/>
+        <c:axId val="111905600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144241152"/>
+        <c:axId val="192584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5875,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147471104"/>
+        <c:crossAx val="111905600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5753,7 +5883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147471104"/>
+        <c:axId val="111905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,12 +5907,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144241152"/>
+        <c:crossAx val="192584704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147471680"/>
+        <c:axId val="194326464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,12 +5935,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144243200"/>
+        <c:crossAx val="197619200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="144243200"/>
+        <c:axId val="197619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5819,7 +5949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147471680"/>
+        <c:crossAx val="194326464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6059,11 +6189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144244224"/>
-        <c:axId val="149866176"/>
+        <c:axId val="196830208"/>
+        <c:axId val="194328768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144244224"/>
+        <c:axId val="196830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +6215,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149866176"/>
+        <c:crossAx val="194328768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6093,7 +6223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149866176"/>
+        <c:axId val="194328768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,7 +6247,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144244224"/>
+        <c:crossAx val="196830208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6281,11 +6411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151038464"/>
-        <c:axId val="149867904"/>
+        <c:axId val="196832768"/>
+        <c:axId val="162234368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="151038464"/>
+        <c:axId val="196832768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,7 +6438,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149867904"/>
+        <c:crossAx val="162234368"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6317,7 +6447,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149867904"/>
+        <c:axId val="162234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6342,7 +6472,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151038464"/>
+        <c:crossAx val="196832768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6550,11 +6680,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="144241664"/>
-        <c:axId val="149870208"/>
+        <c:axId val="196890624"/>
+        <c:axId val="162236672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144241664"/>
+        <c:axId val="196890624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6706,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149870208"/>
+        <c:crossAx val="162236672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6584,7 +6714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149870208"/>
+        <c:axId val="162236672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6594,7 +6724,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144241664"/>
+        <c:crossAx val="196890624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6807,11 +6937,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="151185920"/>
-        <c:axId val="150987328"/>
+        <c:axId val="196894208"/>
+        <c:axId val="162239552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151185920"/>
+        <c:axId val="196894208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,7 +6963,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150987328"/>
+        <c:crossAx val="162239552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6841,7 +6971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150987328"/>
+        <c:axId val="162239552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6851,7 +6981,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151185920"/>
+        <c:crossAx val="196894208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9582,11 +9712,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J342"/>
+  <dimension ref="A1:J540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L280" sqref="L280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L526" sqref="L526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -20064,12 +20194,12 @@
         <v>99</v>
       </c>
       <c r="H322" s="5">
-        <f t="shared" ref="H322:H342" si="14">F322-E322</f>
+        <f t="shared" ref="H322:H385" si="14">F322-E322</f>
         <v>18</v>
       </c>
       <c r="I322" s="5"/>
       <c r="J322" s="5">
-        <f t="shared" ref="J322:J342" si="15">F322*I322</f>
+        <f t="shared" ref="J322:J385" si="15">F322*I322</f>
         <v>0</v>
       </c>
     </row>
@@ -20710,6 +20840,6412 @@
       <c r="I342" s="5"/>
       <c r="J342" s="5">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B343" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C343" s="108">
+        <v>41</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E343" s="5">
+        <v>110</v>
+      </c>
+      <c r="F343" s="5">
+        <v>138</v>
+      </c>
+      <c r="G343" s="5">
+        <v>155</v>
+      </c>
+      <c r="H343" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B344" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C344" s="108">
+        <v>41</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E344" s="5">
+        <v>110</v>
+      </c>
+      <c r="F344" s="5">
+        <v>138</v>
+      </c>
+      <c r="G344" s="5">
+        <v>155</v>
+      </c>
+      <c r="H344" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B345" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C345" s="108">
+        <v>41</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E345" s="5">
+        <v>130</v>
+      </c>
+      <c r="F345" s="5">
+        <v>159</v>
+      </c>
+      <c r="G345" s="5">
+        <v>189</v>
+      </c>
+      <c r="H345" s="5">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B346" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C346" s="108">
+        <v>41</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E346" s="5">
+        <v>90</v>
+      </c>
+      <c r="F346" s="5">
+        <v>110</v>
+      </c>
+      <c r="G346" s="5">
+        <v>129</v>
+      </c>
+      <c r="H346" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B347" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C347" s="108">
+        <v>41</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E347" s="5">
+        <v>90</v>
+      </c>
+      <c r="F347" s="5">
+        <v>113</v>
+      </c>
+      <c r="G347" s="5">
+        <v>130</v>
+      </c>
+      <c r="H347" s="5">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B348" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C348" s="108">
+        <v>41</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E348" s="5">
+        <v>110</v>
+      </c>
+      <c r="F348" s="5">
+        <v>147</v>
+      </c>
+      <c r="G348" s="5">
+        <v>179</v>
+      </c>
+      <c r="H348" s="5">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B349" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C349" s="108">
+        <v>41</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E349" s="5">
+        <v>185</v>
+      </c>
+      <c r="F349" s="5">
+        <v>231</v>
+      </c>
+      <c r="G349" s="5">
+        <v>269</v>
+      </c>
+      <c r="H349" s="5">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B350" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C350" s="108">
+        <v>41</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E350" s="5">
+        <v>115</v>
+      </c>
+      <c r="F350" s="5">
+        <v>135</v>
+      </c>
+      <c r="G350" s="5">
+        <v>150</v>
+      </c>
+      <c r="H350" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B351" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C351" s="108">
+        <v>41</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E351" s="5">
+        <v>58</v>
+      </c>
+      <c r="F351" s="5">
+        <v>67</v>
+      </c>
+      <c r="G351" s="5">
+        <v>75</v>
+      </c>
+      <c r="H351" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B352" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C352" s="108">
+        <v>41</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E352" s="5">
+        <v>58</v>
+      </c>
+      <c r="F352" s="5">
+        <v>67</v>
+      </c>
+      <c r="G352" s="5">
+        <v>75</v>
+      </c>
+      <c r="H352" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B353" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C353" s="108">
+        <v>41</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E353" s="5">
+        <v>58</v>
+      </c>
+      <c r="F353" s="5">
+        <v>67</v>
+      </c>
+      <c r="G353" s="5">
+        <v>75</v>
+      </c>
+      <c r="H353" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B354" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C354" s="108">
+        <v>41</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E354" s="5">
+        <v>58</v>
+      </c>
+      <c r="F354" s="5">
+        <v>67</v>
+      </c>
+      <c r="G354" s="5">
+        <v>75</v>
+      </c>
+      <c r="H354" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B355" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C355" s="108">
+        <v>41</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E355" s="5">
+        <v>74</v>
+      </c>
+      <c r="F355" s="5">
+        <v>87</v>
+      </c>
+      <c r="G355" s="5">
+        <v>99</v>
+      </c>
+      <c r="H355" s="5">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B356" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C356" s="108">
+        <v>41</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E356" s="5">
+        <v>74</v>
+      </c>
+      <c r="F356" s="5">
+        <v>87</v>
+      </c>
+      <c r="G356" s="5">
+        <v>99</v>
+      </c>
+      <c r="H356" s="5">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B357" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C357" s="108">
+        <v>41</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E357" s="5">
+        <v>41</v>
+      </c>
+      <c r="F357" s="5">
+        <v>51</v>
+      </c>
+      <c r="G357" s="5">
+        <v>60</v>
+      </c>
+      <c r="H357" s="5">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B358" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C358" s="108">
+        <v>41</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E358" s="5">
+        <v>82</v>
+      </c>
+      <c r="F358" s="5">
+        <v>103</v>
+      </c>
+      <c r="G358" s="5">
+        <v>125</v>
+      </c>
+      <c r="H358" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B359" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C359" s="108">
+        <v>41</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E359" s="5">
+        <v>85</v>
+      </c>
+      <c r="F359" s="5">
+        <v>106</v>
+      </c>
+      <c r="G359" s="5">
+        <v>130</v>
+      </c>
+      <c r="H359" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B360" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C360" s="108">
+        <v>41</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E360" s="5">
+        <v>85</v>
+      </c>
+      <c r="F360" s="5">
+        <v>106</v>
+      </c>
+      <c r="G360" s="5">
+        <v>130</v>
+      </c>
+      <c r="H360" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C361" s="108">
+        <v>32</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E361" s="5">
+        <v>110</v>
+      </c>
+      <c r="F361" s="5">
+        <v>138</v>
+      </c>
+      <c r="G361" s="5">
+        <v>155</v>
+      </c>
+      <c r="H361" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I361" s="5">
+        <v>2</v>
+      </c>
+      <c r="J361" s="5">
+        <f t="shared" si="15"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C362" s="108">
+        <v>32</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E362" s="5">
+        <v>110</v>
+      </c>
+      <c r="F362" s="5">
+        <v>138</v>
+      </c>
+      <c r="G362" s="5">
+        <v>155</v>
+      </c>
+      <c r="H362" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I362" s="5">
+        <v>2</v>
+      </c>
+      <c r="J362" s="5">
+        <f t="shared" si="15"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C363" s="108">
+        <v>32</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E363" s="5">
+        <v>130</v>
+      </c>
+      <c r="F363" s="5">
+        <v>159</v>
+      </c>
+      <c r="G363" s="5">
+        <v>189</v>
+      </c>
+      <c r="H363" s="5">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C364" s="108">
+        <v>32</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E364" s="5">
+        <v>90</v>
+      </c>
+      <c r="F364" s="5">
+        <v>110</v>
+      </c>
+      <c r="G364" s="5">
+        <v>129</v>
+      </c>
+      <c r="H364" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I364" s="5">
+        <v>2</v>
+      </c>
+      <c r="J364" s="5">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C365" s="108">
+        <v>32</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E365" s="5">
+        <v>90</v>
+      </c>
+      <c r="F365" s="5">
+        <v>113</v>
+      </c>
+      <c r="G365" s="5">
+        <v>130</v>
+      </c>
+      <c r="H365" s="5">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="I365" s="5">
+        <v>3</v>
+      </c>
+      <c r="J365" s="5">
+        <f t="shared" si="15"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C366" s="108">
+        <v>32</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E366" s="5">
+        <v>110</v>
+      </c>
+      <c r="F366" s="5">
+        <v>147</v>
+      </c>
+      <c r="G366" s="5">
+        <v>179</v>
+      </c>
+      <c r="H366" s="5">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I366" s="5">
+        <v>2</v>
+      </c>
+      <c r="J366" s="5">
+        <f t="shared" si="15"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C367" s="108">
+        <v>32</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E367" s="5">
+        <v>185</v>
+      </c>
+      <c r="F367" s="5">
+        <v>231</v>
+      </c>
+      <c r="G367" s="5">
+        <v>269</v>
+      </c>
+      <c r="H367" s="5">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="I367" s="5">
+        <v>2</v>
+      </c>
+      <c r="J367" s="5">
+        <f t="shared" si="15"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C368" s="108">
+        <v>32</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E368" s="5">
+        <v>115</v>
+      </c>
+      <c r="F368" s="5">
+        <v>135</v>
+      </c>
+      <c r="G368" s="5">
+        <v>150</v>
+      </c>
+      <c r="H368" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I368" s="5">
+        <v>1</v>
+      </c>
+      <c r="J368" s="5">
+        <f t="shared" si="15"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C369" s="108">
+        <v>32</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E369" s="5">
+        <v>58</v>
+      </c>
+      <c r="F369" s="5">
+        <v>67</v>
+      </c>
+      <c r="G369" s="5">
+        <v>75</v>
+      </c>
+      <c r="H369" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I369" s="5">
+        <v>3</v>
+      </c>
+      <c r="J369" s="5">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C370" s="108">
+        <v>32</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E370" s="5">
+        <v>58</v>
+      </c>
+      <c r="F370" s="5">
+        <v>67</v>
+      </c>
+      <c r="G370" s="5">
+        <v>75</v>
+      </c>
+      <c r="H370" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I370" s="5">
+        <v>2</v>
+      </c>
+      <c r="J370" s="5">
+        <f t="shared" si="15"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C371" s="108">
+        <v>32</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E371" s="5">
+        <v>58</v>
+      </c>
+      <c r="F371" s="5">
+        <v>67</v>
+      </c>
+      <c r="G371" s="5">
+        <v>75</v>
+      </c>
+      <c r="H371" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I371" s="5">
+        <v>2</v>
+      </c>
+      <c r="J371" s="5">
+        <f t="shared" si="15"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C372" s="108">
+        <v>32</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E372" s="5">
+        <v>58</v>
+      </c>
+      <c r="F372" s="5">
+        <v>67</v>
+      </c>
+      <c r="G372" s="5">
+        <v>75</v>
+      </c>
+      <c r="H372" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I372" s="5">
+        <v>2</v>
+      </c>
+      <c r="J372" s="5">
+        <f t="shared" si="15"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C373" s="108">
+        <v>32</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E373" s="5">
+        <v>74</v>
+      </c>
+      <c r="F373" s="5">
+        <v>87</v>
+      </c>
+      <c r="G373" s="5">
+        <v>99</v>
+      </c>
+      <c r="H373" s="5">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C374" s="108">
+        <v>32</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E374" s="5">
+        <v>74</v>
+      </c>
+      <c r="F374" s="5">
+        <v>87</v>
+      </c>
+      <c r="G374" s="5">
+        <v>99</v>
+      </c>
+      <c r="H374" s="5">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I374" s="5">
+        <v>1</v>
+      </c>
+      <c r="J374" s="5">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C375" s="108">
+        <v>32</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E375" s="5">
+        <v>41</v>
+      </c>
+      <c r="F375" s="5">
+        <v>51</v>
+      </c>
+      <c r="G375" s="5">
+        <v>60</v>
+      </c>
+      <c r="H375" s="5">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C376" s="108">
+        <v>32</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E376" s="5">
+        <v>82</v>
+      </c>
+      <c r="F376" s="5">
+        <v>103</v>
+      </c>
+      <c r="G376" s="5">
+        <v>125</v>
+      </c>
+      <c r="H376" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C377" s="108">
+        <v>32</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E377" s="5">
+        <v>85</v>
+      </c>
+      <c r="F377" s="5">
+        <v>106</v>
+      </c>
+      <c r="G377" s="5">
+        <v>130</v>
+      </c>
+      <c r="H377" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I377" s="5">
+        <v>2</v>
+      </c>
+      <c r="J377" s="5">
+        <f t="shared" si="15"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C378" s="108">
+        <v>32</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E378" s="5">
+        <v>85</v>
+      </c>
+      <c r="F378" s="5">
+        <v>106</v>
+      </c>
+      <c r="G378" s="5">
+        <v>130</v>
+      </c>
+      <c r="H378" s="5">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" s="108">
+        <v>80</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E379" s="5">
+        <v>110</v>
+      </c>
+      <c r="F379" s="5">
+        <v>138</v>
+      </c>
+      <c r="G379" s="5">
+        <v>155</v>
+      </c>
+      <c r="H379" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I379" s="5">
+        <v>1</v>
+      </c>
+      <c r="J379" s="5">
+        <f t="shared" si="15"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" s="108">
+        <v>80</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E380" s="5">
+        <v>110</v>
+      </c>
+      <c r="F380" s="5">
+        <v>138</v>
+      </c>
+      <c r="G380" s="5">
+        <v>155</v>
+      </c>
+      <c r="H380" s="5">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I380" s="5">
+        <v>1</v>
+      </c>
+      <c r="J380" s="5">
+        <f t="shared" si="15"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" s="108">
+        <v>80</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E381" s="5">
+        <v>130</v>
+      </c>
+      <c r="F381" s="5">
+        <v>159</v>
+      </c>
+      <c r="G381" s="5">
+        <v>189</v>
+      </c>
+      <c r="H381" s="5">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382" s="108">
+        <v>80</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E382" s="5">
+        <v>90</v>
+      </c>
+      <c r="F382" s="5">
+        <v>110</v>
+      </c>
+      <c r="G382" s="5">
+        <v>129</v>
+      </c>
+      <c r="H382" s="5">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I382" s="5">
+        <v>3</v>
+      </c>
+      <c r="J382" s="5">
+        <f t="shared" si="15"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383" s="108">
+        <v>80</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E383" s="5">
+        <v>90</v>
+      </c>
+      <c r="F383" s="5">
+        <v>113</v>
+      </c>
+      <c r="G383" s="5">
+        <v>130</v>
+      </c>
+      <c r="H383" s="5">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="I383" s="5">
+        <v>2</v>
+      </c>
+      <c r="J383" s="5">
+        <f t="shared" si="15"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" s="108">
+        <v>80</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E384" s="5">
+        <v>110</v>
+      </c>
+      <c r="F384" s="5">
+        <v>147</v>
+      </c>
+      <c r="G384" s="5">
+        <v>179</v>
+      </c>
+      <c r="H384" s="5">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I384" s="5">
+        <v>2</v>
+      </c>
+      <c r="J384" s="5">
+        <f t="shared" si="15"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="108">
+        <v>80</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E385" s="5">
+        <v>185</v>
+      </c>
+      <c r="F385" s="5">
+        <v>231</v>
+      </c>
+      <c r="G385" s="5">
+        <v>269</v>
+      </c>
+      <c r="H385" s="5">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="I385" s="5">
+        <v>2</v>
+      </c>
+      <c r="J385" s="5">
+        <f t="shared" si="15"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386" s="108">
+        <v>80</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E386" s="5">
+        <v>115</v>
+      </c>
+      <c r="F386" s="5">
+        <v>135</v>
+      </c>
+      <c r="G386" s="5">
+        <v>150</v>
+      </c>
+      <c r="H386" s="5">
+        <f t="shared" ref="H386:H449" si="16">F386-E386</f>
+        <v>20</v>
+      </c>
+      <c r="I386" s="5">
+        <v>3</v>
+      </c>
+      <c r="J386" s="5">
+        <f t="shared" ref="J386:J449" si="17">F386*I386</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C387" s="108">
+        <v>80</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E387" s="5">
+        <v>58</v>
+      </c>
+      <c r="F387" s="5">
+        <v>67</v>
+      </c>
+      <c r="G387" s="5">
+        <v>75</v>
+      </c>
+      <c r="H387" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I387" s="5">
+        <v>1</v>
+      </c>
+      <c r="J387" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388" s="108">
+        <v>80</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E388" s="5">
+        <v>58</v>
+      </c>
+      <c r="F388" s="5">
+        <v>67</v>
+      </c>
+      <c r="G388" s="5">
+        <v>75</v>
+      </c>
+      <c r="H388" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I388" s="5">
+        <v>1</v>
+      </c>
+      <c r="J388" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" s="108">
+        <v>80</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E389" s="5">
+        <v>58</v>
+      </c>
+      <c r="F389" s="5">
+        <v>67</v>
+      </c>
+      <c r="G389" s="5">
+        <v>75</v>
+      </c>
+      <c r="H389" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I389" s="5">
+        <v>1</v>
+      </c>
+      <c r="J389" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" s="108">
+        <v>80</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E390" s="5">
+        <v>58</v>
+      </c>
+      <c r="F390" s="5">
+        <v>67</v>
+      </c>
+      <c r="G390" s="5">
+        <v>75</v>
+      </c>
+      <c r="H390" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I390" s="5">
+        <v>1</v>
+      </c>
+      <c r="J390" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391" s="108">
+        <v>80</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E391" s="5">
+        <v>74</v>
+      </c>
+      <c r="F391" s="5">
+        <v>87</v>
+      </c>
+      <c r="G391" s="5">
+        <v>99</v>
+      </c>
+      <c r="H391" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I391" s="5">
+        <v>1</v>
+      </c>
+      <c r="J391" s="5">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C392" s="108">
+        <v>80</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E392" s="5">
+        <v>74</v>
+      </c>
+      <c r="F392" s="5">
+        <v>87</v>
+      </c>
+      <c r="G392" s="5">
+        <v>99</v>
+      </c>
+      <c r="H392" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I392" s="5">
+        <v>1</v>
+      </c>
+      <c r="J392" s="5">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" s="108">
+        <v>80</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E393" s="5">
+        <v>41</v>
+      </c>
+      <c r="F393" s="5">
+        <v>51</v>
+      </c>
+      <c r="G393" s="5">
+        <v>60</v>
+      </c>
+      <c r="H393" s="5">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I393" s="5"/>
+      <c r="J393" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394" s="108">
+        <v>80</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E394" s="5">
+        <v>82</v>
+      </c>
+      <c r="F394" s="5">
+        <v>103</v>
+      </c>
+      <c r="G394" s="5">
+        <v>125</v>
+      </c>
+      <c r="H394" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C395" s="108">
+        <v>80</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E395" s="5">
+        <v>85</v>
+      </c>
+      <c r="F395" s="5">
+        <v>106</v>
+      </c>
+      <c r="G395" s="5">
+        <v>130</v>
+      </c>
+      <c r="H395" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C396" s="108">
+        <v>80</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E396" s="5">
+        <v>85</v>
+      </c>
+      <c r="F396" s="5">
+        <v>106</v>
+      </c>
+      <c r="G396" s="5">
+        <v>130</v>
+      </c>
+      <c r="H396" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C397" s="108">
+        <v>54</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E397" s="5">
+        <v>110</v>
+      </c>
+      <c r="F397" s="5">
+        <v>138</v>
+      </c>
+      <c r="G397" s="5">
+        <v>155</v>
+      </c>
+      <c r="H397" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C398" s="108">
+        <v>54</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E398" s="5">
+        <v>110</v>
+      </c>
+      <c r="F398" s="5">
+        <v>138</v>
+      </c>
+      <c r="G398" s="5">
+        <v>155</v>
+      </c>
+      <c r="H398" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C399" s="108">
+        <v>54</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E399" s="5">
+        <v>130</v>
+      </c>
+      <c r="F399" s="5">
+        <v>159</v>
+      </c>
+      <c r="G399" s="5">
+        <v>189</v>
+      </c>
+      <c r="H399" s="5">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C400" s="108">
+        <v>54</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E400" s="5">
+        <v>90</v>
+      </c>
+      <c r="F400" s="5">
+        <v>110</v>
+      </c>
+      <c r="G400" s="5">
+        <v>129</v>
+      </c>
+      <c r="H400" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C401" s="108">
+        <v>54</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E401" s="5">
+        <v>90</v>
+      </c>
+      <c r="F401" s="5">
+        <v>113</v>
+      </c>
+      <c r="G401" s="5">
+        <v>130</v>
+      </c>
+      <c r="H401" s="5">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I401" s="5"/>
+      <c r="J401" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C402" s="108">
+        <v>54</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E402" s="5">
+        <v>110</v>
+      </c>
+      <c r="F402" s="5">
+        <v>147</v>
+      </c>
+      <c r="G402" s="5">
+        <v>179</v>
+      </c>
+      <c r="H402" s="5">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C403" s="108">
+        <v>54</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E403" s="5">
+        <v>185</v>
+      </c>
+      <c r="F403" s="5">
+        <v>231</v>
+      </c>
+      <c r="G403" s="5">
+        <v>269</v>
+      </c>
+      <c r="H403" s="5">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C404" s="108">
+        <v>54</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E404" s="5">
+        <v>115</v>
+      </c>
+      <c r="F404" s="5">
+        <v>135</v>
+      </c>
+      <c r="G404" s="5">
+        <v>150</v>
+      </c>
+      <c r="H404" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C405" s="108">
+        <v>54</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E405" s="5">
+        <v>58</v>
+      </c>
+      <c r="F405" s="5">
+        <v>67</v>
+      </c>
+      <c r="G405" s="5">
+        <v>75</v>
+      </c>
+      <c r="H405" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C406" s="108">
+        <v>54</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E406" s="5">
+        <v>58</v>
+      </c>
+      <c r="F406" s="5">
+        <v>67</v>
+      </c>
+      <c r="G406" s="5">
+        <v>75</v>
+      </c>
+      <c r="H406" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C407" s="108">
+        <v>54</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E407" s="5">
+        <v>58</v>
+      </c>
+      <c r="F407" s="5">
+        <v>67</v>
+      </c>
+      <c r="G407" s="5">
+        <v>75</v>
+      </c>
+      <c r="H407" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I407" s="5">
+        <v>1</v>
+      </c>
+      <c r="J407" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C408" s="108">
+        <v>54</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E408" s="5">
+        <v>58</v>
+      </c>
+      <c r="F408" s="5">
+        <v>67</v>
+      </c>
+      <c r="G408" s="5">
+        <v>75</v>
+      </c>
+      <c r="H408" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C409" s="108">
+        <v>54</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E409" s="5">
+        <v>74</v>
+      </c>
+      <c r="F409" s="5">
+        <v>87</v>
+      </c>
+      <c r="G409" s="5">
+        <v>99</v>
+      </c>
+      <c r="H409" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C410" s="108">
+        <v>54</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E410" s="5">
+        <v>74</v>
+      </c>
+      <c r="F410" s="5">
+        <v>87</v>
+      </c>
+      <c r="G410" s="5">
+        <v>99</v>
+      </c>
+      <c r="H410" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I410" s="5">
+        <v>1</v>
+      </c>
+      <c r="J410" s="5">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C411" s="108">
+        <v>54</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E411" s="5">
+        <v>41</v>
+      </c>
+      <c r="F411" s="5">
+        <v>51</v>
+      </c>
+      <c r="G411" s="5">
+        <v>60</v>
+      </c>
+      <c r="H411" s="5">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I411" s="5">
+        <v>5</v>
+      </c>
+      <c r="J411" s="5">
+        <f t="shared" si="17"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C412" s="108">
+        <v>54</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E412" s="5">
+        <v>82</v>
+      </c>
+      <c r="F412" s="5">
+        <v>103</v>
+      </c>
+      <c r="G412" s="5">
+        <v>125</v>
+      </c>
+      <c r="H412" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I412" s="5">
+        <v>5</v>
+      </c>
+      <c r="J412" s="5">
+        <f t="shared" si="17"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C413" s="108">
+        <v>54</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E413" s="5">
+        <v>85</v>
+      </c>
+      <c r="F413" s="5">
+        <v>106</v>
+      </c>
+      <c r="G413" s="5">
+        <v>130</v>
+      </c>
+      <c r="H413" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C414" s="108">
+        <v>54</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E414" s="5">
+        <v>85</v>
+      </c>
+      <c r="F414" s="5">
+        <v>106</v>
+      </c>
+      <c r="G414" s="5">
+        <v>130</v>
+      </c>
+      <c r="H414" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C415" s="108">
+        <v>8</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E415" s="5">
+        <v>110</v>
+      </c>
+      <c r="F415" s="5">
+        <v>138</v>
+      </c>
+      <c r="G415" s="5">
+        <v>155</v>
+      </c>
+      <c r="H415" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C416" s="108">
+        <v>8</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E416" s="5">
+        <v>110</v>
+      </c>
+      <c r="F416" s="5">
+        <v>138</v>
+      </c>
+      <c r="G416" s="5">
+        <v>155</v>
+      </c>
+      <c r="H416" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C417" s="108">
+        <v>8</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E417" s="5">
+        <v>130</v>
+      </c>
+      <c r="F417" s="5">
+        <v>159</v>
+      </c>
+      <c r="G417" s="5">
+        <v>189</v>
+      </c>
+      <c r="H417" s="5">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="I417" s="5"/>
+      <c r="J417" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C418" s="108">
+        <v>8</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E418" s="5">
+        <v>90</v>
+      </c>
+      <c r="F418" s="5">
+        <v>110</v>
+      </c>
+      <c r="G418" s="5">
+        <v>129</v>
+      </c>
+      <c r="H418" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C419" s="108">
+        <v>8</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E419" s="5">
+        <v>90</v>
+      </c>
+      <c r="F419" s="5">
+        <v>113</v>
+      </c>
+      <c r="G419" s="5">
+        <v>130</v>
+      </c>
+      <c r="H419" s="5">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C420" s="108">
+        <v>8</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E420" s="5">
+        <v>110</v>
+      </c>
+      <c r="F420" s="5">
+        <v>147</v>
+      </c>
+      <c r="G420" s="5">
+        <v>179</v>
+      </c>
+      <c r="H420" s="5">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C421" s="108">
+        <v>8</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E421" s="5">
+        <v>185</v>
+      </c>
+      <c r="F421" s="5">
+        <v>231</v>
+      </c>
+      <c r="G421" s="5">
+        <v>269</v>
+      </c>
+      <c r="H421" s="5">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C422" s="108">
+        <v>8</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E422" s="5">
+        <v>115</v>
+      </c>
+      <c r="F422" s="5">
+        <v>135</v>
+      </c>
+      <c r="G422" s="5">
+        <v>150</v>
+      </c>
+      <c r="H422" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I422" s="5"/>
+      <c r="J422" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C423" s="108">
+        <v>8</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E423" s="5">
+        <v>58</v>
+      </c>
+      <c r="F423" s="5">
+        <v>67</v>
+      </c>
+      <c r="G423" s="5">
+        <v>75</v>
+      </c>
+      <c r="H423" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C424" s="108">
+        <v>8</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E424" s="5">
+        <v>58</v>
+      </c>
+      <c r="F424" s="5">
+        <v>67</v>
+      </c>
+      <c r="G424" s="5">
+        <v>75</v>
+      </c>
+      <c r="H424" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C425" s="108">
+        <v>8</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E425" s="5">
+        <v>58</v>
+      </c>
+      <c r="F425" s="5">
+        <v>67</v>
+      </c>
+      <c r="G425" s="5">
+        <v>75</v>
+      </c>
+      <c r="H425" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C426" s="108">
+        <v>8</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E426" s="5">
+        <v>58</v>
+      </c>
+      <c r="F426" s="5">
+        <v>67</v>
+      </c>
+      <c r="G426" s="5">
+        <v>75</v>
+      </c>
+      <c r="H426" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I426" s="5"/>
+      <c r="J426" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C427" s="108">
+        <v>8</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E427" s="5">
+        <v>74</v>
+      </c>
+      <c r="F427" s="5">
+        <v>87</v>
+      </c>
+      <c r="G427" s="5">
+        <v>99</v>
+      </c>
+      <c r="H427" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C428" s="108">
+        <v>8</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E428" s="5">
+        <v>74</v>
+      </c>
+      <c r="F428" s="5">
+        <v>87</v>
+      </c>
+      <c r="G428" s="5">
+        <v>99</v>
+      </c>
+      <c r="H428" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C429" s="108">
+        <v>8</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E429" s="5">
+        <v>41</v>
+      </c>
+      <c r="F429" s="5">
+        <v>51</v>
+      </c>
+      <c r="G429" s="5">
+        <v>60</v>
+      </c>
+      <c r="H429" s="5">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I429" s="5"/>
+      <c r="J429" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C430" s="108">
+        <v>8</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E430" s="5">
+        <v>82</v>
+      </c>
+      <c r="F430" s="5">
+        <v>103</v>
+      </c>
+      <c r="G430" s="5">
+        <v>125</v>
+      </c>
+      <c r="H430" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C431" s="108">
+        <v>8</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E431" s="5">
+        <v>85</v>
+      </c>
+      <c r="F431" s="5">
+        <v>106</v>
+      </c>
+      <c r="G431" s="5">
+        <v>130</v>
+      </c>
+      <c r="H431" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I431" s="5"/>
+      <c r="J431" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C432" s="108">
+        <v>8</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E432" s="5">
+        <v>85</v>
+      </c>
+      <c r="F432" s="5">
+        <v>106</v>
+      </c>
+      <c r="G432" s="5">
+        <v>130</v>
+      </c>
+      <c r="H432" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C433" s="108">
+        <v>23</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E433" s="5">
+        <v>110</v>
+      </c>
+      <c r="F433" s="5">
+        <v>138</v>
+      </c>
+      <c r="G433" s="5">
+        <v>155</v>
+      </c>
+      <c r="H433" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I433" s="5"/>
+      <c r="J433" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" s="108">
+        <v>23</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E434" s="5">
+        <v>110</v>
+      </c>
+      <c r="F434" s="5">
+        <v>138</v>
+      </c>
+      <c r="G434" s="5">
+        <v>155</v>
+      </c>
+      <c r="H434" s="5">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435" s="108">
+        <v>23</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E435" s="5">
+        <v>130</v>
+      </c>
+      <c r="F435" s="5">
+        <v>159</v>
+      </c>
+      <c r="G435" s="5">
+        <v>189</v>
+      </c>
+      <c r="H435" s="5">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436" s="108">
+        <v>23</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E436" s="5">
+        <v>90</v>
+      </c>
+      <c r="F436" s="5">
+        <v>110</v>
+      </c>
+      <c r="G436" s="5">
+        <v>129</v>
+      </c>
+      <c r="H436" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C437" s="108">
+        <v>23</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E437" s="5">
+        <v>90</v>
+      </c>
+      <c r="F437" s="5">
+        <v>113</v>
+      </c>
+      <c r="G437" s="5">
+        <v>130</v>
+      </c>
+      <c r="H437" s="5">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I437" s="5"/>
+      <c r="J437" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438" s="108">
+        <v>23</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E438" s="5">
+        <v>110</v>
+      </c>
+      <c r="F438" s="5">
+        <v>147</v>
+      </c>
+      <c r="G438" s="5">
+        <v>179</v>
+      </c>
+      <c r="H438" s="5">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="I438" s="5"/>
+      <c r="J438" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C439" s="108">
+        <v>23</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E439" s="5">
+        <v>185</v>
+      </c>
+      <c r="F439" s="5">
+        <v>231</v>
+      </c>
+      <c r="G439" s="5">
+        <v>269</v>
+      </c>
+      <c r="H439" s="5">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="I439" s="5"/>
+      <c r="J439" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C440" s="108">
+        <v>23</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E440" s="5">
+        <v>115</v>
+      </c>
+      <c r="F440" s="5">
+        <v>135</v>
+      </c>
+      <c r="G440" s="5">
+        <v>150</v>
+      </c>
+      <c r="H440" s="5">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I440" s="5"/>
+      <c r="J440" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C441" s="108">
+        <v>23</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E441" s="5">
+        <v>58</v>
+      </c>
+      <c r="F441" s="5">
+        <v>67</v>
+      </c>
+      <c r="G441" s="5">
+        <v>75</v>
+      </c>
+      <c r="H441" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I441" s="5"/>
+      <c r="J441" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C442" s="108">
+        <v>23</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E442" s="5">
+        <v>58</v>
+      </c>
+      <c r="F442" s="5">
+        <v>67</v>
+      </c>
+      <c r="G442" s="5">
+        <v>75</v>
+      </c>
+      <c r="H442" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C443" s="108">
+        <v>23</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E443" s="5">
+        <v>58</v>
+      </c>
+      <c r="F443" s="5">
+        <v>67</v>
+      </c>
+      <c r="G443" s="5">
+        <v>75</v>
+      </c>
+      <c r="H443" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C444" s="108">
+        <v>23</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E444" s="5">
+        <v>58</v>
+      </c>
+      <c r="F444" s="5">
+        <v>67</v>
+      </c>
+      <c r="G444" s="5">
+        <v>75</v>
+      </c>
+      <c r="H444" s="5">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="I444" s="5"/>
+      <c r="J444" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C445" s="108">
+        <v>23</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E445" s="5">
+        <v>74</v>
+      </c>
+      <c r="F445" s="5">
+        <v>87</v>
+      </c>
+      <c r="G445" s="5">
+        <v>99</v>
+      </c>
+      <c r="H445" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I445" s="5"/>
+      <c r="J445" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" s="108">
+        <v>23</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E446" s="5">
+        <v>74</v>
+      </c>
+      <c r="F446" s="5">
+        <v>87</v>
+      </c>
+      <c r="G446" s="5">
+        <v>99</v>
+      </c>
+      <c r="H446" s="5">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I446" s="5"/>
+      <c r="J446" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C447" s="108">
+        <v>23</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E447" s="5">
+        <v>41</v>
+      </c>
+      <c r="F447" s="5">
+        <v>51</v>
+      </c>
+      <c r="G447" s="5">
+        <v>60</v>
+      </c>
+      <c r="H447" s="5">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C448" s="108">
+        <v>23</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E448" s="5">
+        <v>82</v>
+      </c>
+      <c r="F448" s="5">
+        <v>103</v>
+      </c>
+      <c r="G448" s="5">
+        <v>125</v>
+      </c>
+      <c r="H448" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C449" s="108">
+        <v>23</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E449" s="5">
+        <v>85</v>
+      </c>
+      <c r="F449" s="5">
+        <v>106</v>
+      </c>
+      <c r="G449" s="5">
+        <v>130</v>
+      </c>
+      <c r="H449" s="5">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I449" s="5"/>
+      <c r="J449" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="108">
+        <v>23</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E450" s="5">
+        <v>85</v>
+      </c>
+      <c r="F450" s="5">
+        <v>106</v>
+      </c>
+      <c r="G450" s="5">
+        <v>130</v>
+      </c>
+      <c r="H450" s="5">
+        <f t="shared" ref="H450:H513" si="18">F450-E450</f>
+        <v>21</v>
+      </c>
+      <c r="I450" s="5"/>
+      <c r="J450" s="5">
+        <f t="shared" ref="J450:J513" si="19">F450*I450</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" s="108">
+        <v>46</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E451" s="5">
+        <v>110</v>
+      </c>
+      <c r="F451" s="5">
+        <v>138</v>
+      </c>
+      <c r="G451" s="5">
+        <v>155</v>
+      </c>
+      <c r="H451" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="108">
+        <v>46</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E452" s="5">
+        <v>110</v>
+      </c>
+      <c r="F452" s="5">
+        <v>138</v>
+      </c>
+      <c r="G452" s="5">
+        <v>155</v>
+      </c>
+      <c r="H452" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" s="108">
+        <v>46</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E453" s="5">
+        <v>130</v>
+      </c>
+      <c r="F453" s="5">
+        <v>159</v>
+      </c>
+      <c r="G453" s="5">
+        <v>189</v>
+      </c>
+      <c r="H453" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="I453" s="5"/>
+      <c r="J453" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="108">
+        <v>46</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E454" s="5">
+        <v>90</v>
+      </c>
+      <c r="F454" s="5">
+        <v>110</v>
+      </c>
+      <c r="G454" s="5">
+        <v>129</v>
+      </c>
+      <c r="H454" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I454" s="5"/>
+      <c r="J454" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" s="108">
+        <v>46</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E455" s="5">
+        <v>90</v>
+      </c>
+      <c r="F455" s="5">
+        <v>113</v>
+      </c>
+      <c r="G455" s="5">
+        <v>130</v>
+      </c>
+      <c r="H455" s="5">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="I455" s="5">
+        <v>1</v>
+      </c>
+      <c r="J455" s="5">
+        <f t="shared" si="19"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" s="108">
+        <v>46</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E456" s="5">
+        <v>110</v>
+      </c>
+      <c r="F456" s="5">
+        <v>147</v>
+      </c>
+      <c r="G456" s="5">
+        <v>179</v>
+      </c>
+      <c r="H456" s="5">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C457" s="108">
+        <v>46</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E457" s="5">
+        <v>185</v>
+      </c>
+      <c r="F457" s="5">
+        <v>231</v>
+      </c>
+      <c r="G457" s="5">
+        <v>269</v>
+      </c>
+      <c r="H457" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I457" s="5"/>
+      <c r="J457" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" s="108">
+        <v>46</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E458" s="5">
+        <v>115</v>
+      </c>
+      <c r="F458" s="5">
+        <v>135</v>
+      </c>
+      <c r="G458" s="5">
+        <v>150</v>
+      </c>
+      <c r="H458" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I458" s="5"/>
+      <c r="J458" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" s="108">
+        <v>46</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E459" s="5">
+        <v>58</v>
+      </c>
+      <c r="F459" s="5">
+        <v>67</v>
+      </c>
+      <c r="G459" s="5">
+        <v>75</v>
+      </c>
+      <c r="H459" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="108">
+        <v>46</v>
+      </c>
+      <c r="D460" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E460" s="5">
+        <v>58</v>
+      </c>
+      <c r="F460" s="5">
+        <v>67</v>
+      </c>
+      <c r="G460" s="5">
+        <v>75</v>
+      </c>
+      <c r="H460" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I460" s="5">
+        <v>2</v>
+      </c>
+      <c r="J460" s="5">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" s="108">
+        <v>46</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E461" s="5">
+        <v>58</v>
+      </c>
+      <c r="F461" s="5">
+        <v>67</v>
+      </c>
+      <c r="G461" s="5">
+        <v>75</v>
+      </c>
+      <c r="H461" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I461" s="5">
+        <v>2</v>
+      </c>
+      <c r="J461" s="5">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" s="108">
+        <v>46</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E462" s="5">
+        <v>58</v>
+      </c>
+      <c r="F462" s="5">
+        <v>67</v>
+      </c>
+      <c r="G462" s="5">
+        <v>75</v>
+      </c>
+      <c r="H462" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I462" s="5"/>
+      <c r="J462" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C463" s="108">
+        <v>46</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E463" s="5">
+        <v>74</v>
+      </c>
+      <c r="F463" s="5">
+        <v>87</v>
+      </c>
+      <c r="G463" s="5">
+        <v>99</v>
+      </c>
+      <c r="H463" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I463" s="5"/>
+      <c r="J463" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" s="108">
+        <v>46</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E464" s="5">
+        <v>74</v>
+      </c>
+      <c r="F464" s="5">
+        <v>87</v>
+      </c>
+      <c r="G464" s="5">
+        <v>99</v>
+      </c>
+      <c r="H464" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" s="108">
+        <v>46</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E465" s="5">
+        <v>41</v>
+      </c>
+      <c r="F465" s="5">
+        <v>51</v>
+      </c>
+      <c r="G465" s="5">
+        <v>60</v>
+      </c>
+      <c r="H465" s="5">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="I465" s="5">
+        <v>1</v>
+      </c>
+      <c r="J465" s="5">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C466" s="108">
+        <v>46</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E466" s="5">
+        <v>82</v>
+      </c>
+      <c r="F466" s="5">
+        <v>103</v>
+      </c>
+      <c r="G466" s="5">
+        <v>125</v>
+      </c>
+      <c r="H466" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I466" s="5">
+        <v>1</v>
+      </c>
+      <c r="J466" s="5">
+        <f t="shared" si="19"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467" s="108">
+        <v>46</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E467" s="5">
+        <v>85</v>
+      </c>
+      <c r="F467" s="5">
+        <v>106</v>
+      </c>
+      <c r="G467" s="5">
+        <v>130</v>
+      </c>
+      <c r="H467" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" s="108">
+        <v>46</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E468" s="5">
+        <v>85</v>
+      </c>
+      <c r="F468" s="5">
+        <v>106</v>
+      </c>
+      <c r="G468" s="5">
+        <v>130</v>
+      </c>
+      <c r="H468" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I468" s="5"/>
+      <c r="J468" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C469" s="108">
+        <v>32</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E469" s="5">
+        <v>110</v>
+      </c>
+      <c r="F469" s="5">
+        <v>138</v>
+      </c>
+      <c r="G469" s="5">
+        <v>155</v>
+      </c>
+      <c r="H469" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I469" s="5"/>
+      <c r="J469" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C470" s="108">
+        <v>32</v>
+      </c>
+      <c r="D470" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E470" s="5">
+        <v>110</v>
+      </c>
+      <c r="F470" s="5">
+        <v>138</v>
+      </c>
+      <c r="G470" s="5">
+        <v>155</v>
+      </c>
+      <c r="H470" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C471" s="108">
+        <v>32</v>
+      </c>
+      <c r="D471" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E471" s="5">
+        <v>130</v>
+      </c>
+      <c r="F471" s="5">
+        <v>159</v>
+      </c>
+      <c r="G471" s="5">
+        <v>189</v>
+      </c>
+      <c r="H471" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472" s="108">
+        <v>32</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E472" s="5">
+        <v>90</v>
+      </c>
+      <c r="F472" s="5">
+        <v>110</v>
+      </c>
+      <c r="G472" s="5">
+        <v>129</v>
+      </c>
+      <c r="H472" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C473" s="108">
+        <v>32</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E473" s="5">
+        <v>90</v>
+      </c>
+      <c r="F473" s="5">
+        <v>113</v>
+      </c>
+      <c r="G473" s="5">
+        <v>130</v>
+      </c>
+      <c r="H473" s="5">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="I473" s="5"/>
+      <c r="J473" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C474" s="108">
+        <v>32</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E474" s="5">
+        <v>110</v>
+      </c>
+      <c r="F474" s="5">
+        <v>147</v>
+      </c>
+      <c r="G474" s="5">
+        <v>179</v>
+      </c>
+      <c r="H474" s="5">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="I474" s="5"/>
+      <c r="J474" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C475" s="108">
+        <v>32</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E475" s="5">
+        <v>185</v>
+      </c>
+      <c r="F475" s="5">
+        <v>231</v>
+      </c>
+      <c r="G475" s="5">
+        <v>269</v>
+      </c>
+      <c r="H475" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I475" s="5"/>
+      <c r="J475" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C476" s="108">
+        <v>32</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E476" s="5">
+        <v>115</v>
+      </c>
+      <c r="F476" s="5">
+        <v>135</v>
+      </c>
+      <c r="G476" s="5">
+        <v>150</v>
+      </c>
+      <c r="H476" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I476" s="5"/>
+      <c r="J476" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C477" s="108">
+        <v>32</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E477" s="5">
+        <v>58</v>
+      </c>
+      <c r="F477" s="5">
+        <v>67</v>
+      </c>
+      <c r="G477" s="5">
+        <v>75</v>
+      </c>
+      <c r="H477" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I477" s="5"/>
+      <c r="J477" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C478" s="108">
+        <v>32</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E478" s="5">
+        <v>58</v>
+      </c>
+      <c r="F478" s="5">
+        <v>67</v>
+      </c>
+      <c r="G478" s="5">
+        <v>75</v>
+      </c>
+      <c r="H478" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I478" s="5"/>
+      <c r="J478" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C479" s="108">
+        <v>32</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E479" s="5">
+        <v>58</v>
+      </c>
+      <c r="F479" s="5">
+        <v>67</v>
+      </c>
+      <c r="G479" s="5">
+        <v>75</v>
+      </c>
+      <c r="H479" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C480" s="108">
+        <v>32</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E480" s="5">
+        <v>58</v>
+      </c>
+      <c r="F480" s="5">
+        <v>67</v>
+      </c>
+      <c r="G480" s="5">
+        <v>75</v>
+      </c>
+      <c r="H480" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I480" s="5"/>
+      <c r="J480" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C481" s="108">
+        <v>32</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E481" s="5">
+        <v>74</v>
+      </c>
+      <c r="F481" s="5">
+        <v>87</v>
+      </c>
+      <c r="G481" s="5">
+        <v>99</v>
+      </c>
+      <c r="H481" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I481" s="5"/>
+      <c r="J481" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C482" s="108">
+        <v>32</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E482" s="5">
+        <v>74</v>
+      </c>
+      <c r="F482" s="5">
+        <v>87</v>
+      </c>
+      <c r="G482" s="5">
+        <v>99</v>
+      </c>
+      <c r="H482" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I482" s="5"/>
+      <c r="J482" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C483" s="108">
+        <v>32</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E483" s="5">
+        <v>41</v>
+      </c>
+      <c r="F483" s="5">
+        <v>51</v>
+      </c>
+      <c r="G483" s="5">
+        <v>60</v>
+      </c>
+      <c r="H483" s="5">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="I483" s="5"/>
+      <c r="J483" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C484" s="108">
+        <v>32</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E484" s="5">
+        <v>82</v>
+      </c>
+      <c r="F484" s="5">
+        <v>103</v>
+      </c>
+      <c r="G484" s="5">
+        <v>125</v>
+      </c>
+      <c r="H484" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I484" s="5"/>
+      <c r="J484" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C485" s="108">
+        <v>32</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E485" s="5">
+        <v>85</v>
+      </c>
+      <c r="F485" s="5">
+        <v>106</v>
+      </c>
+      <c r="G485" s="5">
+        <v>130</v>
+      </c>
+      <c r="H485" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I485" s="5"/>
+      <c r="J485" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C486" s="108">
+        <v>32</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E486" s="5">
+        <v>85</v>
+      </c>
+      <c r="F486" s="5">
+        <v>106</v>
+      </c>
+      <c r="G486" s="5">
+        <v>130</v>
+      </c>
+      <c r="H486" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I486" s="5"/>
+      <c r="J486" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C487" s="108">
+        <v>69</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E487" s="5">
+        <v>110</v>
+      </c>
+      <c r="F487" s="5">
+        <v>138</v>
+      </c>
+      <c r="G487" s="5">
+        <v>155</v>
+      </c>
+      <c r="H487" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I487" s="5"/>
+      <c r="J487" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C488" s="108">
+        <v>69</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E488" s="5">
+        <v>110</v>
+      </c>
+      <c r="F488" s="5">
+        <v>138</v>
+      </c>
+      <c r="G488" s="5">
+        <v>155</v>
+      </c>
+      <c r="H488" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I488" s="5"/>
+      <c r="J488" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C489" s="108">
+        <v>69</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E489" s="5">
+        <v>130</v>
+      </c>
+      <c r="F489" s="5">
+        <v>159</v>
+      </c>
+      <c r="G489" s="5">
+        <v>189</v>
+      </c>
+      <c r="H489" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="I489" s="5"/>
+      <c r="J489" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C490" s="108">
+        <v>69</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E490" s="5">
+        <v>90</v>
+      </c>
+      <c r="F490" s="5">
+        <v>110</v>
+      </c>
+      <c r="G490" s="5">
+        <v>129</v>
+      </c>
+      <c r="H490" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I490" s="5"/>
+      <c r="J490" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C491" s="108">
+        <v>69</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E491" s="5">
+        <v>90</v>
+      </c>
+      <c r="F491" s="5">
+        <v>113</v>
+      </c>
+      <c r="G491" s="5">
+        <v>130</v>
+      </c>
+      <c r="H491" s="5">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="I491" s="5"/>
+      <c r="J491" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C492" s="108">
+        <v>69</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E492" s="5">
+        <v>110</v>
+      </c>
+      <c r="F492" s="5">
+        <v>147</v>
+      </c>
+      <c r="G492" s="5">
+        <v>179</v>
+      </c>
+      <c r="H492" s="5">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="I492" s="5"/>
+      <c r="J492" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C493" s="108">
+        <v>69</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E493" s="5">
+        <v>185</v>
+      </c>
+      <c r="F493" s="5">
+        <v>231</v>
+      </c>
+      <c r="G493" s="5">
+        <v>269</v>
+      </c>
+      <c r="H493" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I493" s="5"/>
+      <c r="J493" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C494" s="108">
+        <v>69</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E494" s="5">
+        <v>115</v>
+      </c>
+      <c r="F494" s="5">
+        <v>135</v>
+      </c>
+      <c r="G494" s="5">
+        <v>150</v>
+      </c>
+      <c r="H494" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I494" s="5"/>
+      <c r="J494" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C495" s="108">
+        <v>69</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E495" s="5">
+        <v>58</v>
+      </c>
+      <c r="F495" s="5">
+        <v>67</v>
+      </c>
+      <c r="G495" s="5">
+        <v>75</v>
+      </c>
+      <c r="H495" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I495" s="5"/>
+      <c r="J495" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C496" s="108">
+        <v>69</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E496" s="5">
+        <v>58</v>
+      </c>
+      <c r="F496" s="5">
+        <v>67</v>
+      </c>
+      <c r="G496" s="5">
+        <v>75</v>
+      </c>
+      <c r="H496" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I496" s="5"/>
+      <c r="J496" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497" s="108">
+        <v>69</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E497" s="5">
+        <v>58</v>
+      </c>
+      <c r="F497" s="5">
+        <v>67</v>
+      </c>
+      <c r="G497" s="5">
+        <v>75</v>
+      </c>
+      <c r="H497" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I497" s="5"/>
+      <c r="J497" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498" s="108">
+        <v>69</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E498" s="5">
+        <v>58</v>
+      </c>
+      <c r="F498" s="5">
+        <v>67</v>
+      </c>
+      <c r="G498" s="5">
+        <v>75</v>
+      </c>
+      <c r="H498" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I498" s="5"/>
+      <c r="J498" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="108">
+        <v>69</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E499" s="5">
+        <v>74</v>
+      </c>
+      <c r="F499" s="5">
+        <v>87</v>
+      </c>
+      <c r="G499" s="5">
+        <v>99</v>
+      </c>
+      <c r="H499" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I499" s="5"/>
+      <c r="J499" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500" s="108">
+        <v>69</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E500" s="5">
+        <v>74</v>
+      </c>
+      <c r="F500" s="5">
+        <v>87</v>
+      </c>
+      <c r="G500" s="5">
+        <v>99</v>
+      </c>
+      <c r="H500" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="I500" s="5"/>
+      <c r="J500" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C501" s="108">
+        <v>69</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E501" s="5">
+        <v>41</v>
+      </c>
+      <c r="F501" s="5">
+        <v>51</v>
+      </c>
+      <c r="G501" s="5">
+        <v>60</v>
+      </c>
+      <c r="H501" s="5">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="I501" s="5"/>
+      <c r="J501" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C502" s="108">
+        <v>69</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E502" s="5">
+        <v>82</v>
+      </c>
+      <c r="F502" s="5">
+        <v>103</v>
+      </c>
+      <c r="G502" s="5">
+        <v>125</v>
+      </c>
+      <c r="H502" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I502" s="5"/>
+      <c r="J502" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C503" s="108">
+        <v>69</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E503" s="5">
+        <v>85</v>
+      </c>
+      <c r="F503" s="5">
+        <v>106</v>
+      </c>
+      <c r="G503" s="5">
+        <v>130</v>
+      </c>
+      <c r="H503" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I503" s="5"/>
+      <c r="J503" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C504" s="108">
+        <v>69</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E504" s="5">
+        <v>85</v>
+      </c>
+      <c r="F504" s="5">
+        <v>106</v>
+      </c>
+      <c r="G504" s="5">
+        <v>130</v>
+      </c>
+      <c r="H504" s="5">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="I504" s="5"/>
+      <c r="J504" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C505" s="108">
+        <v>20</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E505" s="5">
+        <v>110</v>
+      </c>
+      <c r="F505" s="5">
+        <v>138</v>
+      </c>
+      <c r="G505" s="5">
+        <v>155</v>
+      </c>
+      <c r="H505" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I505" s="5"/>
+      <c r="J505" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C506" s="108">
+        <v>20</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E506" s="5">
+        <v>110</v>
+      </c>
+      <c r="F506" s="5">
+        <v>138</v>
+      </c>
+      <c r="G506" s="5">
+        <v>155</v>
+      </c>
+      <c r="H506" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I506" s="5"/>
+      <c r="J506" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C507" s="108">
+        <v>20</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E507" s="5">
+        <v>130</v>
+      </c>
+      <c r="F507" s="5">
+        <v>159</v>
+      </c>
+      <c r="G507" s="5">
+        <v>189</v>
+      </c>
+      <c r="H507" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="I507" s="5"/>
+      <c r="J507" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C508" s="108">
+        <v>20</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E508" s="5">
+        <v>90</v>
+      </c>
+      <c r="F508" s="5">
+        <v>110</v>
+      </c>
+      <c r="G508" s="5">
+        <v>129</v>
+      </c>
+      <c r="H508" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I508" s="5"/>
+      <c r="J508" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C509" s="108">
+        <v>20</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E509" s="5">
+        <v>90</v>
+      </c>
+      <c r="F509" s="5">
+        <v>113</v>
+      </c>
+      <c r="G509" s="5">
+        <v>130</v>
+      </c>
+      <c r="H509" s="5">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="I509" s="5"/>
+      <c r="J509" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C510" s="108">
+        <v>20</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E510" s="5">
+        <v>110</v>
+      </c>
+      <c r="F510" s="5">
+        <v>147</v>
+      </c>
+      <c r="G510" s="5">
+        <v>179</v>
+      </c>
+      <c r="H510" s="5">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="I510" s="5"/>
+      <c r="J510" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C511" s="108">
+        <v>20</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E511" s="5">
+        <v>185</v>
+      </c>
+      <c r="F511" s="5">
+        <v>231</v>
+      </c>
+      <c r="G511" s="5">
+        <v>269</v>
+      </c>
+      <c r="H511" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I511" s="5"/>
+      <c r="J511" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C512" s="108">
+        <v>20</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E512" s="5">
+        <v>115</v>
+      </c>
+      <c r="F512" s="5">
+        <v>135</v>
+      </c>
+      <c r="G512" s="5">
+        <v>150</v>
+      </c>
+      <c r="H512" s="5">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="I512" s="5"/>
+      <c r="J512" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C513" s="108">
+        <v>20</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E513" s="5">
+        <v>58</v>
+      </c>
+      <c r="F513" s="5">
+        <v>67</v>
+      </c>
+      <c r="G513" s="5">
+        <v>75</v>
+      </c>
+      <c r="H513" s="5">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="I513" s="5"/>
+      <c r="J513" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C514" s="108">
+        <v>20</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E514" s="5">
+        <v>58</v>
+      </c>
+      <c r="F514" s="5">
+        <v>67</v>
+      </c>
+      <c r="G514" s="5">
+        <v>75</v>
+      </c>
+      <c r="H514" s="5">
+        <f t="shared" ref="H514:H540" si="20">F514-E514</f>
+        <v>9</v>
+      </c>
+      <c r="I514" s="5"/>
+      <c r="J514" s="5">
+        <f t="shared" ref="J514:J540" si="21">F514*I514</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C515" s="108">
+        <v>20</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E515" s="5">
+        <v>58</v>
+      </c>
+      <c r="F515" s="5">
+        <v>67</v>
+      </c>
+      <c r="G515" s="5">
+        <v>75</v>
+      </c>
+      <c r="H515" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I515" s="5"/>
+      <c r="J515" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C516" s="108">
+        <v>20</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E516" s="5">
+        <v>58</v>
+      </c>
+      <c r="F516" s="5">
+        <v>67</v>
+      </c>
+      <c r="G516" s="5">
+        <v>75</v>
+      </c>
+      <c r="H516" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I516" s="5"/>
+      <c r="J516" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C517" s="108">
+        <v>20</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E517" s="5">
+        <v>74</v>
+      </c>
+      <c r="F517" s="5">
+        <v>87</v>
+      </c>
+      <c r="G517" s="5">
+        <v>99</v>
+      </c>
+      <c r="H517" s="5">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I517" s="5"/>
+      <c r="J517" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C518" s="108">
+        <v>20</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E518" s="5">
+        <v>74</v>
+      </c>
+      <c r="F518" s="5">
+        <v>87</v>
+      </c>
+      <c r="G518" s="5">
+        <v>99</v>
+      </c>
+      <c r="H518" s="5">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I518" s="5"/>
+      <c r="J518" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C519" s="108">
+        <v>20</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E519" s="5">
+        <v>41</v>
+      </c>
+      <c r="F519" s="5">
+        <v>51</v>
+      </c>
+      <c r="G519" s="5">
+        <v>60</v>
+      </c>
+      <c r="H519" s="5">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="I519" s="5"/>
+      <c r="J519" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C520" s="108">
+        <v>20</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E520" s="5">
+        <v>82</v>
+      </c>
+      <c r="F520" s="5">
+        <v>103</v>
+      </c>
+      <c r="G520" s="5">
+        <v>125</v>
+      </c>
+      <c r="H520" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I520" s="5"/>
+      <c r="J520" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C521" s="108">
+        <v>20</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E521" s="5">
+        <v>85</v>
+      </c>
+      <c r="F521" s="5">
+        <v>106</v>
+      </c>
+      <c r="G521" s="5">
+        <v>130</v>
+      </c>
+      <c r="H521" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I521" s="5"/>
+      <c r="J521" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C522" s="108">
+        <v>20</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E522" s="5">
+        <v>85</v>
+      </c>
+      <c r="F522" s="5">
+        <v>106</v>
+      </c>
+      <c r="G522" s="5">
+        <v>130</v>
+      </c>
+      <c r="H522" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I522" s="5"/>
+      <c r="J522" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C523" s="108">
+        <v>16</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E523" s="5">
+        <v>110</v>
+      </c>
+      <c r="F523" s="5">
+        <v>138</v>
+      </c>
+      <c r="G523" s="5">
+        <v>155</v>
+      </c>
+      <c r="H523" s="5">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="I523" s="5"/>
+      <c r="J523" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C524" s="108">
+        <v>16</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E524" s="5">
+        <v>110</v>
+      </c>
+      <c r="F524" s="5">
+        <v>138</v>
+      </c>
+      <c r="G524" s="5">
+        <v>155</v>
+      </c>
+      <c r="H524" s="5">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="I524" s="5"/>
+      <c r="J524" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C525" s="108">
+        <v>16</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E525" s="5">
+        <v>130</v>
+      </c>
+      <c r="F525" s="5">
+        <v>159</v>
+      </c>
+      <c r="G525" s="5">
+        <v>189</v>
+      </c>
+      <c r="H525" s="5">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="I525" s="5"/>
+      <c r="J525" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C526" s="108">
+        <v>16</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E526" s="5">
+        <v>90</v>
+      </c>
+      <c r="F526" s="5">
+        <v>110</v>
+      </c>
+      <c r="G526" s="5">
+        <v>129</v>
+      </c>
+      <c r="H526" s="5">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="I526" s="5"/>
+      <c r="J526" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C527" s="108">
+        <v>16</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E527" s="5">
+        <v>90</v>
+      </c>
+      <c r="F527" s="5">
+        <v>113</v>
+      </c>
+      <c r="G527" s="5">
+        <v>130</v>
+      </c>
+      <c r="H527" s="5">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="I527" s="5"/>
+      <c r="J527" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C528" s="108">
+        <v>16</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E528" s="5">
+        <v>110</v>
+      </c>
+      <c r="F528" s="5">
+        <v>147</v>
+      </c>
+      <c r="G528" s="5">
+        <v>179</v>
+      </c>
+      <c r="H528" s="5">
+        <f t="shared" si="20"/>
+        <v>37</v>
+      </c>
+      <c r="I528" s="5"/>
+      <c r="J528" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C529" s="108">
+        <v>16</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E529" s="5">
+        <v>185</v>
+      </c>
+      <c r="F529" s="5">
+        <v>231</v>
+      </c>
+      <c r="G529" s="5">
+        <v>269</v>
+      </c>
+      <c r="H529" s="5">
+        <f t="shared" si="20"/>
+        <v>46</v>
+      </c>
+      <c r="I529" s="5"/>
+      <c r="J529" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C530" s="108">
+        <v>16</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E530" s="5">
+        <v>115</v>
+      </c>
+      <c r="F530" s="5">
+        <v>135</v>
+      </c>
+      <c r="G530" s="5">
+        <v>150</v>
+      </c>
+      <c r="H530" s="5">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="I530" s="5"/>
+      <c r="J530" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C531" s="108">
+        <v>16</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E531" s="5">
+        <v>58</v>
+      </c>
+      <c r="F531" s="5">
+        <v>67</v>
+      </c>
+      <c r="G531" s="5">
+        <v>75</v>
+      </c>
+      <c r="H531" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I531" s="5"/>
+      <c r="J531" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C532" s="108">
+        <v>16</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E532" s="5">
+        <v>58</v>
+      </c>
+      <c r="F532" s="5">
+        <v>67</v>
+      </c>
+      <c r="G532" s="5">
+        <v>75</v>
+      </c>
+      <c r="H532" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I532" s="5"/>
+      <c r="J532" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C533" s="108">
+        <v>16</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E533" s="5">
+        <v>58</v>
+      </c>
+      <c r="F533" s="5">
+        <v>67</v>
+      </c>
+      <c r="G533" s="5">
+        <v>75</v>
+      </c>
+      <c r="H533" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I533" s="5"/>
+      <c r="J533" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C534" s="108">
+        <v>16</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E534" s="5">
+        <v>58</v>
+      </c>
+      <c r="F534" s="5">
+        <v>67</v>
+      </c>
+      <c r="G534" s="5">
+        <v>75</v>
+      </c>
+      <c r="H534" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I534" s="5"/>
+      <c r="J534" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C535" s="108">
+        <v>16</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E535" s="5">
+        <v>74</v>
+      </c>
+      <c r="F535" s="5">
+        <v>87</v>
+      </c>
+      <c r="G535" s="5">
+        <v>99</v>
+      </c>
+      <c r="H535" s="5">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I535" s="5"/>
+      <c r="J535" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C536" s="108">
+        <v>16</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E536" s="5">
+        <v>74</v>
+      </c>
+      <c r="F536" s="5">
+        <v>87</v>
+      </c>
+      <c r="G536" s="5">
+        <v>99</v>
+      </c>
+      <c r="H536" s="5">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I536" s="5"/>
+      <c r="J536" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C537" s="108">
+        <v>16</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E537" s="5">
+        <v>41</v>
+      </c>
+      <c r="F537" s="5">
+        <v>51</v>
+      </c>
+      <c r="G537" s="5">
+        <v>60</v>
+      </c>
+      <c r="H537" s="5">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="I537" s="5"/>
+      <c r="J537" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C538" s="108">
+        <v>16</v>
+      </c>
+      <c r="D538" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E538" s="5">
+        <v>82</v>
+      </c>
+      <c r="F538" s="5">
+        <v>103</v>
+      </c>
+      <c r="G538" s="5">
+        <v>125</v>
+      </c>
+      <c r="H538" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I538" s="5"/>
+      <c r="J538" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C539" s="108">
+        <v>16</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E539" s="5">
+        <v>85</v>
+      </c>
+      <c r="F539" s="5">
+        <v>106</v>
+      </c>
+      <c r="G539" s="5">
+        <v>130</v>
+      </c>
+      <c r="H539" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I539" s="5"/>
+      <c r="J539" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="104">
+        <v>44582</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C540" s="108">
+        <v>16</v>
+      </c>
+      <c r="D540" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E540" s="5">
+        <v>85</v>
+      </c>
+      <c r="F540" s="5">
+        <v>106</v>
+      </c>
+      <c r="G540" s="5">
+        <v>130</v>
+      </c>
+      <c r="H540" s="5">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="I540" s="5"/>
+      <c r="J540" s="5">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21049,7 +27585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/網路商城_2022_01月統計表.xlsx
+++ b/網路商城_2022_01月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1995" windowWidth="15600" windowHeight="7965" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2130" windowWidth="15600" windowHeight="7830" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="319">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,6 +1154,82 @@
   </si>
   <si>
     <t>八德陸光</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>八德陸光</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜水餃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉水餃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜瓜園地瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅燒羊肉爐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜白肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中港陳記蝦捲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金沙魚皮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍蝦湯麵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜湯麵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_雞爪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_豆干</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_雞翅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷味_鴨翅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中松竹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊梅金山</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中陝西</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大里永隆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東萬隆</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2471,11 +2547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147960320"/>
-        <c:axId val="187616064"/>
+        <c:axId val="243649024"/>
+        <c:axId val="143819328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147960320"/>
+        <c:axId val="243649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2573,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187616064"/>
+        <c:crossAx val="143819328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187616064"/>
+        <c:axId val="143819328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2605,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147960320"/>
+        <c:crossAx val="243649024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2906,11 +2982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162241280"/>
-        <c:axId val="162241856"/>
+        <c:axId val="251568128"/>
+        <c:axId val="251568704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162241280"/>
+        <c:axId val="251568128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,12 +3030,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162241856"/>
+        <c:crossAx val="251568704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162241856"/>
+        <c:axId val="251568704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3087,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162241280"/>
+        <c:crossAx val="251568128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3208,11 +3284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="196831232"/>
-        <c:axId val="202049792"/>
+        <c:axId val="250974720"/>
+        <c:axId val="251571584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196831232"/>
+        <c:axId val="250974720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3310,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202049792"/>
+        <c:crossAx val="251571584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3242,7 +3318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202049792"/>
+        <c:axId val="251571584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3328,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196831232"/>
+        <c:crossAx val="250974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3465,11 +3541,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="197504512"/>
-        <c:axId val="202051520"/>
+        <c:axId val="251672064"/>
+        <c:axId val="251573312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197504512"/>
+        <c:axId val="251672064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3567,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202051520"/>
+        <c:crossAx val="251573312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3499,7 +3575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202051520"/>
+        <c:axId val="251573312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3585,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197504512"/>
+        <c:crossAx val="251672064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3913,11 +3989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202053248"/>
-        <c:axId val="202053824"/>
+        <c:axId val="251575040"/>
+        <c:axId val="251575616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202053248"/>
+        <c:axId val="251575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,12 +4037,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202053824"/>
+        <c:crossAx val="251575616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202053824"/>
+        <c:axId val="251575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,7 +4094,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202053248"/>
+        <c:crossAx val="251575040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4326,11 +4402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187618368"/>
-        <c:axId val="187618944"/>
+        <c:axId val="183522944"/>
+        <c:axId val="183523520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187618368"/>
+        <c:axId val="183522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,12 +4477,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187618944"/>
+        <c:crossAx val="183523520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187618944"/>
+        <c:axId val="183523520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4549,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187618368"/>
+        <c:crossAx val="183522944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4809,11 +4885,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="192583680"/>
-        <c:axId val="187620672"/>
+        <c:axId val="250535936"/>
+        <c:axId val="129761280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192583680"/>
+        <c:axId val="250535936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4911,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187620672"/>
+        <c:crossAx val="129761280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4843,7 +4919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187620672"/>
+        <c:axId val="129761280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4853,7 +4929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192583680"/>
+        <c:crossAx val="250535936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,6 +5144,9 @@
                 <c:pt idx="2">
                   <c:v>7400</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>7944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5148,6 +5227,9 @@
                 <c:pt idx="2">
                   <c:v>1327</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1525</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5161,8 +5243,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197615616"/>
-        <c:axId val="194323584"/>
+        <c:axId val="250537984"/>
+        <c:axId val="129763008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5285,6 +5367,9 @@
                 <c:pt idx="2">
                   <c:v>89</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5300,11 +5385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197616128"/>
-        <c:axId val="194324160"/>
+        <c:axId val="250538496"/>
+        <c:axId val="129763584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197615616"/>
+        <c:axId val="250537984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5326,7 +5411,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194323584"/>
+        <c:crossAx val="129763008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5334,7 +5419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194323584"/>
+        <c:axId val="129763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,13 +5443,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197615616"/>
+        <c:crossAx val="250537984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194324160"/>
+        <c:axId val="129763584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,13 +5472,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197616128"/>
+        <c:crossAx val="250538496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="197616128"/>
+        <c:axId val="250538496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194324160"/>
+        <c:crossAx val="129763584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5687,8 +5772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197619200"/>
-        <c:axId val="194326464"/>
+        <c:axId val="251229696"/>
+        <c:axId val="129766464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5849,11 +5934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192584704"/>
-        <c:axId val="111905600"/>
+        <c:axId val="250536960"/>
+        <c:axId val="129765888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192584704"/>
+        <c:axId val="250536960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,7 +5960,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111905600"/>
+        <c:crossAx val="129765888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5883,7 +5968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111905600"/>
+        <c:axId val="129765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,12 +5992,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192584704"/>
+        <c:crossAx val="250536960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194326464"/>
+        <c:axId val="129766464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,12 +6020,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197619200"/>
+        <c:crossAx val="251229696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="197619200"/>
+        <c:axId val="251229696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5949,7 +6034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194326464"/>
+        <c:crossAx val="129766464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6189,11 +6274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196830208"/>
-        <c:axId val="194328768"/>
+        <c:axId val="250974208"/>
+        <c:axId val="129768768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196830208"/>
+        <c:axId val="250974208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,7 +6300,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194328768"/>
+        <c:crossAx val="129768768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6223,7 +6308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194328768"/>
+        <c:axId val="129768768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6247,7 +6332,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196830208"/>
+        <c:crossAx val="250974208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6411,11 +6496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196832768"/>
-        <c:axId val="162234368"/>
+        <c:axId val="250975744"/>
+        <c:axId val="250823808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="196832768"/>
+        <c:axId val="250975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6438,7 +6523,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162234368"/>
+        <c:crossAx val="250823808"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6447,7 +6532,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162234368"/>
+        <c:axId val="250823808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6472,7 +6557,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196832768"/>
+        <c:crossAx val="250975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6680,11 +6765,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="196890624"/>
-        <c:axId val="162236672"/>
+        <c:axId val="250976256"/>
+        <c:axId val="250827264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196890624"/>
+        <c:axId val="250976256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,7 +6791,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162236672"/>
+        <c:crossAx val="250827264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6714,7 +6799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162236672"/>
+        <c:axId val="250827264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6724,7 +6809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196890624"/>
+        <c:crossAx val="250976256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6937,11 +7022,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="196894208"/>
-        <c:axId val="162239552"/>
+        <c:axId val="251422208"/>
+        <c:axId val="250828992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196894208"/>
+        <c:axId val="251422208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6963,7 +7048,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162239552"/>
+        <c:crossAx val="250828992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6971,7 +7056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162239552"/>
+        <c:axId val="250828992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6981,7 +7066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196894208"/>
+        <c:crossAx val="251422208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9712,11 +9797,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J540"/>
+  <dimension ref="A1:J683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L526" sqref="L526"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N677" sqref="N677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -27246,6 +27331,4600 @@
       <c r="I540" s="5"/>
       <c r="J540" s="5">
         <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C541" s="5">
+        <v>41</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E541" s="5">
+        <v>85</v>
+      </c>
+      <c r="F541" s="5">
+        <v>106</v>
+      </c>
+      <c r="G541" s="5">
+        <v>130</v>
+      </c>
+      <c r="H541" s="5">
+        <f>F541-E541</f>
+        <v>21</v>
+      </c>
+      <c r="I541" s="5"/>
+      <c r="J541" s="5">
+        <f>I541*F541</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C542" s="5">
+        <v>41</v>
+      </c>
+      <c r="D542" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E542" s="5">
+        <v>85</v>
+      </c>
+      <c r="F542" s="5">
+        <v>106</v>
+      </c>
+      <c r="G542" s="5">
+        <v>130</v>
+      </c>
+      <c r="H542" s="5">
+        <f t="shared" ref="H542:H605" si="22">F542-E542</f>
+        <v>21</v>
+      </c>
+      <c r="I542" s="5"/>
+      <c r="J542" s="5">
+        <f t="shared" ref="J542:J605" si="23">I542*F542</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C543" s="5">
+        <v>41</v>
+      </c>
+      <c r="D543" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E543" s="5">
+        <v>100</v>
+      </c>
+      <c r="F543" s="5">
+        <v>125</v>
+      </c>
+      <c r="G543" s="5">
+        <v>149</v>
+      </c>
+      <c r="H543" s="5">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="I543" s="5"/>
+      <c r="J543" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C544" s="5">
+        <v>41</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E544" s="5">
+        <v>120</v>
+      </c>
+      <c r="F544" s="5">
+        <v>150</v>
+      </c>
+      <c r="G544" s="5">
+        <v>179</v>
+      </c>
+      <c r="H544" s="5">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I544" s="5"/>
+      <c r="J544" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C545" s="5">
+        <v>41</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E545" s="5">
+        <v>120</v>
+      </c>
+      <c r="F545" s="5">
+        <v>160</v>
+      </c>
+      <c r="G545" s="5">
+        <v>200</v>
+      </c>
+      <c r="H545" s="5">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="I545" s="5"/>
+      <c r="J545" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C546" s="5">
+        <v>41</v>
+      </c>
+      <c r="D546" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E546" s="5">
+        <v>110</v>
+      </c>
+      <c r="F546" s="5">
+        <v>138</v>
+      </c>
+      <c r="G546" s="5">
+        <v>160</v>
+      </c>
+      <c r="H546" s="5">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="I546" s="5"/>
+      <c r="J546" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C547" s="5">
+        <v>41</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E547" s="5">
+        <v>110</v>
+      </c>
+      <c r="F547" s="5">
+        <v>147</v>
+      </c>
+      <c r="G547" s="5">
+        <v>185</v>
+      </c>
+      <c r="H547" s="5">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="I547" s="5"/>
+      <c r="J547" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C548" s="5">
+        <v>41</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E548" s="5">
+        <v>80</v>
+      </c>
+      <c r="F548" s="5">
+        <v>100</v>
+      </c>
+      <c r="G548" s="5">
+        <v>120</v>
+      </c>
+      <c r="H548" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I548" s="5"/>
+      <c r="J548" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C549" s="5">
+        <v>41</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E549" s="5">
+        <v>80</v>
+      </c>
+      <c r="F549" s="5">
+        <v>100</v>
+      </c>
+      <c r="G549" s="5">
+        <v>120</v>
+      </c>
+      <c r="H549" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I549" s="5"/>
+      <c r="J549" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C550" s="5">
+        <v>41</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E550" s="5">
+        <v>32</v>
+      </c>
+      <c r="F550" s="5">
+        <v>44</v>
+      </c>
+      <c r="G550" s="5">
+        <v>55</v>
+      </c>
+      <c r="H550" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I550" s="5">
+        <v>2</v>
+      </c>
+      <c r="J550" s="5">
+        <f t="shared" si="23"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C551" s="5">
+        <v>41</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E551" s="5">
+        <v>34</v>
+      </c>
+      <c r="F551" s="5">
+        <v>45</v>
+      </c>
+      <c r="G551" s="5">
+        <v>55</v>
+      </c>
+      <c r="H551" s="5">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I551" s="5">
+        <v>4</v>
+      </c>
+      <c r="J551" s="5">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C552" s="5">
+        <v>41</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E552" s="5">
+        <v>40</v>
+      </c>
+      <c r="F552" s="5">
+        <v>52</v>
+      </c>
+      <c r="G552" s="5">
+        <v>65</v>
+      </c>
+      <c r="H552" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I552" s="5">
+        <v>2</v>
+      </c>
+      <c r="J552" s="5">
+        <f t="shared" si="23"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C553" s="5">
+        <v>41</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E553" s="5">
+        <v>41</v>
+      </c>
+      <c r="F553" s="5">
+        <v>63</v>
+      </c>
+      <c r="G553" s="5">
+        <v>79</v>
+      </c>
+      <c r="H553" s="5">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="I553" s="5">
+        <v>7</v>
+      </c>
+      <c r="J553" s="5">
+        <f t="shared" si="23"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C554" s="5">
+        <v>79</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E554" s="5">
+        <v>85</v>
+      </c>
+      <c r="F554" s="5">
+        <v>106</v>
+      </c>
+      <c r="G554" s="5">
+        <v>130</v>
+      </c>
+      <c r="H554" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I554" s="5">
+        <v>3</v>
+      </c>
+      <c r="J554" s="5">
+        <f t="shared" si="23"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C555" s="5">
+        <v>79</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E555" s="5">
+        <v>85</v>
+      </c>
+      <c r="F555" s="5">
+        <v>106</v>
+      </c>
+      <c r="G555" s="5">
+        <v>130</v>
+      </c>
+      <c r="H555" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I555" s="5"/>
+      <c r="J555" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C556" s="5">
+        <v>79</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E556" s="5">
+        <v>100</v>
+      </c>
+      <c r="F556" s="5">
+        <v>125</v>
+      </c>
+      <c r="G556" s="5">
+        <v>149</v>
+      </c>
+      <c r="H556" s="5">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="I556" s="5"/>
+      <c r="J556" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C557" s="5">
+        <v>79</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E557" s="5">
+        <v>120</v>
+      </c>
+      <c r="F557" s="5">
+        <v>150</v>
+      </c>
+      <c r="G557" s="5">
+        <v>179</v>
+      </c>
+      <c r="H557" s="5">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I557" s="5"/>
+      <c r="J557" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C558" s="5">
+        <v>79</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E558" s="5">
+        <v>120</v>
+      </c>
+      <c r="F558" s="5">
+        <v>160</v>
+      </c>
+      <c r="G558" s="5">
+        <v>200</v>
+      </c>
+      <c r="H558" s="5">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="I558" s="5"/>
+      <c r="J558" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C559" s="5">
+        <v>79</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E559" s="5">
+        <v>110</v>
+      </c>
+      <c r="F559" s="5">
+        <v>138</v>
+      </c>
+      <c r="G559" s="5">
+        <v>160</v>
+      </c>
+      <c r="H559" s="5">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="I559" s="5">
+        <v>3</v>
+      </c>
+      <c r="J559" s="5">
+        <f t="shared" si="23"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C560" s="5">
+        <v>79</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E560" s="5">
+        <v>110</v>
+      </c>
+      <c r="F560" s="5">
+        <v>147</v>
+      </c>
+      <c r="G560" s="5">
+        <v>185</v>
+      </c>
+      <c r="H560" s="5">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="I560" s="5"/>
+      <c r="J560" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B561" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C561" s="5">
+        <v>79</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E561" s="5">
+        <v>80</v>
+      </c>
+      <c r="F561" s="5">
+        <v>100</v>
+      </c>
+      <c r="G561" s="5">
+        <v>120</v>
+      </c>
+      <c r="H561" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I561" s="5"/>
+      <c r="J561" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C562" s="5">
+        <v>79</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E562" s="5">
+        <v>80</v>
+      </c>
+      <c r="F562" s="5">
+        <v>100</v>
+      </c>
+      <c r="G562" s="5">
+        <v>120</v>
+      </c>
+      <c r="H562" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I562" s="5"/>
+      <c r="J562" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C563" s="5">
+        <v>79</v>
+      </c>
+      <c r="D563" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E563" s="5">
+        <v>32</v>
+      </c>
+      <c r="F563" s="5">
+        <v>44</v>
+      </c>
+      <c r="G563" s="5">
+        <v>55</v>
+      </c>
+      <c r="H563" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I563" s="5">
+        <v>3</v>
+      </c>
+      <c r="J563" s="5">
+        <f t="shared" si="23"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C564" s="5">
+        <v>79</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E564" s="5">
+        <v>34</v>
+      </c>
+      <c r="F564" s="5">
+        <v>45</v>
+      </c>
+      <c r="G564" s="5">
+        <v>55</v>
+      </c>
+      <c r="H564" s="5">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I564" s="5"/>
+      <c r="J564" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C565" s="5">
+        <v>79</v>
+      </c>
+      <c r="D565" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E565" s="5">
+        <v>40</v>
+      </c>
+      <c r="F565" s="5">
+        <v>52</v>
+      </c>
+      <c r="G565" s="5">
+        <v>65</v>
+      </c>
+      <c r="H565" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I565" s="5">
+        <v>3</v>
+      </c>
+      <c r="J565" s="5">
+        <f t="shared" si="23"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C566" s="5">
+        <v>79</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E566" s="5">
+        <v>41</v>
+      </c>
+      <c r="F566" s="5">
+        <v>63</v>
+      </c>
+      <c r="G566" s="5">
+        <v>79</v>
+      </c>
+      <c r="H566" s="5">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="I566" s="5">
+        <v>2</v>
+      </c>
+      <c r="J566" s="5">
+        <f t="shared" si="23"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C567" s="5">
+        <v>32</v>
+      </c>
+      <c r="D567" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E567" s="5">
+        <v>85</v>
+      </c>
+      <c r="F567" s="5">
+        <v>106</v>
+      </c>
+      <c r="G567" s="5">
+        <v>130</v>
+      </c>
+      <c r="H567" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I567" s="5"/>
+      <c r="J567" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C568" s="5">
+        <v>32</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E568" s="5">
+        <v>85</v>
+      </c>
+      <c r="F568" s="5">
+        <v>106</v>
+      </c>
+      <c r="G568" s="5">
+        <v>130</v>
+      </c>
+      <c r="H568" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I568" s="5"/>
+      <c r="J568" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C569" s="5">
+        <v>32</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E569" s="5">
+        <v>100</v>
+      </c>
+      <c r="F569" s="5">
+        <v>125</v>
+      </c>
+      <c r="G569" s="5">
+        <v>149</v>
+      </c>
+      <c r="H569" s="5">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="I569" s="5"/>
+      <c r="J569" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C570" s="5">
+        <v>32</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E570" s="5">
+        <v>120</v>
+      </c>
+      <c r="F570" s="5">
+        <v>150</v>
+      </c>
+      <c r="G570" s="5">
+        <v>179</v>
+      </c>
+      <c r="H570" s="5">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I570" s="5"/>
+      <c r="J570" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C571" s="5">
+        <v>32</v>
+      </c>
+      <c r="D571" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E571" s="5">
+        <v>120</v>
+      </c>
+      <c r="F571" s="5">
+        <v>160</v>
+      </c>
+      <c r="G571" s="5">
+        <v>200</v>
+      </c>
+      <c r="H571" s="5">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="I571" s="5"/>
+      <c r="J571" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C572" s="5">
+        <v>32</v>
+      </c>
+      <c r="D572" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E572" s="5">
+        <v>110</v>
+      </c>
+      <c r="F572" s="5">
+        <v>138</v>
+      </c>
+      <c r="G572" s="5">
+        <v>160</v>
+      </c>
+      <c r="H572" s="5">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="I572" s="5"/>
+      <c r="J572" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C573" s="5">
+        <v>32</v>
+      </c>
+      <c r="D573" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E573" s="5">
+        <v>110</v>
+      </c>
+      <c r="F573" s="5">
+        <v>147</v>
+      </c>
+      <c r="G573" s="5">
+        <v>185</v>
+      </c>
+      <c r="H573" s="5">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="I573" s="5"/>
+      <c r="J573" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C574" s="5">
+        <v>32</v>
+      </c>
+      <c r="D574" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E574" s="5">
+        <v>80</v>
+      </c>
+      <c r="F574" s="5">
+        <v>100</v>
+      </c>
+      <c r="G574" s="5">
+        <v>120</v>
+      </c>
+      <c r="H574" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I574" s="5"/>
+      <c r="J574" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C575" s="5">
+        <v>32</v>
+      </c>
+      <c r="D575" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E575" s="5">
+        <v>80</v>
+      </c>
+      <c r="F575" s="5">
+        <v>100</v>
+      </c>
+      <c r="G575" s="5">
+        <v>120</v>
+      </c>
+      <c r="H575" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I575" s="5"/>
+      <c r="J575" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C576" s="5">
+        <v>32</v>
+      </c>
+      <c r="D576" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E576" s="5">
+        <v>32</v>
+      </c>
+      <c r="F576" s="5">
+        <v>44</v>
+      </c>
+      <c r="G576" s="5">
+        <v>55</v>
+      </c>
+      <c r="H576" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I576" s="5"/>
+      <c r="J576" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C577" s="5">
+        <v>32</v>
+      </c>
+      <c r="D577" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E577" s="5">
+        <v>34</v>
+      </c>
+      <c r="F577" s="5">
+        <v>45</v>
+      </c>
+      <c r="G577" s="5">
+        <v>55</v>
+      </c>
+      <c r="H577" s="5">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I577" s="5"/>
+      <c r="J577" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C578" s="5">
+        <v>32</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E578" s="5">
+        <v>40</v>
+      </c>
+      <c r="F578" s="5">
+        <v>52</v>
+      </c>
+      <c r="G578" s="5">
+        <v>65</v>
+      </c>
+      <c r="H578" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I578" s="5"/>
+      <c r="J578" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C579" s="5">
+        <v>32</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E579" s="5">
+        <v>41</v>
+      </c>
+      <c r="F579" s="5">
+        <v>63</v>
+      </c>
+      <c r="G579" s="5">
+        <v>79</v>
+      </c>
+      <c r="H579" s="5">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="I579" s="5"/>
+      <c r="J579" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C580" s="108">
+        <v>53</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E580" s="5">
+        <v>85</v>
+      </c>
+      <c r="F580" s="5">
+        <v>106</v>
+      </c>
+      <c r="G580" s="5">
+        <v>130</v>
+      </c>
+      <c r="H580" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I580" s="5"/>
+      <c r="J580" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C581" s="108">
+        <v>53</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E581" s="5">
+        <v>85</v>
+      </c>
+      <c r="F581" s="5">
+        <v>106</v>
+      </c>
+      <c r="G581" s="5">
+        <v>130</v>
+      </c>
+      <c r="H581" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I581" s="5"/>
+      <c r="J581" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C582" s="108">
+        <v>53</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E582" s="5">
+        <v>100</v>
+      </c>
+      <c r="F582" s="5">
+        <v>125</v>
+      </c>
+      <c r="G582" s="5">
+        <v>149</v>
+      </c>
+      <c r="H582" s="5">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="I582" s="5"/>
+      <c r="J582" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C583" s="108">
+        <v>53</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E583" s="5">
+        <v>120</v>
+      </c>
+      <c r="F583" s="5">
+        <v>150</v>
+      </c>
+      <c r="G583" s="5">
+        <v>179</v>
+      </c>
+      <c r="H583" s="5">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I583" s="5"/>
+      <c r="J583" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C584" s="108">
+        <v>53</v>
+      </c>
+      <c r="D584" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E584" s="5">
+        <v>120</v>
+      </c>
+      <c r="F584" s="5">
+        <v>160</v>
+      </c>
+      <c r="G584" s="5">
+        <v>200</v>
+      </c>
+      <c r="H584" s="5">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="I584" s="5"/>
+      <c r="J584" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C585" s="108">
+        <v>53</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E585" s="5">
+        <v>110</v>
+      </c>
+      <c r="F585" s="5">
+        <v>138</v>
+      </c>
+      <c r="G585" s="5">
+        <v>160</v>
+      </c>
+      <c r="H585" s="5">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="I585" s="5"/>
+      <c r="J585" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C586" s="108">
+        <v>53</v>
+      </c>
+      <c r="D586" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E586" s="5">
+        <v>110</v>
+      </c>
+      <c r="F586" s="5">
+        <v>147</v>
+      </c>
+      <c r="G586" s="5">
+        <v>185</v>
+      </c>
+      <c r="H586" s="5">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="I586" s="5"/>
+      <c r="J586" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C587" s="108">
+        <v>53</v>
+      </c>
+      <c r="D587" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E587" s="5">
+        <v>80</v>
+      </c>
+      <c r="F587" s="5">
+        <v>100</v>
+      </c>
+      <c r="G587" s="5">
+        <v>120</v>
+      </c>
+      <c r="H587" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I587" s="5"/>
+      <c r="J587" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C588" s="108">
+        <v>53</v>
+      </c>
+      <c r="D588" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E588" s="5">
+        <v>80</v>
+      </c>
+      <c r="F588" s="5">
+        <v>100</v>
+      </c>
+      <c r="G588" s="5">
+        <v>120</v>
+      </c>
+      <c r="H588" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I588" s="5"/>
+      <c r="J588" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C589" s="108">
+        <v>53</v>
+      </c>
+      <c r="D589" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E589" s="5">
+        <v>32</v>
+      </c>
+      <c r="F589" s="5">
+        <v>44</v>
+      </c>
+      <c r="G589" s="5">
+        <v>55</v>
+      </c>
+      <c r="H589" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I589" s="5"/>
+      <c r="J589" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C590" s="108">
+        <v>53</v>
+      </c>
+      <c r="D590" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E590" s="5">
+        <v>34</v>
+      </c>
+      <c r="F590" s="5">
+        <v>45</v>
+      </c>
+      <c r="G590" s="5">
+        <v>55</v>
+      </c>
+      <c r="H590" s="5">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I590" s="5"/>
+      <c r="J590" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B591" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C591" s="108">
+        <v>53</v>
+      </c>
+      <c r="D591" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E591" s="5">
+        <v>40</v>
+      </c>
+      <c r="F591" s="5">
+        <v>52</v>
+      </c>
+      <c r="G591" s="5">
+        <v>65</v>
+      </c>
+      <c r="H591" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I591" s="5"/>
+      <c r="J591" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C592" s="108">
+        <v>53</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E592" s="5">
+        <v>41</v>
+      </c>
+      <c r="F592" s="5">
+        <v>63</v>
+      </c>
+      <c r="G592" s="5">
+        <v>79</v>
+      </c>
+      <c r="H592" s="5">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="I592" s="5"/>
+      <c r="J592" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B593" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C593" s="108">
+        <v>8</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E593" s="5">
+        <v>85</v>
+      </c>
+      <c r="F593" s="5">
+        <v>106</v>
+      </c>
+      <c r="G593" s="5">
+        <v>130</v>
+      </c>
+      <c r="H593" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I593" s="5"/>
+      <c r="J593" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B594" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C594" s="108">
+        <v>8</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E594" s="5">
+        <v>85</v>
+      </c>
+      <c r="F594" s="5">
+        <v>106</v>
+      </c>
+      <c r="G594" s="5">
+        <v>130</v>
+      </c>
+      <c r="H594" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I594" s="5"/>
+      <c r="J594" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B595" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C595" s="108">
+        <v>8</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E595" s="5">
+        <v>100</v>
+      </c>
+      <c r="F595" s="5">
+        <v>125</v>
+      </c>
+      <c r="G595" s="5">
+        <v>149</v>
+      </c>
+      <c r="H595" s="5">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="I595" s="5"/>
+      <c r="J595" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B596" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C596" s="108">
+        <v>8</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E596" s="5">
+        <v>120</v>
+      </c>
+      <c r="F596" s="5">
+        <v>150</v>
+      </c>
+      <c r="G596" s="5">
+        <v>179</v>
+      </c>
+      <c r="H596" s="5">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="I596" s="5"/>
+      <c r="J596" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B597" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C597" s="108">
+        <v>8</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E597" s="5">
+        <v>120</v>
+      </c>
+      <c r="F597" s="5">
+        <v>160</v>
+      </c>
+      <c r="G597" s="5">
+        <v>200</v>
+      </c>
+      <c r="H597" s="5">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="I597" s="5"/>
+      <c r="J597" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B598" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C598" s="108">
+        <v>8</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E598" s="5">
+        <v>110</v>
+      </c>
+      <c r="F598" s="5">
+        <v>138</v>
+      </c>
+      <c r="G598" s="5">
+        <v>160</v>
+      </c>
+      <c r="H598" s="5">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="I598" s="5"/>
+      <c r="J598" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B599" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C599" s="108">
+        <v>8</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E599" s="5">
+        <v>110</v>
+      </c>
+      <c r="F599" s="5">
+        <v>147</v>
+      </c>
+      <c r="G599" s="5">
+        <v>185</v>
+      </c>
+      <c r="H599" s="5">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="I599" s="5"/>
+      <c r="J599" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B600" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C600" s="108">
+        <v>8</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E600" s="5">
+        <v>80</v>
+      </c>
+      <c r="F600" s="5">
+        <v>100</v>
+      </c>
+      <c r="G600" s="5">
+        <v>120</v>
+      </c>
+      <c r="H600" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I600" s="5"/>
+      <c r="J600" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B601" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C601" s="108">
+        <v>8</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E601" s="5">
+        <v>80</v>
+      </c>
+      <c r="F601" s="5">
+        <v>100</v>
+      </c>
+      <c r="G601" s="5">
+        <v>120</v>
+      </c>
+      <c r="H601" s="5">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I601" s="5"/>
+      <c r="J601" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B602" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C602" s="108">
+        <v>8</v>
+      </c>
+      <c r="D602" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E602" s="5">
+        <v>32</v>
+      </c>
+      <c r="F602" s="5">
+        <v>44</v>
+      </c>
+      <c r="G602" s="5">
+        <v>55</v>
+      </c>
+      <c r="H602" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I602" s="5"/>
+      <c r="J602" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B603" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C603" s="108">
+        <v>8</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E603" s="5">
+        <v>34</v>
+      </c>
+      <c r="F603" s="5">
+        <v>45</v>
+      </c>
+      <c r="G603" s="5">
+        <v>55</v>
+      </c>
+      <c r="H603" s="5">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I603" s="5"/>
+      <c r="J603" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B604" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C604" s="108">
+        <v>8</v>
+      </c>
+      <c r="D604" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E604" s="5">
+        <v>40</v>
+      </c>
+      <c r="F604" s="5">
+        <v>52</v>
+      </c>
+      <c r="G604" s="5">
+        <v>65</v>
+      </c>
+      <c r="H604" s="5">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="I604" s="5"/>
+      <c r="J604" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B605" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C605" s="108">
+        <v>8</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E605" s="5">
+        <v>41</v>
+      </c>
+      <c r="F605" s="5">
+        <v>63</v>
+      </c>
+      <c r="G605" s="5">
+        <v>79</v>
+      </c>
+      <c r="H605" s="5">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="I605" s="5"/>
+      <c r="J605" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C606" s="108">
+        <v>23</v>
+      </c>
+      <c r="D606" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E606" s="5">
+        <v>85</v>
+      </c>
+      <c r="F606" s="5">
+        <v>106</v>
+      </c>
+      <c r="G606" s="5">
+        <v>130</v>
+      </c>
+      <c r="H606" s="5">
+        <f t="shared" ref="H606:H669" si="24">F606-E606</f>
+        <v>21</v>
+      </c>
+      <c r="I606" s="5"/>
+      <c r="J606" s="5">
+        <f t="shared" ref="J606:J669" si="25">I606*F606</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B607" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C607" s="108">
+        <v>23</v>
+      </c>
+      <c r="D607" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E607" s="5">
+        <v>85</v>
+      </c>
+      <c r="F607" s="5">
+        <v>106</v>
+      </c>
+      <c r="G607" s="5">
+        <v>130</v>
+      </c>
+      <c r="H607" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I607" s="5"/>
+      <c r="J607" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C608" s="108">
+        <v>23</v>
+      </c>
+      <c r="D608" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E608" s="5">
+        <v>100</v>
+      </c>
+      <c r="F608" s="5">
+        <v>125</v>
+      </c>
+      <c r="G608" s="5">
+        <v>149</v>
+      </c>
+      <c r="H608" s="5">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="I608" s="5"/>
+      <c r="J608" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C609" s="108">
+        <v>23</v>
+      </c>
+      <c r="D609" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E609" s="5">
+        <v>120</v>
+      </c>
+      <c r="F609" s="5">
+        <v>150</v>
+      </c>
+      <c r="G609" s="5">
+        <v>179</v>
+      </c>
+      <c r="H609" s="5">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I609" s="5"/>
+      <c r="J609" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C610" s="108">
+        <v>23</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E610" s="5">
+        <v>120</v>
+      </c>
+      <c r="F610" s="5">
+        <v>160</v>
+      </c>
+      <c r="G610" s="5">
+        <v>200</v>
+      </c>
+      <c r="H610" s="5">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I610" s="5"/>
+      <c r="J610" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C611" s="108">
+        <v>23</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E611" s="5">
+        <v>110</v>
+      </c>
+      <c r="F611" s="5">
+        <v>138</v>
+      </c>
+      <c r="G611" s="5">
+        <v>160</v>
+      </c>
+      <c r="H611" s="5">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="I611" s="5"/>
+      <c r="J611" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C612" s="108">
+        <v>23</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E612" s="5">
+        <v>110</v>
+      </c>
+      <c r="F612" s="5">
+        <v>147</v>
+      </c>
+      <c r="G612" s="5">
+        <v>185</v>
+      </c>
+      <c r="H612" s="5">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="I612" s="5"/>
+      <c r="J612" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C613" s="108">
+        <v>23</v>
+      </c>
+      <c r="D613" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E613" s="5">
+        <v>80</v>
+      </c>
+      <c r="F613" s="5">
+        <v>100</v>
+      </c>
+      <c r="G613" s="5">
+        <v>120</v>
+      </c>
+      <c r="H613" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I613" s="5"/>
+      <c r="J613" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C614" s="108">
+        <v>23</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E614" s="5">
+        <v>80</v>
+      </c>
+      <c r="F614" s="5">
+        <v>100</v>
+      </c>
+      <c r="G614" s="5">
+        <v>120</v>
+      </c>
+      <c r="H614" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I614" s="5"/>
+      <c r="J614" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C615" s="108">
+        <v>23</v>
+      </c>
+      <c r="D615" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E615" s="5">
+        <v>32</v>
+      </c>
+      <c r="F615" s="5">
+        <v>44</v>
+      </c>
+      <c r="G615" s="5">
+        <v>55</v>
+      </c>
+      <c r="H615" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I615" s="5"/>
+      <c r="J615" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C616" s="108">
+        <v>23</v>
+      </c>
+      <c r="D616" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E616" s="5">
+        <v>34</v>
+      </c>
+      <c r="F616" s="5">
+        <v>45</v>
+      </c>
+      <c r="G616" s="5">
+        <v>55</v>
+      </c>
+      <c r="H616" s="5">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I616" s="5"/>
+      <c r="J616" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C617" s="108">
+        <v>23</v>
+      </c>
+      <c r="D617" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E617" s="5">
+        <v>40</v>
+      </c>
+      <c r="F617" s="5">
+        <v>52</v>
+      </c>
+      <c r="G617" s="5">
+        <v>65</v>
+      </c>
+      <c r="H617" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I617" s="5"/>
+      <c r="J617" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C618" s="108">
+        <v>23</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E618" s="5">
+        <v>41</v>
+      </c>
+      <c r="F618" s="5">
+        <v>63</v>
+      </c>
+      <c r="G618" s="5">
+        <v>79</v>
+      </c>
+      <c r="H618" s="5">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="I618" s="5"/>
+      <c r="J618" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C619" s="108">
+        <v>49</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E619" s="5">
+        <v>85</v>
+      </c>
+      <c r="F619" s="5">
+        <v>106</v>
+      </c>
+      <c r="G619" s="5">
+        <v>130</v>
+      </c>
+      <c r="H619" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I619" s="5"/>
+      <c r="J619" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C620" s="108">
+        <v>49</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E620" s="5">
+        <v>85</v>
+      </c>
+      <c r="F620" s="5">
+        <v>106</v>
+      </c>
+      <c r="G620" s="5">
+        <v>130</v>
+      </c>
+      <c r="H620" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I620" s="5"/>
+      <c r="J620" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C621" s="108">
+        <v>49</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E621" s="5">
+        <v>100</v>
+      </c>
+      <c r="F621" s="5">
+        <v>125</v>
+      </c>
+      <c r="G621" s="5">
+        <v>149</v>
+      </c>
+      <c r="H621" s="5">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="I621" s="5"/>
+      <c r="J621" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C622" s="108">
+        <v>49</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E622" s="5">
+        <v>120</v>
+      </c>
+      <c r="F622" s="5">
+        <v>150</v>
+      </c>
+      <c r="G622" s="5">
+        <v>179</v>
+      </c>
+      <c r="H622" s="5">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I622" s="5"/>
+      <c r="J622" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C623" s="108">
+        <v>49</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E623" s="5">
+        <v>120</v>
+      </c>
+      <c r="F623" s="5">
+        <v>160</v>
+      </c>
+      <c r="G623" s="5">
+        <v>200</v>
+      </c>
+      <c r="H623" s="5">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I623" s="5"/>
+      <c r="J623" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C624" s="108">
+        <v>49</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E624" s="5">
+        <v>110</v>
+      </c>
+      <c r="F624" s="5">
+        <v>138</v>
+      </c>
+      <c r="G624" s="5">
+        <v>160</v>
+      </c>
+      <c r="H624" s="5">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="I624" s="5"/>
+      <c r="J624" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C625" s="108">
+        <v>49</v>
+      </c>
+      <c r="D625" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E625" s="5">
+        <v>110</v>
+      </c>
+      <c r="F625" s="5">
+        <v>147</v>
+      </c>
+      <c r="G625" s="5">
+        <v>185</v>
+      </c>
+      <c r="H625" s="5">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="I625" s="5"/>
+      <c r="J625" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C626" s="108">
+        <v>49</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E626" s="5">
+        <v>80</v>
+      </c>
+      <c r="F626" s="5">
+        <v>100</v>
+      </c>
+      <c r="G626" s="5">
+        <v>120</v>
+      </c>
+      <c r="H626" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I626" s="5"/>
+      <c r="J626" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C627" s="108">
+        <v>49</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E627" s="5">
+        <v>80</v>
+      </c>
+      <c r="F627" s="5">
+        <v>100</v>
+      </c>
+      <c r="G627" s="5">
+        <v>120</v>
+      </c>
+      <c r="H627" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I627" s="5"/>
+      <c r="J627" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C628" s="108">
+        <v>49</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E628" s="5">
+        <v>32</v>
+      </c>
+      <c r="F628" s="5">
+        <v>44</v>
+      </c>
+      <c r="G628" s="5">
+        <v>55</v>
+      </c>
+      <c r="H628" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I628" s="5"/>
+      <c r="J628" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C629" s="108">
+        <v>49</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E629" s="5">
+        <v>34</v>
+      </c>
+      <c r="F629" s="5">
+        <v>45</v>
+      </c>
+      <c r="G629" s="5">
+        <v>55</v>
+      </c>
+      <c r="H629" s="5">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I629" s="5"/>
+      <c r="J629" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C630" s="108">
+        <v>49</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E630" s="5">
+        <v>40</v>
+      </c>
+      <c r="F630" s="5">
+        <v>52</v>
+      </c>
+      <c r="G630" s="5">
+        <v>65</v>
+      </c>
+      <c r="H630" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I630" s="5"/>
+      <c r="J630" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C631" s="108">
+        <v>49</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E631" s="5">
+        <v>41</v>
+      </c>
+      <c r="F631" s="5">
+        <v>63</v>
+      </c>
+      <c r="G631" s="5">
+        <v>79</v>
+      </c>
+      <c r="H631" s="5">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="I631" s="5"/>
+      <c r="J631" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C632" s="108">
+        <v>33</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E632" s="5">
+        <v>85</v>
+      </c>
+      <c r="F632" s="5">
+        <v>106</v>
+      </c>
+      <c r="G632" s="5">
+        <v>130</v>
+      </c>
+      <c r="H632" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I632" s="5"/>
+      <c r="J632" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C633" s="108">
+        <v>33</v>
+      </c>
+      <c r="D633" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E633" s="5">
+        <v>85</v>
+      </c>
+      <c r="F633" s="5">
+        <v>106</v>
+      </c>
+      <c r="G633" s="5">
+        <v>130</v>
+      </c>
+      <c r="H633" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I633" s="5"/>
+      <c r="J633" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C634" s="108">
+        <v>33</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E634" s="5">
+        <v>100</v>
+      </c>
+      <c r="F634" s="5">
+        <v>125</v>
+      </c>
+      <c r="G634" s="5">
+        <v>149</v>
+      </c>
+      <c r="H634" s="5">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="I634" s="5"/>
+      <c r="J634" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C635" s="108">
+        <v>33</v>
+      </c>
+      <c r="D635" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E635" s="5">
+        <v>120</v>
+      </c>
+      <c r="F635" s="5">
+        <v>150</v>
+      </c>
+      <c r="G635" s="5">
+        <v>179</v>
+      </c>
+      <c r="H635" s="5">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I635" s="5"/>
+      <c r="J635" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C636" s="108">
+        <v>33</v>
+      </c>
+      <c r="D636" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E636" s="5">
+        <v>120</v>
+      </c>
+      <c r="F636" s="5">
+        <v>160</v>
+      </c>
+      <c r="G636" s="5">
+        <v>200</v>
+      </c>
+      <c r="H636" s="5">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I636" s="5"/>
+      <c r="J636" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C637" s="108">
+        <v>33</v>
+      </c>
+      <c r="D637" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E637" s="5">
+        <v>110</v>
+      </c>
+      <c r="F637" s="5">
+        <v>138</v>
+      </c>
+      <c r="G637" s="5">
+        <v>160</v>
+      </c>
+      <c r="H637" s="5">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="I637" s="5"/>
+      <c r="J637" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C638" s="108">
+        <v>33</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E638" s="5">
+        <v>110</v>
+      </c>
+      <c r="F638" s="5">
+        <v>147</v>
+      </c>
+      <c r="G638" s="5">
+        <v>185</v>
+      </c>
+      <c r="H638" s="5">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="I638" s="5"/>
+      <c r="J638" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C639" s="108">
+        <v>33</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E639" s="5">
+        <v>80</v>
+      </c>
+      <c r="F639" s="5">
+        <v>100</v>
+      </c>
+      <c r="G639" s="5">
+        <v>120</v>
+      </c>
+      <c r="H639" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I639" s="5"/>
+      <c r="J639" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C640" s="108">
+        <v>33</v>
+      </c>
+      <c r="D640" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E640" s="5">
+        <v>80</v>
+      </c>
+      <c r="F640" s="5">
+        <v>100</v>
+      </c>
+      <c r="G640" s="5">
+        <v>120</v>
+      </c>
+      <c r="H640" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I640" s="5"/>
+      <c r="J640" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C641" s="108">
+        <v>33</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E641" s="5">
+        <v>32</v>
+      </c>
+      <c r="F641" s="5">
+        <v>44</v>
+      </c>
+      <c r="G641" s="5">
+        <v>55</v>
+      </c>
+      <c r="H641" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I641" s="5"/>
+      <c r="J641" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B642" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C642" s="108">
+        <v>33</v>
+      </c>
+      <c r="D642" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E642" s="5">
+        <v>34</v>
+      </c>
+      <c r="F642" s="5">
+        <v>45</v>
+      </c>
+      <c r="G642" s="5">
+        <v>55</v>
+      </c>
+      <c r="H642" s="5">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I642" s="5"/>
+      <c r="J642" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C643" s="108">
+        <v>33</v>
+      </c>
+      <c r="D643" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E643" s="5">
+        <v>40</v>
+      </c>
+      <c r="F643" s="5">
+        <v>52</v>
+      </c>
+      <c r="G643" s="5">
+        <v>65</v>
+      </c>
+      <c r="H643" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I643" s="5"/>
+      <c r="J643" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C644" s="108">
+        <v>33</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E644" s="5">
+        <v>41</v>
+      </c>
+      <c r="F644" s="5">
+        <v>63</v>
+      </c>
+      <c r="G644" s="5">
+        <v>79</v>
+      </c>
+      <c r="H644" s="5">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="I644" s="5"/>
+      <c r="J644" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B645" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C645" s="5">
+        <v>82</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E645" s="5">
+        <v>85</v>
+      </c>
+      <c r="F645" s="5">
+        <v>106</v>
+      </c>
+      <c r="G645" s="5">
+        <v>130</v>
+      </c>
+      <c r="H645" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I645" s="5"/>
+      <c r="J645" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C646" s="5">
+        <v>82</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E646" s="5">
+        <v>85</v>
+      </c>
+      <c r="F646" s="5">
+        <v>106</v>
+      </c>
+      <c r="G646" s="5">
+        <v>130</v>
+      </c>
+      <c r="H646" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I646" s="5"/>
+      <c r="J646" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C647" s="5">
+        <v>82</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E647" s="5">
+        <v>100</v>
+      </c>
+      <c r="F647" s="5">
+        <v>125</v>
+      </c>
+      <c r="G647" s="5">
+        <v>149</v>
+      </c>
+      <c r="H647" s="5">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="I647" s="5"/>
+      <c r="J647" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C648" s="5">
+        <v>82</v>
+      </c>
+      <c r="D648" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E648" s="5">
+        <v>120</v>
+      </c>
+      <c r="F648" s="5">
+        <v>150</v>
+      </c>
+      <c r="G648" s="5">
+        <v>179</v>
+      </c>
+      <c r="H648" s="5">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I648" s="5"/>
+      <c r="J648" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C649" s="5">
+        <v>82</v>
+      </c>
+      <c r="D649" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E649" s="5">
+        <v>120</v>
+      </c>
+      <c r="F649" s="5">
+        <v>160</v>
+      </c>
+      <c r="G649" s="5">
+        <v>200</v>
+      </c>
+      <c r="H649" s="5">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I649" s="5"/>
+      <c r="J649" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C650" s="5">
+        <v>82</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E650" s="5">
+        <v>110</v>
+      </c>
+      <c r="F650" s="5">
+        <v>138</v>
+      </c>
+      <c r="G650" s="5">
+        <v>160</v>
+      </c>
+      <c r="H650" s="5">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="I650" s="5"/>
+      <c r="J650" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B651" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C651" s="5">
+        <v>82</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E651" s="5">
+        <v>110</v>
+      </c>
+      <c r="F651" s="5">
+        <v>147</v>
+      </c>
+      <c r="G651" s="5">
+        <v>185</v>
+      </c>
+      <c r="H651" s="5">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="I651" s="5"/>
+      <c r="J651" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C652" s="5">
+        <v>82</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E652" s="5">
+        <v>80</v>
+      </c>
+      <c r="F652" s="5">
+        <v>100</v>
+      </c>
+      <c r="G652" s="5">
+        <v>120</v>
+      </c>
+      <c r="H652" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I652" s="5"/>
+      <c r="J652" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C653" s="5">
+        <v>82</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E653" s="5">
+        <v>80</v>
+      </c>
+      <c r="F653" s="5">
+        <v>100</v>
+      </c>
+      <c r="G653" s="5">
+        <v>120</v>
+      </c>
+      <c r="H653" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I653" s="5"/>
+      <c r="J653" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C654" s="5">
+        <v>82</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E654" s="5">
+        <v>32</v>
+      </c>
+      <c r="F654" s="5">
+        <v>44</v>
+      </c>
+      <c r="G654" s="5">
+        <v>55</v>
+      </c>
+      <c r="H654" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I654" s="5"/>
+      <c r="J654" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C655" s="5">
+        <v>82</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E655" s="5">
+        <v>34</v>
+      </c>
+      <c r="F655" s="5">
+        <v>45</v>
+      </c>
+      <c r="G655" s="5">
+        <v>55</v>
+      </c>
+      <c r="H655" s="5">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I655" s="5"/>
+      <c r="J655" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C656" s="5">
+        <v>82</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E656" s="5">
+        <v>40</v>
+      </c>
+      <c r="F656" s="5">
+        <v>52</v>
+      </c>
+      <c r="G656" s="5">
+        <v>65</v>
+      </c>
+      <c r="H656" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I656" s="5"/>
+      <c r="J656" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C657" s="5">
+        <v>82</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E657" s="5">
+        <v>41</v>
+      </c>
+      <c r="F657" s="5">
+        <v>63</v>
+      </c>
+      <c r="G657" s="5">
+        <v>79</v>
+      </c>
+      <c r="H657" s="5">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="I657" s="5"/>
+      <c r="J657" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C658" s="5">
+        <v>22</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E658" s="5">
+        <v>85</v>
+      </c>
+      <c r="F658" s="5">
+        <v>106</v>
+      </c>
+      <c r="G658" s="5">
+        <v>130</v>
+      </c>
+      <c r="H658" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I658" s="5"/>
+      <c r="J658" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C659" s="5">
+        <v>22</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E659" s="5">
+        <v>85</v>
+      </c>
+      <c r="F659" s="5">
+        <v>106</v>
+      </c>
+      <c r="G659" s="5">
+        <v>130</v>
+      </c>
+      <c r="H659" s="5">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="I659" s="5"/>
+      <c r="J659" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C660" s="5">
+        <v>22</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E660" s="5">
+        <v>100</v>
+      </c>
+      <c r="F660" s="5">
+        <v>125</v>
+      </c>
+      <c r="G660" s="5">
+        <v>149</v>
+      </c>
+      <c r="H660" s="5">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="I660" s="5"/>
+      <c r="J660" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C661" s="5">
+        <v>22</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E661" s="5">
+        <v>120</v>
+      </c>
+      <c r="F661" s="5">
+        <v>150</v>
+      </c>
+      <c r="G661" s="5">
+        <v>179</v>
+      </c>
+      <c r="H661" s="5">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I661" s="5"/>
+      <c r="J661" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C662" s="5">
+        <v>22</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E662" s="5">
+        <v>120</v>
+      </c>
+      <c r="F662" s="5">
+        <v>160</v>
+      </c>
+      <c r="G662" s="5">
+        <v>200</v>
+      </c>
+      <c r="H662" s="5">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="I662" s="5"/>
+      <c r="J662" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C663" s="5">
+        <v>22</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E663" s="5">
+        <v>110</v>
+      </c>
+      <c r="F663" s="5">
+        <v>138</v>
+      </c>
+      <c r="G663" s="5">
+        <v>160</v>
+      </c>
+      <c r="H663" s="5">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="I663" s="5"/>
+      <c r="J663" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C664" s="5">
+        <v>22</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E664" s="5">
+        <v>110</v>
+      </c>
+      <c r="F664" s="5">
+        <v>147</v>
+      </c>
+      <c r="G664" s="5">
+        <v>185</v>
+      </c>
+      <c r="H664" s="5">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="I664" s="5"/>
+      <c r="J664" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C665" s="5">
+        <v>22</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E665" s="5">
+        <v>80</v>
+      </c>
+      <c r="F665" s="5">
+        <v>100</v>
+      </c>
+      <c r="G665" s="5">
+        <v>120</v>
+      </c>
+      <c r="H665" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I665" s="5"/>
+      <c r="J665" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C666" s="5">
+        <v>22</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E666" s="5">
+        <v>80</v>
+      </c>
+      <c r="F666" s="5">
+        <v>100</v>
+      </c>
+      <c r="G666" s="5">
+        <v>120</v>
+      </c>
+      <c r="H666" s="5">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="I666" s="5"/>
+      <c r="J666" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C667" s="5">
+        <v>22</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E667" s="5">
+        <v>32</v>
+      </c>
+      <c r="F667" s="5">
+        <v>44</v>
+      </c>
+      <c r="G667" s="5">
+        <v>55</v>
+      </c>
+      <c r="H667" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I667" s="5"/>
+      <c r="J667" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C668" s="5">
+        <v>22</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E668" s="5">
+        <v>34</v>
+      </c>
+      <c r="F668" s="5">
+        <v>45</v>
+      </c>
+      <c r="G668" s="5">
+        <v>55</v>
+      </c>
+      <c r="H668" s="5">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="I668" s="5"/>
+      <c r="J668" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C669" s="5">
+        <v>22</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E669" s="5">
+        <v>40</v>
+      </c>
+      <c r="F669" s="5">
+        <v>52</v>
+      </c>
+      <c r="G669" s="5">
+        <v>65</v>
+      </c>
+      <c r="H669" s="5">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I669" s="5"/>
+      <c r="J669" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C670" s="5">
+        <v>22</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E670" s="5">
+        <v>41</v>
+      </c>
+      <c r="F670" s="5">
+        <v>63</v>
+      </c>
+      <c r="G670" s="5">
+        <v>79</v>
+      </c>
+      <c r="H670" s="5">
+        <f t="shared" ref="H670:H683" si="26">F670-E670</f>
+        <v>22</v>
+      </c>
+      <c r="I670" s="5"/>
+      <c r="J670" s="5">
+        <f t="shared" ref="J670:J683" si="27">I670*F670</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C671" s="5">
+        <v>17</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E671" s="5">
+        <v>85</v>
+      </c>
+      <c r="F671" s="5">
+        <v>106</v>
+      </c>
+      <c r="G671" s="5">
+        <v>130</v>
+      </c>
+      <c r="H671" s="5">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="I671" s="5"/>
+      <c r="J671" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C672" s="5">
+        <v>17</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E672" s="5">
+        <v>85</v>
+      </c>
+      <c r="F672" s="5">
+        <v>106</v>
+      </c>
+      <c r="G672" s="5">
+        <v>130</v>
+      </c>
+      <c r="H672" s="5">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="I672" s="5"/>
+      <c r="J672" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C673" s="5">
+        <v>17</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E673" s="5">
+        <v>100</v>
+      </c>
+      <c r="F673" s="5">
+        <v>125</v>
+      </c>
+      <c r="G673" s="5">
+        <v>149</v>
+      </c>
+      <c r="H673" s="5">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="I673" s="5"/>
+      <c r="J673" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C674" s="5">
+        <v>17</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E674" s="5">
+        <v>120</v>
+      </c>
+      <c r="F674" s="5">
+        <v>150</v>
+      </c>
+      <c r="G674" s="5">
+        <v>179</v>
+      </c>
+      <c r="H674" s="5">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="I674" s="5"/>
+      <c r="J674" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C675" s="5">
+        <v>17</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E675" s="5">
+        <v>120</v>
+      </c>
+      <c r="F675" s="5">
+        <v>160</v>
+      </c>
+      <c r="G675" s="5">
+        <v>200</v>
+      </c>
+      <c r="H675" s="5">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="I675" s="5"/>
+      <c r="J675" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C676" s="5">
+        <v>17</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E676" s="5">
+        <v>110</v>
+      </c>
+      <c r="F676" s="5">
+        <v>138</v>
+      </c>
+      <c r="G676" s="5">
+        <v>160</v>
+      </c>
+      <c r="H676" s="5">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="I676" s="5"/>
+      <c r="J676" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C677" s="5">
+        <v>17</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E677" s="5">
+        <v>110</v>
+      </c>
+      <c r="F677" s="5">
+        <v>147</v>
+      </c>
+      <c r="G677" s="5">
+        <v>185</v>
+      </c>
+      <c r="H677" s="5">
+        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+      <c r="I677" s="5"/>
+      <c r="J677" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C678" s="5">
+        <v>17</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E678" s="5">
+        <v>80</v>
+      </c>
+      <c r="F678" s="5">
+        <v>100</v>
+      </c>
+      <c r="G678" s="5">
+        <v>120</v>
+      </c>
+      <c r="H678" s="5">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="I678" s="5"/>
+      <c r="J678" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C679" s="5">
+        <v>17</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E679" s="5">
+        <v>80</v>
+      </c>
+      <c r="F679" s="5">
+        <v>100</v>
+      </c>
+      <c r="G679" s="5">
+        <v>120</v>
+      </c>
+      <c r="H679" s="5">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="I679" s="5"/>
+      <c r="J679" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C680" s="5">
+        <v>17</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E680" s="5">
+        <v>32</v>
+      </c>
+      <c r="F680" s="5">
+        <v>44</v>
+      </c>
+      <c r="G680" s="5">
+        <v>55</v>
+      </c>
+      <c r="H680" s="5">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="I680" s="5"/>
+      <c r="J680" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C681" s="5">
+        <v>17</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E681" s="5">
+        <v>34</v>
+      </c>
+      <c r="F681" s="5">
+        <v>45</v>
+      </c>
+      <c r="G681" s="5">
+        <v>55</v>
+      </c>
+      <c r="H681" s="5">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="I681" s="5"/>
+      <c r="J681" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C682" s="5">
+        <v>17</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E682" s="5">
+        <v>40</v>
+      </c>
+      <c r="F682" s="5">
+        <v>52</v>
+      </c>
+      <c r="G682" s="5">
+        <v>65</v>
+      </c>
+      <c r="H682" s="5">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="I682" s="5"/>
+      <c r="J682" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="104">
+        <v>44589</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C683" s="5">
+        <v>17</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E683" s="5">
+        <v>41</v>
+      </c>
+      <c r="F683" s="5">
+        <v>63</v>
+      </c>
+      <c r="G683" s="5">
+        <v>79</v>
+      </c>
+      <c r="H683" s="5">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="I683" s="5"/>
+      <c r="J683" s="5">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -27586,7 +32265,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -27690,11 +32369,13 @@
       <c r="E5" s="66">
         <v>89</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="66">
+        <v>78</v>
+      </c>
       <c r="G5" s="66"/>
       <c r="H5" s="66">
         <f>SUM(B5:F5)</f>
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="I5" s="118"/>
     </row>
@@ -27712,15 +32393,17 @@
       <c r="E6" s="64">
         <v>7400</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="64">
+        <v>7944</v>
+      </c>
       <c r="G6" s="64"/>
       <c r="H6" s="64">
         <f>SUM(B6:F6)</f>
-        <v>57153</v>
+        <v>65097</v>
       </c>
       <c r="I6" s="119">
         <f t="shared" ref="I6:I7" si="0">H6/1.05</f>
-        <v>54431.428571428572</v>
+        <v>61997.142857142855</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
@@ -27737,15 +32420,17 @@
       <c r="E7" s="64">
         <v>1327</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="64">
+        <v>1525</v>
+      </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64">
         <f>SUM(B7:F7)</f>
-        <v>10862</v>
+        <v>12387</v>
       </c>
       <c r="I7" s="119">
         <f t="shared" si="0"/>
-        <v>10344.761904761905</v>
+        <v>11797.142857142857</v>
       </c>
     </row>
   </sheetData>
